--- a/Stocks_filtered/support_resistance_scan.xlsx
+++ b/Stocks_filtered/support_resistance_scan.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,963 +459,1109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9329986572266</v>
+        <v>579.1500244140625</v>
       </c>
       <c r="C2" t="n">
-        <v>173.4803009033203</v>
+        <v>623.1500244140625</v>
       </c>
       <c r="D2" t="n">
-        <v>165.8800048828125</v>
+        <v>609.9000244140625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ECLERX</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3928</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4429.2998046875</v>
-      </c>
+        <v>153.9459075927734</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>4323.89990234375</v>
+        <v>165.8800048828125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>655.3802490234375</v>
+        <v>5296</v>
       </c>
       <c r="C4" t="n">
-        <v>702.1829833984375</v>
+        <v>6350.5</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7000122070312</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GESHIP</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1047.849853515625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1133.199951171875</v>
-      </c>
+        <v>81.76999664306641</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1108.800048828125</v>
+        <v>82.98999786376953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080.639770507812</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1239.097900390625</v>
-      </c>
+        <v>398.7000122070312</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1112.300048828125</v>
+        <v>431.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.7000122070312</v>
+        <v>873.9500122070312</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>431.5</v>
+        <v>876.4500122070312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>IKS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>931.3314819335938</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>1487.199951171875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1745.5</v>
+      </c>
       <c r="D8" t="n">
-        <v>1016.400024414062</v>
+        <v>1651.099975585938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.9900054931641</v>
+        <v>1060.344604492188</v>
       </c>
       <c r="C9" t="n">
-        <v>166.1107177734375</v>
+        <v>1206</v>
       </c>
       <c r="D9" t="n">
-        <v>149.0299987792969</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APOLLOTYRE</t>
+          <t>JAMNAAUTO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>490.5232543945312</v>
-      </c>
-      <c r="C10" t="n">
-        <v>521.4500122070312</v>
-      </c>
+        <v>106.8753356933594</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>499.2000122070312</v>
+        <v>116.4300003051758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.5510711669922</v>
+        <v>1002.884918212891</v>
       </c>
       <c r="C11" t="n">
-        <v>253.7799936930338</v>
+        <v>1076.349975585938</v>
       </c>
       <c r="D11" t="n">
-        <v>247.1000061035156</v>
+        <v>1063.599975585938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>KARURVYSYA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>831.6135864257812</v>
-      </c>
-      <c r="C12" t="n">
-        <v>874.8945922851562</v>
-      </c>
+        <v>245.3600006103516</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>842.2000122070312</v>
+        <v>265.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>521.4956970214844</v>
+        <v>773.69140625</v>
       </c>
       <c r="C13" t="n">
-        <v>537.3853149414062</v>
+        <v>1029</v>
       </c>
       <c r="D13" t="n">
-        <v>528.9000244140625</v>
+        <v>842.2000122070312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.575000286102295</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10.89999961853027</v>
-      </c>
+        <v>7093</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>9.930000305175781</v>
+        <v>7198.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DYNAMATECH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2482</v>
+        <v>7266</v>
       </c>
       <c r="C15" t="n">
-        <v>2902.39990234375</v>
+        <v>9715</v>
       </c>
       <c r="D15" t="n">
-        <v>2685.39990234375</v>
+        <v>7899.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1314.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1568.472900390625</v>
-      </c>
+        <v>1493.099975585938</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1408.800048828125</v>
+        <v>1530.800048828125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1831.575439453125</v>
+        <v>1933.699951171875</v>
       </c>
       <c r="C17" t="n">
-        <v>1870.979919433594</v>
+        <v>2148.10009765625</v>
       </c>
       <c r="D17" t="n">
-        <v>1846</v>
+        <v>2145.60009765625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>290.6686401367188</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>232.9400024414062</v>
+      </c>
+      <c r="C18" t="n">
+        <v>283.739990234375</v>
+      </c>
       <c r="D18" t="n">
-        <v>294.75</v>
+        <v>241.8500061035156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31706.59765625</v>
+        <v>544.2000122070312</v>
       </c>
       <c r="C19" t="n">
-        <v>35836.48046875</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="D19" t="n">
-        <v>33315</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>GESHIP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>488.8999938964844</v>
+        <v>1047.849853515625</v>
       </c>
       <c r="C20" t="n">
-        <v>613.0999755859375</v>
+        <v>1133.199951171875</v>
       </c>
       <c r="D20" t="n">
-        <v>518.7999877929688</v>
+        <v>1108.800048828125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UJJIVANSFB</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.96752548217773</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>488.8999938964844</v>
+      </c>
+      <c r="C21" t="n">
+        <v>613.0999755859375</v>
+      </c>
       <c r="D21" t="n">
-        <v>63.06000137329102</v>
+        <v>518.7999877929688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.8699951171875</v>
+        <v>143.9965515136719</v>
       </c>
       <c r="C22" t="n">
-        <v>172.4900054931641</v>
+        <v>166.1581268310547</v>
       </c>
       <c r="D22" t="n">
-        <v>155.3999938964844</v>
+        <v>156.0299987792969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.8829345703125</v>
-      </c>
-      <c r="C23" t="n">
-        <v>289.4916687011719</v>
-      </c>
+        <v>1615.96142578125</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>288.6000061035156</v>
+        <v>1670.800048828125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.4159240722656</v>
+        <v>1794.404663085938</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>360.6499938964844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.40000152587891</v>
+        <v>918</v>
       </c>
       <c r="C25" t="n">
-        <v>99.19779968261719</v>
+        <v>1053.099975585938</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41999816894531</v>
+        <v>925.6500244140625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.72964477539062</v>
-      </c>
-      <c r="C26" t="n">
-        <v>65.99117279052734</v>
-      </c>
+        <v>810.806884765625</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>65.62999725341797</v>
+        <v>898.0999755859375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>235.3400268554688</v>
+        <v>18194</v>
       </c>
       <c r="C27" t="n">
-        <v>257.7935791015625</v>
+        <v>20169.470703125</v>
       </c>
       <c r="D27" t="n">
-        <v>241.8500061035156</v>
+        <v>19325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>544.2000122070312</v>
+        <v>1065.400024414062</v>
       </c>
       <c r="C28" t="n">
-        <v>569.5499877929688</v>
+        <v>1239.097900390625</v>
       </c>
       <c r="D28" t="n">
-        <v>565</v>
+        <v>1112.300048828125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>499.7615356445312</v>
+        <v>2855.89990234375</v>
       </c>
       <c r="C29" t="n">
-        <v>523.0999755859375</v>
+        <v>3125.10009765625</v>
       </c>
       <c r="D29" t="n">
-        <v>521.1500244140625</v>
+        <v>2959.39990234375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>ANURAS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6090.08056640625</v>
-      </c>
-      <c r="C30" t="n">
-        <v>6438.8994140625</v>
-      </c>
+        <v>1158.400024414062</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>6155</v>
+        <v>1230.199951171875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>APOLLOTYRE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>890.9421997070312</v>
+        <v>489.4623107910156</v>
       </c>
       <c r="C31" t="n">
-        <v>910.6213989257812</v>
+        <v>521.4500122070312</v>
       </c>
       <c r="D31" t="n">
-        <v>898.0999755859375</v>
+        <v>499.2000122070312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>578.4350280761719</v>
-      </c>
-      <c r="C32" t="n">
-        <v>623.1500244140625</v>
-      </c>
+        <v>9117.5</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>609.9000244140625</v>
+        <v>9413.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.49918619791667</v>
+        <v>389.4500122070312</v>
       </c>
       <c r="C33" t="n">
-        <v>84.52335357666016</v>
+        <v>426.7052154541016</v>
       </c>
       <c r="D33" t="n">
-        <v>82.98999786376953</v>
+        <v>410.7000122070312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2855.89990234375</v>
+        <v>334.1123046875</v>
       </c>
       <c r="C34" t="n">
-        <v>3125.10009765625</v>
+        <v>371.1499938964844</v>
       </c>
       <c r="D34" t="n">
-        <v>2959.39990234375</v>
+        <v>349.1499938964844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1007.467102050781</v>
+        <v>6695</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.528930664062</v>
+        <v>7047</v>
       </c>
       <c r="D35" t="n">
-        <v>1094.199951171875</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>HEG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>521.4956970214844</v>
+      </c>
+      <c r="C36" t="n">
+        <v>537.3853149414062</v>
+      </c>
       <c r="D36" t="n">
-        <v>7198.5</v>
+        <v>528.9000244140625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>873.9500122070312</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>97.40000152587891</v>
+      </c>
+      <c r="C37" t="n">
+        <v>99.19779968261719</v>
+      </c>
       <c r="D37" t="n">
-        <v>876.4500122070312</v>
+        <v>97.41999816894531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>918</v>
+        <v>322.4500122070312</v>
       </c>
       <c r="C38" t="n">
-        <v>1053.099975585938</v>
+        <v>347.8999938964844</v>
       </c>
       <c r="D38" t="n">
-        <v>925.6500244140625</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>347.6072387695312</v>
+        <v>31615</v>
       </c>
       <c r="C39" t="n">
-        <v>371.1499938964844</v>
+        <v>35910</v>
       </c>
       <c r="D39" t="n">
-        <v>349.1499938964844</v>
+        <v>33315</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1606.76318359375</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1653.35595703125</v>
-      </c>
+        <v>916.0249938964844</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>1643.199951171875</v>
+        <v>968.3499755859375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3831.800048828125</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>849.680908203125</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1027.099975585938</v>
+      </c>
       <c r="D41" t="n">
-        <v>3932.199951171875</v>
+        <v>942.9000244140625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3386.5</v>
+        <v>2482</v>
       </c>
       <c r="C42" t="n">
-        <v>3654</v>
+        <v>2902.39990234375</v>
       </c>
       <c r="D42" t="n">
-        <v>3549.800048828125</v>
+        <v>2685.39990234375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10612.150390625</v>
+        <v>1314.5</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>11477.7998046875</v>
+        <v>1408.800048828125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>^CNXAUTO</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26250.69921875</v>
-      </c>
-      <c r="C44" t="n">
-        <v>27610.75</v>
-      </c>
+        <v>931.3314819335938</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>26804.55078125</v>
+        <v>1016.400024414062</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75.50038909912109</v>
-      </c>
-      <c r="C45" t="n">
-        <v>77.12999725341797</v>
-      </c>
+        <v>1302.599975585938</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>76.36000061035156</v>
+        <v>1377.599975585938</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.3600006103516</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>236.9298858642578</v>
+      </c>
+      <c r="C46" t="n">
+        <v>252.3873596191406</v>
+      </c>
       <c r="D46" t="n">
-        <v>265.5</v>
+        <v>247.1000061035156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>849.680908203125</v>
+        <v>73.51000213623047</v>
       </c>
       <c r="C47" t="n">
-        <v>1027.099975585938</v>
+        <v>77.12999725341797</v>
       </c>
       <c r="D47" t="n">
-        <v>942.9000244140625</v>
+        <v>76.36000061035156</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>119.0051956176758</v>
+        <v>17083.150390625</v>
       </c>
       <c r="C48" t="n">
-        <v>125.0082702636719</v>
+        <v>18875</v>
       </c>
       <c r="D48" t="n">
-        <v>120.1500015258789</v>
+        <v>17478</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>182.8399963378906</v>
+        <v>538.1710205078125</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>187.6100006103516</v>
+        <v>581.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3790.018310546875</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>2479.699951171875</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3388</v>
+      </c>
       <c r="D50" t="n">
-        <v>4021.800048828125</v>
+        <v>2717.39990234375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6695</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7047</v>
-      </c>
+        <v>117.8099975585938</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>6973</v>
+        <v>120.1500015258789</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>104.2743377685547</v>
+        <v>263.2029113769531</v>
       </c>
       <c r="C52" t="n">
-        <v>109.0800018310547</v>
+        <v>328.25</v>
       </c>
       <c r="D52" t="n">
-        <v>108.4000015258789</v>
+        <v>288.6000061035156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>146.7690887451172</v>
-      </c>
-      <c r="C53" t="n">
-        <v>156.3865814208984</v>
-      </c>
+        <v>1854.799987792969</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>156.0299987792969</v>
+        <v>2002.599975585938</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>SAGILITY</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>269.1988525390625</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>46.73328399658203</v>
+      </c>
+      <c r="C54" t="n">
+        <v>53.27999877929688</v>
+      </c>
       <c r="D54" t="n">
-        <v>296.1499938964844</v>
+        <v>51.68999862670898</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5631.55029296875</v>
+        <v>104.2743377685547</v>
       </c>
       <c r="C55" t="n">
-        <v>6138.54736328125</v>
+        <v>109.0800018310547</v>
       </c>
       <c r="D55" t="n">
-        <v>5893.5</v>
+        <v>108.4000015258789</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SHRIPISTON</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1609.019592285156</v>
+        <v>2595.89990234375</v>
       </c>
       <c r="C56" t="n">
-        <v>1709.532165527344</v>
+        <v>2733.199951171875</v>
       </c>
       <c r="D56" t="n">
-        <v>1670.800048828125</v>
+        <v>2700.300048828125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5296</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5537.1416015625</v>
-      </c>
+        <v>182.8399963378906</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>5384</v>
+        <v>187.6100006103516</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9129.683268229166</v>
+        <v>201.9700012207031</v>
       </c>
       <c r="C58" t="n">
-        <v>9715.5205078125</v>
+        <v>222.5</v>
       </c>
       <c r="D58" t="n">
-        <v>9413.5</v>
+        <v>205.3300018310547</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>SANSERA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>389.4500122070312</v>
-      </c>
-      <c r="C59" t="n">
-        <v>426.7052154541016</v>
-      </c>
+        <v>1495</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>410.7000122070312</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1892.69775390625</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>197.2599945068359</v>
+      </c>
+      <c r="C60" t="n">
+        <v>238.7299957275391</v>
+      </c>
       <c r="D60" t="n">
-        <v>2002.599975585938</v>
+        <v>207.1600036621094</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1029.058471679688</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1075.190551757812</v>
-      </c>
+        <v>3831.800048828125</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>1063.599975585938</v>
+        <v>3932.199951171875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1060.344604492188</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1206</v>
-      </c>
+        <v>3670.56884765625</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>1170</v>
+        <v>4021.800048828125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5407.736328125</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6292</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5893.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MRPL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>150.8699951171875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>172.4900054931641</v>
+      </c>
+      <c r="D64" t="n">
+        <v>155.3999938964844</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>290.6686401367188</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>294.75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6090.08056640625</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6520.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SAIL</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>141.9900054931641</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>149.0299987792969</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TVSMOTOR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3386.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3654</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3549.800048828125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>THANGAMAYL</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3389.300048828125</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>THYROCARE</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>458.6543579101562</v>
+      </c>
+      <c r="D70" t="n">
+        <v>440.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ECLERX</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3928</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4429.2998046875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4323.89990234375</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>^CNXMETAL</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10612.150390625</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>11477.7998046875</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>^CNXPSUBANK</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B73" t="n">
         <v>8247.7998046875</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
         <v>8781.0498046875</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>9.930000305175781</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,317 +1608,537 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2662.800048828125</v>
+        <v>847.8499755859375</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3802.800048828125</v>
+        <v>950.2999877929688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.6300048828125</v>
+        <v>379.6864624023438</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>508.0499877929688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.0701675415039</v>
+        <v>205.6300048828125</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>278.5499877929688</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>CEATLTD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>821</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>3091.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3793.610107421875</v>
+      </c>
       <c r="D5" t="n">
-        <v>966.0999755859375</v>
+        <v>3718.199951171875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140.9739074707031</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>1420.699951171875</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1653.35595703125</v>
+      </c>
       <c r="D6" t="n">
-        <v>192.9799957275391</v>
+        <v>1643.199951171875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.0499877929688</v>
-      </c>
-      <c r="C7" t="n">
-        <v>362.9500122070312</v>
-      </c>
+        <v>215.2420959472656</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>347.4500122070312</v>
+        <v>275.4500122070312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.9099731445312</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>146.3274612426758</v>
+      </c>
+      <c r="C8" t="n">
+        <v>186.0700073242188</v>
+      </c>
       <c r="D8" t="n">
-        <v>370.6499938964844</v>
+        <v>182.8999938964844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1770.139526367188</v>
+        <v>964.6500244140625</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2282</v>
+        <v>1094.199951171875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CSBBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215.2420959472656</v>
+        <v>431.75</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>275.4500122070312</v>
+        <v>488.3999938964844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>387.8765258789062</v>
+        <v>114.4499969482422</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>535.9000244140625</v>
+        <v>151.8099975585938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5046.4501953125</v>
+        <v>214.0243988037109</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>5919</v>
+        <v>278.5499877929688</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.422004699707</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>427.2000122070312</v>
+      </c>
+      <c r="C13" t="n">
+        <v>532.9500122070312</v>
+      </c>
       <c r="D13" t="n">
-        <v>159.6499938964844</v>
+        <v>521.1500244140625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13351.095703125</v>
+        <v>275.0499877929688</v>
       </c>
       <c r="C14" t="n">
-        <v>15479</v>
+        <v>362.9500122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>15469</v>
+        <v>347.4500122070312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>449.17236328125</v>
-      </c>
-      <c r="C15" t="n">
-        <v>514.7578735351562</v>
-      </c>
+        <v>140.9739074707031</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>508.0499877929688</v>
+        <v>192.9799957275391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CEATLTD</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3221.4580078125</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3793.610107421875</v>
-      </c>
+        <v>502.2373352050781</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>3718.199951171875</v>
+        <v>698.7000122070312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.1212158203125</v>
+        <v>344.5499877929688</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>151.8099975585938</v>
+        <v>535.9000244140625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.9372711181641</v>
+        <v>821</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>172.7700042724609</v>
+        <v>966.0999755859375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.84375</v>
+        <v>245.4449996948242</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1029.5</v>
+        <v>296.1499938964844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>484.3845520019531</v>
+        <v>58.72708129882812</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>684.1500244140625</v>
+        <v>65.62999725341797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>708.3565063476562</v>
+        <v>120.0254058837891</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1003.549987792969</v>
+        <v>159.6499938964844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MTARTECH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3165.6171875</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>1770.699951171875</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2626.60009765625</v>
+      </c>
       <c r="D22" t="n">
-        <v>3543.39990234375</v>
+        <v>2400.199951171875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>847.8499755859375</v>
+        <v>3172.958251953125</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>950.2999877929688</v>
+        <v>3543.39990234375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2662.800048828125</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>3802.800048828125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NAVINFLUOR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5046.4501953125</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NATIONALUM</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>188.5459747314453</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>370.6499938964844</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RRKABEL</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1164.160400390625</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1412.923828125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1351.599975585938</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>30.26901626586914</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UJJIVANSFB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>49.06999969482422</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>63.06000137329102</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>148.2577209472656</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>172.7700042724609</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>290.4837341308594</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>360.6499938964844</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>12882.814453125</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15479</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15469</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1770.139526367188</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RATEGAIN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="C34" t="n">
+        <v>638.25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>692.6035766601562</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1003.549987792969</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>813.0499877929688</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1029.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>^CNXAUTO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>23980.5498046875</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>26804.55078125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>VEDL</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>445.4774475097656</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>684.1500244140625</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks_filtered/support_resistance_scan.xlsx
+++ b/Stocks_filtered/support_resistance_scan.xlsx
@@ -459,273 +459,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.1500244140625</v>
+        <v>252.3873748779297</v>
       </c>
       <c r="C2" t="n">
-        <v>623.1500244140625</v>
+        <v>279.2722473144531</v>
       </c>
       <c r="D2" t="n">
-        <v>609.9000244140625</v>
+        <v>264.3500061035156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.9459075927734</v>
+        <v>1742</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>165.8800048828125</v>
+        <v>1917.400024414062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5296</v>
+        <v>7257</v>
       </c>
       <c r="C4" t="n">
-        <v>6350.5</v>
+        <v>7730</v>
       </c>
       <c r="D4" t="n">
-        <v>5384</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>RRKABEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.76999664306641</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>1412.923828125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1467.290893554688</v>
+      </c>
       <c r="D5" t="n">
-        <v>82.98999786376953</v>
+        <v>1457.599975585938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.7000122070312</v>
+        <v>1854.799987792969</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>431.5</v>
+        <v>2041.699951171875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.9500122070312</v>
+        <v>222.5</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>876.4500122070312</v>
+        <v>231.4100036621094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IKS</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1487.199951171875</v>
+        <v>197.2599945068359</v>
       </c>
       <c r="C8" t="n">
-        <v>1745.5</v>
+        <v>238.7299957275391</v>
       </c>
       <c r="D8" t="n">
-        <v>1651.099975585938</v>
+        <v>212.6999969482422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>SHARDACROP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1060.344604492188</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1206</v>
-      </c>
+        <v>1100.602416992188</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1170</v>
+        <v>1143.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JAMNAAUTO</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.8753356933594</v>
+        <v>3654</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>116.4300003051758</v>
+        <v>3727.39990234375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1002.884918212891</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1076.349975585938</v>
-      </c>
+        <v>182.8399963378906</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1063.599975585938</v>
+        <v>195.3999938964844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
+          <t>ANURAS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>245.3600006103516</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>1158.400024414062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1333.400024414062</v>
+      </c>
       <c r="D12" t="n">
-        <v>265.5</v>
+        <v>1257.099975585938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>APOLLOTYRE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>773.69140625</v>
+        <v>489.4623107910156</v>
       </c>
       <c r="C13" t="n">
-        <v>1029</v>
+        <v>521.4500122070312</v>
       </c>
       <c r="D13" t="n">
-        <v>842.2000122070312</v>
+        <v>512.6500244140625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7093</v>
+        <v>9117.5</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>7198.5</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DYNAMATECH</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7266</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9715</v>
-      </c>
+        <v>426.7052154541016</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>7899.5</v>
+        <v>439.2000122070312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMCURE</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1493.099975585938</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>2148.10009765625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2408.60009765625</v>
+      </c>
       <c r="D16" t="n">
-        <v>1530.800048828125</v>
+        <v>2328.300048828125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1933.699951171875</v>
+        <v>18194</v>
       </c>
       <c r="C17" t="n">
-        <v>2148.10009765625</v>
+        <v>20169.470703125</v>
       </c>
       <c r="D17" t="n">
-        <v>2145.60009765625</v>
+        <v>20069</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>GVT&amp;D</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>232.9400024414062</v>
-      </c>
-      <c r="C18" t="n">
-        <v>283.739990234375</v>
-      </c>
+        <v>3170.10009765625</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>241.8500061035156</v>
+        <v>3510.39990234375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.2000122070312</v>
+        <v>94.31999969482422</v>
       </c>
       <c r="C19" t="n">
-        <v>569.5499877929688</v>
+        <v>108.3499984741211</v>
       </c>
       <c r="D19" t="n">
-        <v>565</v>
+        <v>98.08000183105469</v>
       </c>
     </row>
     <row r="20">
@@ -735,833 +733,811 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1047.849853515625</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1133.199951171875</v>
-      </c>
+        <v>1124.890014648438</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1108.800048828125</v>
+        <v>1238.800048828125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>488.8999938964844</v>
+        <v>153.9459075927734</v>
       </c>
       <c r="C21" t="n">
-        <v>613.0999755859375</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D21" t="n">
-        <v>518.7999877929688</v>
+        <v>168.0099945068359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.9965515136719</v>
+        <v>428.7765808105469</v>
       </c>
       <c r="C22" t="n">
-        <v>166.1581268310547</v>
+        <v>481.25</v>
       </c>
       <c r="D22" t="n">
-        <v>156.0299987792969</v>
+        <v>458.8500061035156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1615.96142578125</v>
+        <v>81.76999664306641</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1670.800048828125</v>
+        <v>85.13999938964844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1794.404663085938</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>322.4500122070312</v>
+      </c>
+      <c r="C24" t="n">
+        <v>347.8999938964844</v>
+      </c>
       <c r="D24" t="n">
-        <v>1846</v>
+        <v>335.3500061035156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>918</v>
+        <v>2855.89990234375</v>
       </c>
       <c r="C25" t="n">
-        <v>1053.099975585938</v>
+        <v>3125.10009765625</v>
       </c>
       <c r="D25" t="n">
-        <v>925.6500244140625</v>
+        <v>2955.800048828125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>810.806884765625</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>918</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1053.099975585938</v>
+      </c>
       <c r="D26" t="n">
-        <v>898.0999755859375</v>
+        <v>1002.849975585938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FORCEMOT</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18194</v>
+        <v>5803.5</v>
       </c>
       <c r="C27" t="n">
-        <v>20169.470703125</v>
+        <v>6130.25</v>
       </c>
       <c r="D27" t="n">
-        <v>19325</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1065.400024414062</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1239.097900390625</v>
-      </c>
+        <v>7093</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1112.300048828125</v>
+        <v>7848.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2855.89990234375</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3125.10009765625</v>
-      </c>
+        <v>873.9500122070312</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>2959.39990234375</v>
+        <v>879.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ANURAS</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1158.400024414062</v>
+        <v>166.1581268310547</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1230.199951171875</v>
+        <v>172.7799987792969</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>APOLLOTYRE</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.4623107910156</v>
+        <v>730.8455200195312</v>
       </c>
       <c r="C31" t="n">
-        <v>521.4500122070312</v>
+        <v>801.05859375</v>
       </c>
       <c r="D31" t="n">
-        <v>499.2000122070312</v>
+        <v>782.0999755859375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9117.5</v>
+        <v>4273.140625</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>9413.5</v>
+        <v>4423.2998046875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>389.4500122070312</v>
+        <v>5407.736328125</v>
       </c>
       <c r="C33" t="n">
-        <v>426.7052154541016</v>
+        <v>6292</v>
       </c>
       <c r="D33" t="n">
-        <v>410.7000122070312</v>
+        <v>5706.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>334.1123046875</v>
-      </c>
-      <c r="C34" t="n">
-        <v>371.1499938964844</v>
-      </c>
+        <v>931.3314819335938</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>349.1499938964844</v>
+        <v>980.2999877929688</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>MRPL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6695</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7047</v>
-      </c>
+        <v>172.4900054931641</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>6973</v>
+        <v>182.9299926757812</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>MSUMI</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.4956970214844</v>
+        <v>44.45999908447266</v>
       </c>
       <c r="C36" t="n">
-        <v>537.3853149414062</v>
+        <v>48.41999816894531</v>
       </c>
       <c r="D36" t="n">
-        <v>528.9000244140625</v>
+        <v>45.36000061035156</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.40000152587891</v>
-      </c>
-      <c r="C37" t="n">
-        <v>99.19779968261719</v>
-      </c>
+        <v>249.2618865966797</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>97.41999816894531</v>
+        <v>266.9500122070312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IIFLCAPS</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>322.4500122070312</v>
-      </c>
-      <c r="C38" t="n">
-        <v>347.8999938964844</v>
-      </c>
+        <v>538.1710205078125</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>333</v>
+        <v>580.2999877929688</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31615</v>
-      </c>
-      <c r="C39" t="n">
-        <v>35910</v>
-      </c>
+        <v>117.8099975585938</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>33315</v>
+        <v>123.6500015258789</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AETHER</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.0249938964844</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>2010.294067382812</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2162.699951171875</v>
+      </c>
       <c r="D40" t="n">
-        <v>968.3499755859375</v>
+        <v>2025.800048828125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>849.680908203125</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1027.099975585938</v>
-      </c>
+        <v>263.5462036132812</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>942.9000244140625</v>
+        <v>272.7000122070312</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2482</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2902.39990234375</v>
-      </c>
+        <v>360.9675598144531</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>2685.39990234375</v>
+        <v>382.4500122070312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1314.5</v>
+        <v>1653.35595703125</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>1408.800048828125</v>
+        <v>1739.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>931.3314819335938</v>
+        <v>186.0700073242188</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>1016.400024414062</v>
+        <v>193.2200012207031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LUMAXTECH</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1302.599975585938</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>915.0499877929688</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1023.849975585938</v>
+      </c>
       <c r="D45" t="n">
-        <v>1377.599975585938</v>
+        <v>988.1500244140625</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236.9298858642578</v>
-      </c>
-      <c r="C46" t="n">
-        <v>252.3873596191406</v>
-      </c>
+        <v>1522.800048828125</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>247.1000061035156</v>
+        <v>1567.900024414062</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>73.51000213623047</v>
+        <v>1065.400024414062</v>
       </c>
       <c r="C47" t="n">
-        <v>77.12999725341797</v>
+        <v>1239.097900390625</v>
       </c>
       <c r="D47" t="n">
-        <v>76.36000061035156</v>
+        <v>1166.099975585938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PTCIL</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17083.150390625</v>
-      </c>
-      <c r="C48" t="n">
-        <v>18875</v>
-      </c>
+        <v>7047</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>17478</v>
+        <v>7277.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>538.1710205078125</v>
+        <v>1493.099975585938</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>581.5</v>
+        <v>1534.900024414062</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRIVISCL</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2479.699951171875</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="C50" t="n">
-        <v>3388</v>
+        <v>617.3499755859375</v>
       </c>
       <c r="D50" t="n">
-        <v>2717.39990234375</v>
+        <v>582.7000122070312</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>117.8099975585938</v>
+        <v>623.1500244140625</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>120.1500015258789</v>
+        <v>637.3499755859375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>GAEL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>263.2029113769531</v>
-      </c>
-      <c r="C52" t="n">
-        <v>328.25</v>
-      </c>
+        <v>126.1989822387695</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>288.6000061035156</v>
+        <v>133.0899963378906</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1854.799987792969</v>
+        <v>613.0999755859375</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>2002.599975585938</v>
+        <v>614.5499877929688</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SAGILITY</t>
+          <t>HEG</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>46.73328399658203</v>
+        <v>537.3853149414062</v>
       </c>
       <c r="C54" t="n">
-        <v>53.27999877929688</v>
+        <v>591</v>
       </c>
       <c r="D54" t="n">
-        <v>51.68999862670898</v>
+        <v>541.7000122070312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.2743377685547</v>
+        <v>5296</v>
       </c>
       <c r="C55" t="n">
-        <v>109.0800018310547</v>
+        <v>6350.5</v>
       </c>
       <c r="D55" t="n">
-        <v>108.4000015258789</v>
+        <v>5851.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SHRIPISTON</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2595.89990234375</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2733.199951171875</v>
-      </c>
+        <v>103.8000030517578</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>2700.300048828125</v>
+        <v>109.1600036621094</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>182.8399963378906</v>
+        <v>1794.404663085938</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>187.6100006103516</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>201.9700012207031</v>
-      </c>
-      <c r="C58" t="n">
-        <v>222.5</v>
-      </c>
+        <v>1206</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>205.3300018310547</v>
+        <v>1228.199951171875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SANSERA</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1495</v>
+        <v>1076.349975585938</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>1661</v>
+        <v>1167.300048828125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>197.2599945068359</v>
-      </c>
-      <c r="C60" t="n">
-        <v>238.7299957275391</v>
-      </c>
+        <v>290.6686401367188</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>207.1600036621094</v>
+        <v>293.6499938964844</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3831.800048828125</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>1639.899963378906</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1719</v>
+      </c>
       <c r="D61" t="n">
-        <v>3932.199951171875</v>
+        <v>1708.199951171875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>MINDACORP</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3670.56884765625</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>561.361572265625</v>
+      </c>
+      <c r="C62" t="n">
+        <v>601.1500244140625</v>
+      </c>
       <c r="D62" t="n">
-        <v>4021.800048828125</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>NAM-INDIA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5407.736328125</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6292</v>
-      </c>
+        <v>913.3294067382812</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>5893.5</v>
+        <v>926.4000244140625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>150.8699951171875</v>
+        <v>1357.199951171875</v>
       </c>
       <c r="C64" t="n">
-        <v>172.4900054931641</v>
+        <v>1521.224487304688</v>
       </c>
       <c r="D64" t="n">
-        <v>155.3999938964844</v>
+        <v>1456.800048828125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>290.6686401367188</v>
+        <v>141.9900054931641</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>294.75</v>
+        <v>157.2899932861328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>TDPOWERSYS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6090.08056640625</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6520.5</v>
-      </c>
+        <v>785.7000122070312</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>6155</v>
+        <v>821.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>141.9900054931641</v>
+        <v>1152.611206054688</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>149.0299987792969</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3386.5</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3654</v>
-      </c>
+        <v>3831.800048828125</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>3549.800048828125</v>
+        <v>4023.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3389.300048828125</v>
+        <v>722.2000122070312</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>3568</v>
+        <v>758.7000122070312</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>THYROCARE</t>
+          <t>V2RETAIL</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>410.0499877929688</v>
+        <v>1935.950012207031</v>
       </c>
       <c r="C70" t="n">
-        <v>458.6543579101562</v>
+        <v>2449.800048828125</v>
       </c>
       <c r="D70" t="n">
-        <v>440.25</v>
+        <v>2078.39990234375</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ECLERX</t>
+          <t>VARROC</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3928</v>
+        <v>569.9694213867188</v>
       </c>
       <c r="C71" t="n">
-        <v>4429.2998046875</v>
+        <v>633</v>
       </c>
       <c r="D71" t="n">
-        <v>4323.89990234375</v>
+        <v>613.9000244140625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>ECLERX</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10612.150390625</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>4429.2998046875</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4832.2001953125</v>
+      </c>
       <c r="D72" t="n">
-        <v>11477.7998046875</v>
+        <v>4531.10009765625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>^CNXPSUBANK</t>
+          <t>ZFCVINDIA</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8247.7998046875</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>14570</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15567</v>
+      </c>
       <c r="D73" t="n">
-        <v>8781.0498046875</v>
+        <v>15327</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>^CNXPSUBANK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.600000381469727</v>
+        <v>8247.7998046875</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>9.930000305175781</v>
+        <v>8887.5</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1608,537 +1584,969 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8499755859375</v>
+        <v>188.5459747314453</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>950.2999877929688</v>
+        <v>374.8999938964844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>NAVINFLUOR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.6864624023438</v>
+        <v>5046.4501953125</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>508.0499877929688</v>
+        <v>6334.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.6300048828125</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>15425</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18875</v>
+      </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>17716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CEATLTD</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3091.5</v>
+        <v>5043.40869140625</v>
       </c>
       <c r="C5" t="n">
-        <v>3793.610107421875</v>
+        <v>6068.3125</v>
       </c>
       <c r="D5" t="n">
-        <v>3718.199951171875</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420.699951171875</v>
+        <v>263.2029113769531</v>
       </c>
       <c r="C6" t="n">
-        <v>1653.35595703125</v>
+        <v>328.25</v>
       </c>
       <c r="D6" t="n">
-        <v>1643.199951171875</v>
+        <v>305.7999877929688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>SOUTHBANK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.2420959472656</v>
+        <v>30.26901626586914</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>275.4500122070312</v>
+        <v>40.81999969482422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DCBBANK</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.3274612426758</v>
-      </c>
-      <c r="C8" t="n">
-        <v>186.0700073242188</v>
-      </c>
+        <v>813.0499877929688</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>182.8999938964844</v>
+        <v>1068.199951171875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.6500244140625</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>849.680908203125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1027.099975585938</v>
+      </c>
       <c r="D9" t="n">
-        <v>1094.199951171875</v>
+        <v>963.2999877929688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSBBANK</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.75</v>
+        <v>58.72708129882812</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>488.3999938964844</v>
+        <v>65.31999969482422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.4499969482422</v>
+        <v>139.7700042724609</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>151.8099975585938</v>
+        <v>160.9299926757812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214.0243988037109</v>
+        <v>1314.5</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>278.5499877929688</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>427.2000122070312</v>
-      </c>
-      <c r="C13" t="n">
-        <v>532.9500122070312</v>
-      </c>
+        <v>114.4499969482422</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>521.1500244140625</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.0499877929688</v>
+        <v>217.2299957275391</v>
       </c>
       <c r="C14" t="n">
-        <v>362.9500122070312</v>
+        <v>265.1900024414062</v>
       </c>
       <c r="D14" t="n">
-        <v>347.4500122070312</v>
+        <v>251.0299987792969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140.9739074707031</v>
+        <v>916.0249938964844</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>192.9799957275391</v>
+        <v>1035.599975585938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>502.2373352050781</v>
+        <v>140.9739074707031</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>698.7000122070312</v>
+        <v>200.9199981689453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>344.5499877929688</v>
+        <v>810.806884765625</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>535.9000244140625</v>
+        <v>936.8499755859375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>821</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>773.69140625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1029</v>
+      </c>
       <c r="D18" t="n">
-        <v>966.0999755859375</v>
+        <v>880.9000244140625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.4449996948242</v>
+        <v>215.2420959472656</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>296.1499938964844</v>
+        <v>292.1000061035156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.72708129882812</v>
+        <v>384.5076370239258</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>65.62999725341797</v>
+        <v>434.8999938964844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0254058837891</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>3023.33056640625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4600.2001953125</v>
+      </c>
       <c r="D21" t="n">
-        <v>159.6499938964844</v>
+        <v>4202.2998046875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MTARTECH</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1770.699951171875</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2626.60009765625</v>
-      </c>
+        <v>502.2373352050781</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>2400.199951171875</v>
+        <v>639.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>IMFA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3172.958251953125</v>
+        <v>773.0526123046875</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>3543.39990234375</v>
+        <v>1323.699951171875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2662.800048828125</v>
+        <v>379.6864624023438</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>3802.800048828125</v>
+        <v>546.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>KARURVYSYA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5046.4501953125</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>5919</v>
+        <v>317.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>188.5459747314453</v>
+        <v>3678.099975585938</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>370.6499938964844</v>
+        <v>4087.10009765625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1164.160400390625</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1412.923828125</v>
-      </c>
+        <v>1302.599975585938</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1351.599975585938</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>RATEGAIN</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.26901626586914</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>505.0499877929688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>638.25</v>
+      </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>628.8499755859375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UJJIVANSFB</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.06999969482422</v>
+        <v>245.4449996948242</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>63.06000137329102</v>
+        <v>290.8500061035156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>BLACKBUCK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>148.2577209472656</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>489.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>644.2000122070312</v>
+      </c>
       <c r="D30" t="n">
-        <v>172.7700042724609</v>
+        <v>621.8499755859375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4837341308594</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>964.6500244140625</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1269.800048828125</v>
+      </c>
       <c r="D31" t="n">
-        <v>360.6499938964844</v>
+        <v>1229.300048828125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12882.814453125</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15479</v>
-      </c>
+        <v>205.6300048828125</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>15469</v>
+        <v>287.1000061035156</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1770.139526367188</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>2479.699951171875</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3264.199951171875</v>
+      </c>
       <c r="D33" t="n">
-        <v>2282</v>
+        <v>2832.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RATEGAIN</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>505.0499877929688</v>
-      </c>
-      <c r="C34" t="n">
-        <v>638.25</v>
-      </c>
+        <v>692.6035766601562</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>615</v>
+        <v>998.7999877929688</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>692.6035766601562</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>275.0499877929688</v>
+      </c>
+      <c r="C35" t="n">
+        <v>362.9500122070312</v>
+      </c>
       <c r="D35" t="n">
-        <v>1003.549987792969</v>
+        <v>346.6000061035156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>ADANIPOWER</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.0499877929688</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>120.7900009155273</v>
+      </c>
+      <c r="C36" t="n">
+        <v>167.7200012207031</v>
+      </c>
       <c r="D36" t="n">
-        <v>1029.5</v>
+        <v>155.2899932861328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>^CNXAUTO</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23980.5498046875</v>
+        <v>821</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>26804.55078125</v>
+        <v>980.9500122070312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>3MINDIA</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>31615</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35910</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35765</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AIAENG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3650.95556640625</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>4088.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DYNAMATECH</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7266</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9579</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>214.0243988037109</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>287.3999938964844</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GPIL</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>232.9400024414062</v>
+      </c>
+      <c r="C42" t="n">
+        <v>283.739990234375</v>
+      </c>
+      <c r="D42" t="n">
+        <v>260.1799926757812</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HINDALCO</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>847.8499755859375</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>964.9500122070312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>344.5499877929688</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>613.6500244140625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>424.0622863769531</v>
+      </c>
+      <c r="C45" t="n">
+        <v>529.0355834960938</v>
+      </c>
+      <c r="D45" t="n">
+        <v>517.1500244140625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>INDIACEM</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>398.7000122070312</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>463.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>JAMNAAUTO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>106.8753356933594</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>130.2299957275391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MTARTECH</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2626.60009765625</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>3391.89990234375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>290.4837341308594</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3172.958251953125</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2662.800048828125</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>3721.699951171875</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1770.139526367188</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>2543.300048828125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NMDC</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>77.12999725341797</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>85.87999725341797</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1165.685913085938</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1493.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1391.900024414062</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SANSERA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>1900.300048828125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>109.0800018310547</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>122.620002746582</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SHRIPISTON</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2733.199951171875</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>3109.699951171875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>THANGAMAYL</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2255.39990234375</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3389.300048828125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3670.56884765625</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>UJJIVANSFB</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>49.06999969482422</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>USHAMART</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>378.3738098144531</v>
+      </c>
+      <c r="C61" t="n">
+        <v>427.8999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>421.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>18.54000091552734</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22.93000030517578</v>
+      </c>
+      <c r="D62" t="n">
+        <v>21.54999923706055</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>^CNXMETAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10612.150390625</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>12044.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>150.2200012207031</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>176.1100006103516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>VEDL</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>445.4774475097656</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>684.1500244140625</v>
+      <c r="B65" t="n">
+        <v>445.4774322509766</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>687.7999877929688</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.96000003814697</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.35000038146973</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>^CNXAUTO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>23980.5498046875</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>27825.400390625</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks_filtered/support_resistance_scan.xlsx
+++ b/Stocks_filtered/support_resistance_scan.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,645 +455,2295 @@
           <t>Close</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_QoQ_%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_QoQ_%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_QoQ_%</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_YoY_%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_YoY_%</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_YoY_%</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_Slope_5Q</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_Slope_5Q</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>ZFCVINDIA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.3873748779297</v>
-      </c>
-      <c r="C2" t="n">
-        <v>279.2722473144531</v>
-      </c>
+        <v>15567</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>264.3500061035156</v>
+        <v>15858</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PGIL</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1742</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>931.3314819335938</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1106.5</v>
+      </c>
       <c r="D3" t="n">
-        <v>1917.400024414062</v>
+        <v>1010.599975585938</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>170.97</v>
+      </c>
+      <c r="L3" t="n">
+        <v>172.51</v>
+      </c>
+      <c r="M3" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7257</v>
+        <v>428.7765502929688</v>
       </c>
       <c r="C4" t="n">
-        <v>7730</v>
+        <v>481.25</v>
       </c>
       <c r="D4" t="n">
-        <v>7630</v>
+        <v>450.2000122070312</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Refineries &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.67</v>
+      </c>
+      <c r="L4" t="n">
+        <v>57.74</v>
+      </c>
+      <c r="M4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>JAMNAAUTO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.923828125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1467.290893554688</v>
-      </c>
+        <v>132.5700073242188</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1457.599975585938</v>
+        <v>135.3800048828125</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854.799987792969</v>
+        <v>724.4345092773438</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>2041.699951171875</v>
+        <v>760.1500244140625</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fast Moving Consumer Goods</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Edible Oil</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.5</v>
+        <v>268.5199890136719</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>231.4100036621094</v>
+        <v>270.9500122070312</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Consumer Services</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E-Retail/ E-Commerce</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="H7" t="n">
+        <v>106.06</v>
+      </c>
+      <c r="I7" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="K7" t="n">
+        <v>161.54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>144.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>EDELWEISS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.2599945068359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>238.7299957275391</v>
-      </c>
+        <v>120.6100006103516</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>212.6999969482422</v>
+        <v>122.4400024414062</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Holding Company</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>136.65</v>
+      </c>
+      <c r="H8" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="I8" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>132.03</v>
+      </c>
+      <c r="K8" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>111.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>458.7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SHARDACROP</t>
+          <t>NAM-INDIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1100.602416992188</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>856.0205078125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>913.3294067382812</v>
+      </c>
       <c r="D9" t="n">
-        <v>1143.5</v>
+        <v>912.4000244140625</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Asset Management Company</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="M9" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3654</v>
+        <v>166.1581268310547</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>3727.39990234375</v>
+        <v>176.7700042724609</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Refineries &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K10" t="n">
+        <v>528.88</v>
+      </c>
+      <c r="L10" t="n">
+        <v>514</v>
+      </c>
+      <c r="M10" t="n">
+        <v>564.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2253.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.8399963378906</v>
+        <v>4524.2431640625</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>195.3999938964844</v>
+        <v>4566.7998046875</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cables - Electricals</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="K11" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANURAS</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1158.400024414062</v>
+        <v>5803.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1333.400024414062</v>
+        <v>6130.25</v>
       </c>
       <c r="D12" t="n">
-        <v>1257.099975585938</v>
+        <v>5980.5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fast Moving Consumer Goods</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="M12" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>APOLLOTYRE</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.4623107910156</v>
-      </c>
-      <c r="C13" t="n">
-        <v>521.4500122070312</v>
-      </c>
+        <v>360.9675598144531</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>512.6500244140625</v>
+        <v>374.1000061035156</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Refineries &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K13" t="n">
+        <v>88.86</v>
+      </c>
+      <c r="L13" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="M13" t="n">
+        <v>544.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>856.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>MRPL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9117.5</v>
+        <v>172.4900054931641</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>9639</v>
+        <v>185.6000061035156</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Refineries &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>131.42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>131.28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="K14" t="n">
+        <v>369.58</v>
+      </c>
+      <c r="L14" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>254</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>426.7052154541016</v>
+        <v>1206</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>439.2000122070312</v>
+        <v>1232</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>235.19</v>
+      </c>
+      <c r="L15" t="n">
+        <v>198.63</v>
+      </c>
+      <c r="M15" t="n">
+        <v>955.9</v>
+      </c>
+      <c r="N15" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2148.10009765625</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2408.60009765625</v>
-      </c>
+        <v>9117.5</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>2328.300048828125</v>
+        <v>9760</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2/3 Wheelers</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="L16" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="M16" t="n">
+        <v>915.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FORCEMOT</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18194</v>
+        <v>544.2000122070312</v>
       </c>
       <c r="C17" t="n">
-        <v>20169.470703125</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="D17" t="n">
-        <v>20069</v>
+        <v>562.3499755859375</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>60</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GVT&amp;D</t>
+          <t>SAILIFE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3170.10009765625</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>861.3499755859375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>922.0500183105469</v>
+      </c>
       <c r="D18" t="n">
-        <v>3510.39990234375</v>
+        <v>914.8499755859375</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="K18" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="L18" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.31999969482422</v>
-      </c>
-      <c r="C19" t="n">
-        <v>108.3499984741211</v>
-      </c>
+        <v>3847.800048828125</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>98.08000183105469</v>
+        <v>3864.60009765625</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2/3 Wheelers</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="K19" t="n">
+        <v>46.31</v>
+      </c>
+      <c r="L19" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>995.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GESHIP</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1124.890014648438</v>
+        <v>3831.800048828125</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1238.800048828125</v>
+        <v>4078</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="M20" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.9459075927734</v>
+        <v>7093</v>
       </c>
       <c r="C21" t="n">
-        <v>193.6100006103516</v>
+        <v>8013.5</v>
       </c>
       <c r="D21" t="n">
-        <v>168.0099945068359</v>
+        <v>7729</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="K21" t="n">
+        <v>723.08</v>
+      </c>
+      <c r="L21" t="n">
+        <v>728.41</v>
+      </c>
+      <c r="M21" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>428.7765808105469</v>
-      </c>
-      <c r="C22" t="n">
-        <v>481.25</v>
-      </c>
+        <v>916.0249938964844</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>458.8500061035156</v>
+        <v>966.9000244140625</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="J22" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="K22" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="L22" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>APOLLOTYRE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.76999664306641</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>486.0763854980469</v>
+      </c>
+      <c r="C23" t="n">
+        <v>517.8427734375</v>
+      </c>
       <c r="D23" t="n">
-        <v>85.13999938964844</v>
+        <v>489.6499938964844</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tyres &amp; Rubber Products</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="I23" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="K23" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="L23" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="M23" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IIFLCAPS</t>
+          <t>ANURAS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>322.4500122070312</v>
-      </c>
-      <c r="C24" t="n">
-        <v>347.8999938964844</v>
-      </c>
+        <v>1333.400024414062</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>335.3500061035156</v>
+        <v>1336.400024414062</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="H24" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>148.64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="L24" t="n">
+        <v>156.58</v>
+      </c>
+      <c r="M24" t="n">
+        <v>97</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>MINDACORP</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2855.89990234375</v>
+        <v>560.792724609375</v>
       </c>
       <c r="C25" t="n">
-        <v>3125.10009765625</v>
+        <v>601.2151489257812</v>
       </c>
       <c r="D25" t="n">
-        <v>2955.800048828125</v>
+        <v>598</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>918</v>
+        <v>2855.89990234375</v>
       </c>
       <c r="C26" t="n">
-        <v>1053.099975585938</v>
+        <v>3125.10009765625</v>
       </c>
       <c r="D26" t="n">
-        <v>1002.849975585938</v>
+        <v>2989.10009765625</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Financial Products Distributor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="M26" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5803.5</v>
+        <v>7257</v>
       </c>
       <c r="C27" t="n">
-        <v>6130.25</v>
+        <v>7764</v>
       </c>
       <c r="D27" t="n">
-        <v>5879</v>
+        <v>7587.5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cables - Electricals</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-9.31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="L27" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="M27" t="n">
+        <v>431.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>5194.7470703125</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6229.0859375</v>
+      </c>
       <c r="D28" t="n">
-        <v>7848.5</v>
+        <v>5584</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2/3 Wheelers</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>670.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>873.9500122070312</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>1464.574584960938</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1522.800048828125</v>
+      </c>
       <c r="D29" t="n">
-        <v>879.25</v>
+        <v>1519</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Port &amp; Port services</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="J29" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="M29" t="n">
+        <v>416.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.1581268310547</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>1423.199951171875</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1493.099975585938</v>
+      </c>
       <c r="D30" t="n">
-        <v>172.7799987792969</v>
+        <v>1488.699951171875</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="K30" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="L30" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="M30" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.8455200195312</v>
-      </c>
-      <c r="C31" t="n">
-        <v>801.05859375</v>
-      </c>
+        <v>1269.800048828125</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>782.0999755859375</v>
+        <v>1379.900024414062</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-31.45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-31.48</v>
+      </c>
+      <c r="J31" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="K31" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="L31" t="n">
+        <v>56.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4273.140625</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>2148.10009765625</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2408.60009765625</v>
+      </c>
       <c r="D32" t="n">
-        <v>4423.2998046875</v>
+        <v>2298.800048828125</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="K32" t="n">
+        <v>34.04</v>
+      </c>
+      <c r="L32" t="n">
+        <v>34.83</v>
+      </c>
+      <c r="M32" t="n">
+        <v>27</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5407.736328125</v>
+        <v>1919.192504882812</v>
       </c>
       <c r="C33" t="n">
-        <v>6292</v>
+        <v>2064.5</v>
       </c>
       <c r="D33" t="n">
-        <v>5706.5</v>
+        <v>1997.599975585938</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>-35.49</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-33.93</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-33.93</v>
+      </c>
+      <c r="J33" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>TDPOWERSYS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.3314819335938</v>
+        <v>785.7000122070312</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>980.2999877929688</v>
+        <v>834.4500122070312</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Heavy Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-6.67</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="K34" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="L34" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="M34" t="n">
+        <v>29</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.4900054931641</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>2479.699951171875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3264.199951171875</v>
+      </c>
       <c r="D35" t="n">
-        <v>182.9299926757812</v>
+        <v>2738</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-16.67</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-16.94</v>
+      </c>
+      <c r="J35" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="K35" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MSUMI</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.45999908447266</v>
+        <v>914.3802795410156</v>
       </c>
       <c r="C36" t="n">
-        <v>48.41999816894531</v>
+        <v>1050.26318359375</v>
       </c>
       <c r="D36" t="n">
-        <v>45.36000061035156</v>
+        <v>994</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fast Moving Consumer Goods</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tea &amp; Coffee</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="J36" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="L36" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="M36" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>CEIGALL</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>249.2618865966797</v>
+        <v>286.6499938964844</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>266.9500122070312</v>
+        <v>289.6499938964844</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Civil Construction</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I37" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>538.1710205078125</v>
+        <v>1782.554565429688</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>580.2999877929688</v>
+        <v>1891.800048828125</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="K38" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="L38" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="M38" t="n">
+        <v>34</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>117.8099975585938</v>
+        <v>122.0400009155273</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>123.6500015258789</v>
+        <v>131.2599945068359</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L39" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="M39" t="n">
+        <v>834.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2010.294067382812</v>
+        <v>252.3873596191406</v>
       </c>
       <c r="C40" t="n">
-        <v>2162.699951171875</v>
+        <v>268.1802368164062</v>
       </c>
       <c r="D40" t="n">
-        <v>2025.800048828125</v>
+        <v>259.2999877929688</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Power Generation</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="M40" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="N40" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>263.5462036132812</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>31615</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36040</v>
+      </c>
       <c r="D41" t="n">
-        <v>272.7000122070312</v>
+        <v>35115</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-9.08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="K41" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="L41" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.9675598144531</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>1579.466064453125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1742</v>
+      </c>
       <c r="D42" t="n">
-        <v>382.4500122070312</v>
+        <v>1586.099975585938</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Textiles</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Garments &amp; Apparels</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-27.78</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-27.52</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="M42" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1653.35595703125</v>
+        <v>249.2618865966797</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>1739.5</v>
+        <v>267.3999938964844</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Oil Exploration &amp; Production</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="L43" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1248.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>815.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DCBBANK</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>186.0700073242188</v>
+        <v>426.7052154541016</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>193.2200012207031</v>
+        <v>435.5499877929688</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H44" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="I44" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="J44" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="L44" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-59.2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1109,435 +2759,1133 @@
         <v>1023.849975585938</v>
       </c>
       <c r="D45" t="n">
-        <v>988.1500244140625</v>
+        <v>988</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Power Distribution</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="M45" t="n">
+        <v>202.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1522.800048828125</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>623.1500244140625</v>
+      </c>
+      <c r="C46" t="n">
+        <v>659.7000122070312</v>
+      </c>
       <c r="D46" t="n">
-        <v>1567.900024414062</v>
+        <v>645.9000244140625</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>-11.93</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-419.05</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-441.18</v>
+      </c>
+      <c r="M46" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1065.400024414062</v>
+        <v>74.85450744628906</v>
       </c>
       <c r="C47" t="n">
-        <v>1239.097900390625</v>
+        <v>82.03619384765625</v>
       </c>
       <c r="D47" t="n">
-        <v>1166.099975585938</v>
+        <v>79.43000030517578</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Industrial Minerals</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-6.54</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-6.54</v>
+      </c>
+      <c r="M47" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7047</v>
+        <v>1719</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>7277.5</v>
+        <v>1824.900024414062</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Life Insurance</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>45.62</v>
+      </c>
+      <c r="H48" t="n">
+        <v>650</v>
+      </c>
+      <c r="I48" t="n">
+        <v>783.33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-35.71</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-34.57</v>
+      </c>
+      <c r="M48" t="n">
+        <v>808.8</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EMCURE</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1493.099975585938</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>369.2000122070312</v>
+      </c>
+      <c r="C49" t="n">
+        <v>398.75</v>
+      </c>
       <c r="D49" t="n">
-        <v>1534.900024414062</v>
+        <v>377.9500122070312</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-139.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-164.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>414.29</v>
+      </c>
+      <c r="M49" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-59.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>569.5499877929688</v>
+        <v>322.4500122070312</v>
       </c>
       <c r="C50" t="n">
-        <v>617.3499755859375</v>
+        <v>347.8999938964844</v>
       </c>
       <c r="D50" t="n">
-        <v>582.7000122070312</v>
+        <v>325.1499938964844</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Stockbroking &amp; Allied</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H50" t="n">
+        <v>121.18</v>
+      </c>
+      <c r="I50" t="n">
+        <v>120.96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>GAEL</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>623.1500244140625</v>
+        <v>126.1989822387695</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>637.3499755859375</v>
+        <v>138.5399932861328</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Fast Moving Consumer Goods</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Other Agricultural Products</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="M51" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GAEL</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>126.1989822387695</v>
+        <v>847.8499755859375</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>133.0899963378906</v>
+        <v>909</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Aluminium</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-56.78</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-56.78</v>
+      </c>
+      <c r="J52" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-45.13</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1743</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-391.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>613.0999755859375</v>
+        <v>4163.39990234375</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>614.5499877929688</v>
+        <v>4173.89990234375</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Civil Construction</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-18.23</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-18.11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="M53" t="n">
+        <v>715.6</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-177.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>537.3853149414062</v>
-      </c>
-      <c r="C54" t="n">
-        <v>591</v>
-      </c>
+        <v>1076.349975585938</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>541.7000122070312</v>
+        <v>1184.699951171875</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-70.23999999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-70.13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-80.13</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-79.94</v>
+      </c>
+      <c r="M54" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-58.5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5296</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6350.5</v>
-      </c>
+        <v>398.7000122070312</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>5851.5</v>
+        <v>442.3500061035156</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Construction Materials</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Cement &amp; Cement Products</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-130.31</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-132.14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-102.25</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-102.28</v>
+      </c>
+      <c r="M55" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-25.18</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>103.8000030517578</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>201.9700012207031</v>
+      </c>
+      <c r="C56" t="n">
+        <v>222.5</v>
+      </c>
       <c r="D56" t="n">
-        <v>109.1600036621094</v>
+        <v>206.75</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-16.55</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-16.49</v>
+      </c>
+      <c r="J56" t="n">
+        <v>27</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-15.33</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="M56" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1794.404663085938</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>77.62592315673828</v>
+      </c>
+      <c r="C57" t="n">
+        <v>81.76999664306641</v>
+      </c>
       <c r="D57" t="n">
-        <v>1893</v>
+        <v>81.54000091552734</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1206</v>
+        <v>186.0700073242188</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>1228.199951171875</v>
+        <v>190.0299987792969</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1076.349975585938</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>810.806884765625</v>
+      </c>
+      <c r="C59" t="n">
+        <v>940.4000244140625</v>
+      </c>
       <c r="D59" t="n">
-        <v>1167.300048828125</v>
+        <v>884.25</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Housing Finance Company</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>290.6686401367188</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>103.8000030517578</v>
+      </c>
+      <c r="C60" t="n">
+        <v>114.7300033569336</v>
+      </c>
       <c r="D60" t="n">
-        <v>293.6499938964844</v>
+        <v>110.75</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1639.899963378906</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1719</v>
-      </c>
+        <v>1854.799987792969</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>1708.199951171875</v>
+        <v>2034.199951171875</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Life Insurance</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MINDACORP</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>561.361572265625</v>
+        <v>232.9400024414062</v>
       </c>
       <c r="C62" t="n">
-        <v>601.1500244140625</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="D62" t="n">
-        <v>582</v>
+        <v>258.6499938964844</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel Products</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>-12.92</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-11.73</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-47.8</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NAM-INDIA</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>913.3294067382812</v>
+        <v>117.8099975585938</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>926.4000244140625</v>
+        <v>118.7600021362305</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1357.199951171875</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1521.224487304688</v>
-      </c>
+        <v>1226.126892089844</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>1456.800048828125</v>
+        <v>1332.300048828125</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>141.9900054931641</v>
+        <v>290.1755676269531</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>157.2899932861328</v>
+        <v>302.6499938964844</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TDPOWERSYS</t>
+          <t>THANGAMAYL</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>785.7000122070312</v>
+        <v>3389.300048828125</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>821.5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>RAMCOCEM</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1152.611206054688</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TORNTPHARM</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3831.800048828125</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>4023.5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>722.2000122070312</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
-        <v>758.7000122070312</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>V2RETAIL</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1935.950012207031</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2449.800048828125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2078.39990234375</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VARROC</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>569.9694213867188</v>
-      </c>
-      <c r="C71" t="n">
-        <v>633</v>
-      </c>
-      <c r="D71" t="n">
-        <v>613.9000244140625</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ECLERX</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4429.2998046875</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4832.2001953125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4531.10009765625</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ZFCVINDIA</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>14570</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15567</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15327</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>^CNXPSUBANK</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>8247.7998046875</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
-        <v>8887.5</v>
+        <v>3581.60009765625</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Consumer Durables</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gems, Jewellery And Watches</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,973 +3928,3134 @@
           <t>Close</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_QoQ_%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_QoQ_%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_QoQ_%</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_YoY_%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_YoY_%</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_YoY_%</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sales_Slope_5Q</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_Slope_5Q</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.5459747314453</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>3172.958251953125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3802.39990234375</v>
+      </c>
       <c r="D2" t="n">
-        <v>374.8999938964844</v>
+        <v>3533.39990234375</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2476.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5046.4501953125</v>
+        <v>20169.470703125</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>6334.5</v>
+        <v>23843</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="K3" t="n">
+        <v>253.04</v>
+      </c>
+      <c r="L3" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PTCIL</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15425</v>
+        <v>1302.599975585938</v>
       </c>
       <c r="C4" t="n">
-        <v>18875</v>
+        <v>1655.400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>17716</v>
+        <v>1624.400024414062</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="L4" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="M4" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>MTARTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5043.40869140625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6068.3125</v>
-      </c>
+        <v>2626.60009765625</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>5986</v>
+        <v>3586.5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>104.41</v>
+      </c>
+      <c r="H5" t="n">
+        <v>775</v>
+      </c>
+      <c r="I5" t="n">
+        <v>717.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="K5" t="n">
+        <v>118.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>117.34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263.2029113769531</v>
-      </c>
-      <c r="C6" t="n">
-        <v>328.25</v>
-      </c>
+        <v>502.2373352050781</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>305.7999877929688</v>
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zinc</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.23</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="M6" t="n">
+        <v>419.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>212.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.26901626586914</v>
+        <v>1914.218872070312</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>40.81999969482422</v>
+        <v>2245.89990234375</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel Products</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="K7" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>NAVINFLUOR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.0499877929688</v>
+        <v>5046.4501953125</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1068.199951171875</v>
+        <v>6304</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120.24</v>
+      </c>
+      <c r="L8" t="n">
+        <v>114.59</v>
+      </c>
+      <c r="M8" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>849.680908203125</v>
+        <v>275.0499877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>1027.099975585938</v>
+        <v>362.9500122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>963.2999877929688</v>
+        <v>336.2000122070312</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Investment Company</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="M9" t="n">
+        <v>352.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>48</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.72708129882812</v>
+        <v>3670.56884765625</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>65.31999969482422</v>
+        <v>4179.2001953125</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Consumer Durables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gems, Jewellery And Watches</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="L10" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1916.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.7700042724609</v>
+        <v>1770.139526367188</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>160.9299926757812</v>
+        <v>2340.60009765625</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Exchange and Data Platform</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>103.23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>121.26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>150.62</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150.48</v>
+      </c>
+      <c r="M11" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>GESHIP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1314.5</v>
+        <v>1124.890014648438</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1591</v>
+        <v>1300.099975585938</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="H12" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="L12" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.4499969482422</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>985.0249938964844</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1152.611206054688</v>
+      </c>
       <c r="D13" t="n">
-        <v>147.5</v>
+        <v>1144.699951171875</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Construction Materials</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cement &amp; Cement Products</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-5.94</v>
+      </c>
+      <c r="H13" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>399.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>112.09</v>
+      </c>
+      <c r="L13" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.2299957275391</v>
-      </c>
-      <c r="C14" t="n">
-        <v>265.1900024414062</v>
-      </c>
+        <v>7047</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>251.0299987792969</v>
+        <v>8065</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2/3 Wheelers</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>321.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AETHER</t>
+          <t>IMFA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.0249938964844</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>773.0526123046875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1496.099975585938</v>
+      </c>
       <c r="D15" t="n">
-        <v>1035.599975585938</v>
+        <v>1439.699951171875</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ferro &amp; Silica Manganese</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="L15" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9739074707031</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>773.69140625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1029</v>
+      </c>
       <c r="D16" t="n">
-        <v>200.9199981689453</v>
+        <v>879</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Refineries &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4671.43</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4704.29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>459.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>SANSERA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.806884765625</v>
+        <v>1871</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>936.8499755859375</v>
+        <v>2248.89990234375</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>773.69140625</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1029</v>
-      </c>
+        <v>1314.5</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>880.9000244140625</v>
+        <v>1738.800048828125</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-11.66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.2420959472656</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>538.1710205078125</v>
+      </c>
+      <c r="C19" t="n">
+        <v>683.0499877929688</v>
+      </c>
       <c r="D19" t="n">
-        <v>292.1000061035156</v>
+        <v>633.4500122070312</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>63.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>53.82</v>
+      </c>
+      <c r="M19" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>384.5076370239258</v>
+        <v>379.6864624023438</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>434.8999938964844</v>
+        <v>587.9500122070312</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tyres &amp; Rubber Products</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-12.92</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="K20" t="n">
+        <v>292.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>275.52</v>
+      </c>
+      <c r="M20" t="n">
+        <v>135</v>
+      </c>
+      <c r="N20" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3023.33056640625</v>
+        <v>153.9459075927734</v>
       </c>
       <c r="C21" t="n">
-        <v>4600.2001953125</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D21" t="n">
-        <v>4202.2998046875</v>
+        <v>177.1600036621094</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Port &amp; Port services</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-32.92</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-32.83</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>502.2373352050781</v>
+        <v>445.4774322509766</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>639.25</v>
+        <v>673.6500244140625</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Diversified Metals</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>217.39</v>
+      </c>
+      <c r="J22" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="K22" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-909.6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>438</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IMFA</t>
+          <t>SHARDACROP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>773.0526123046875</v>
+        <v>1094.9228515625</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1323.699951171875</v>
+        <v>1256</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pesticides &amp; Agrochemicals</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95.95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>95.27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>367.74</v>
+      </c>
+      <c r="L23" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>AVANTIFEED</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>379.6864624023438</v>
+        <v>921.3240966796875</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>546.5</v>
+        <v>1424.349975585938</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fast Moving Consumer Goods</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Animal Feed</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-13.98</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="M24" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.3600006103516</v>
+        <v>343.9984436035156</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>317.25</v>
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-15.22</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-14.74</v>
+      </c>
+      <c r="J25" t="n">
+        <v>109.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>147.62</v>
+      </c>
+      <c r="L25" t="n">
+        <v>149.23</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3678.099975585938</v>
+        <v>140.9739074707031</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>4087.10009765625</v>
+        <v>204.6300048828125</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Commercial Vehicles</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>355.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LUMAXTECH</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1302.599975585938</v>
+        <v>182.8399963378906</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1528</v>
+        <v>203.1799926757812</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-14.23</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-13.31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>825.42</v>
+      </c>
+      <c r="L27" t="n">
+        <v>726.92</v>
+      </c>
+      <c r="M27" t="n">
+        <v>917.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>685.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RATEGAIN</t>
+          <t>DYNAMATECH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505.0499877929688</v>
+        <v>7262.255859375</v>
       </c>
       <c r="C28" t="n">
-        <v>638.25</v>
+        <v>9574.064453125</v>
       </c>
       <c r="D28" t="n">
-        <v>628.8499755859375</v>
+        <v>9446.5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Industrial Products</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="L28" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.4449996948242</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>15425</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18875</v>
+      </c>
       <c r="D29" t="n">
-        <v>290.8500061035156</v>
+        <v>18384</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Other Industrial Products</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>260</v>
+      </c>
+      <c r="I29" t="n">
+        <v>252.03</v>
+      </c>
+      <c r="J29" t="n">
+        <v>73.61</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLACKBUCK</t>
+          <t>SHRIPISTON</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.5</v>
+        <v>2728.701171875</v>
       </c>
       <c r="C30" t="n">
-        <v>644.2000122070312</v>
+        <v>3291.772705078125</v>
       </c>
       <c r="D30" t="n">
-        <v>621.8499755859375</v>
+        <v>3084</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-11.27</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-12.09</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M30" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.6500244140625</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1269.800048828125</v>
-      </c>
+        <v>141.9900054931641</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1229.300048828125</v>
+        <v>159.2799987792969</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Iron &amp; Steel</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="K31" t="n">
+        <v>163.38</v>
+      </c>
+      <c r="L31" t="n">
+        <v>167.65</v>
+      </c>
+      <c r="M31" t="n">
+        <v>315</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.6300048828125</v>
+        <v>186.2140960693359</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>287.1000061035156</v>
+        <v>349.2999877929688</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Aluminium</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-83.8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-57.9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRIVISCL</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2479.699951171875</v>
+        <v>488.8999938964844</v>
       </c>
       <c r="C33" t="n">
-        <v>3264.199951171875</v>
+        <v>613.0999755859375</v>
       </c>
       <c r="D33" t="n">
-        <v>2832.5</v>
+        <v>571.0999755859375</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Industrial Minerals</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>-27.97</v>
+      </c>
+      <c r="H33" t="n">
+        <v>184.15</v>
+      </c>
+      <c r="I33" t="n">
+        <v>184.47</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-10.96</v>
+      </c>
+      <c r="K33" t="n">
+        <v>264.06</v>
+      </c>
+      <c r="L33" t="n">
+        <v>264.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.6035766601562</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>9.600000381469727</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11.96000003814697</v>
+      </c>
       <c r="D34" t="n">
-        <v>998.7999877929688</v>
+        <v>11.30000019073486</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Telecommunication</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Telecom - Cellular &amp; Fixed line services</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-48.42</v>
+      </c>
+      <c r="M34" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>428.8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>BLACKBUCK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>275.0499877929688</v>
+        <v>489.5</v>
       </c>
       <c r="C35" t="n">
-        <v>362.9500122070312</v>
+        <v>644.2000122070312</v>
       </c>
       <c r="D35" t="n">
-        <v>346.6000061035156</v>
+        <v>634.9000244140625</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Transport Related Services</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-166.67</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-164.34</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADANIPOWER</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.7900009155273</v>
+        <v>849.680908203125</v>
       </c>
       <c r="C36" t="n">
-        <v>167.7200012207031</v>
+        <v>1027.099975585938</v>
       </c>
       <c r="D36" t="n">
-        <v>155.2899932861328</v>
+        <v>958.0999755859375</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Automobile and Auto Components</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auto Components &amp; Equipments</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="I36" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-10.14</v>
+      </c>
+      <c r="M36" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>821</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>3009.645263671875</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4579.376953125</v>
+      </c>
       <c r="D37" t="n">
-        <v>980.9500122070312</v>
+        <v>4412.39990234375</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>-3.63</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-21.86</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-21.92</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M37" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>SOUTHBANK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31615</v>
-      </c>
-      <c r="C38" t="n">
-        <v>35910</v>
-      </c>
+        <v>30.26901626586914</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>35765</v>
+        <v>40.95000076293945</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AIAENG</t>
+          <t>^CNXAUTO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3650.95556640625</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>23980.5498046875</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28803.650390625</v>
+      </c>
       <c r="D39" t="n">
-        <v>4088.5</v>
+        <v>28234.30078125</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DYNAMATECH</t>
+          <t>^CNXMETAL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7266</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9579</v>
-      </c>
+        <v>10612.150390625</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>8848</v>
+        <v>11872.7998046875</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>214.0243988037109</v>
+        <v>215.2420959472656</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>287.3999938964844</v>
+        <v>284.1000061035156</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>232.9400024414062</v>
-      </c>
-      <c r="C42" t="n">
-        <v>283.739990234375</v>
-      </c>
+        <v>813.0499877929688</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>260.1799926757812</v>
+        <v>1198.599975585938</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.8499755859375</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>263.2029113769531</v>
+      </c>
+      <c r="C43" t="n">
+        <v>328.25</v>
+      </c>
       <c r="D43" t="n">
-        <v>964.9500122070312</v>
+        <v>313.7999877929688</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.5499877929688</v>
+        <v>692.6035766601562</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>613.6500244140625</v>
+        <v>1065.800048828125</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>ADANIPOWER</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>424.0622863769531</v>
+        <v>120.7900009155273</v>
       </c>
       <c r="C45" t="n">
-        <v>529.0355834960938</v>
+        <v>167.7200012207031</v>
       </c>
       <c r="D45" t="n">
-        <v>517.1500244140625</v>
+        <v>139.8999938964844</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Integrated Power Utilities</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>-7.48</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-15.69</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-8.92</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-15.37</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-18.87</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-322</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-59.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>398.7000122070312</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>205.6300048828125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>319.75</v>
+      </c>
       <c r="D46" t="n">
-        <v>463.75</v>
+        <v>285.1000061035156</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JAMNAAUTO</t>
+          <t>KARURVYSYA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>106.8753356933594</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>130.2299957275391</v>
+        <v>316</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MTARTECH</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2626.60009765625</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>290.4837341308594</v>
+      </c>
+      <c r="C48" t="n">
+        <v>402.9500122070312</v>
+      </c>
       <c r="D48" t="n">
-        <v>3391.89990234375</v>
+        <v>363.4500122070312</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>290.4837341308594</v>
+        <v>2662.800048828125</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>370</v>
+        <v>3586.10009765625</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3172.958251953125</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>778.4500122070312</v>
+      </c>
+      <c r="C50" t="n">
+        <v>873.9500122070312</v>
+      </c>
       <c r="D50" t="n">
-        <v>3574</v>
+        <v>873.7000122070312</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2662.800048828125</v>
+        <v>150.2200012207031</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>3721.699951171875</v>
+        <v>178.8699951171875</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>UJJIVANSFB</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1770.139526367188</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>2543.300048828125</v>
+        <v>61.2400016784668</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Other Bank</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>77.12999725341797</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>197.2599945068359</v>
+      </c>
+      <c r="C53" t="n">
+        <v>238.7299957275391</v>
+      </c>
       <c r="D53" t="n">
-        <v>85.87999725341797</v>
+        <v>222.8500061035156</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>GVT&amp;D</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1165.685913085938</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1493.5</v>
-      </c>
+        <v>3170.10009765625</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>1391.900024414062</v>
+        <v>3553</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Heavy Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SANSERA</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1495</v>
+        <v>214.0243988037109</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>1900.300048828125</v>
+        <v>288.2999877929688</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>109.0800018310547</v>
+        <v>245.4449996948242</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>122.620002746582</v>
+        <v>287.4500122070312</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHRIPISTON</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2733.199951171875</v>
+        <v>114.4499969482422</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>3109.699951171875</v>
+        <v>141.7700042724609</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2255.39990234375</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3389.300048828125</v>
-      </c>
+        <v>58.72708129882812</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>3283</v>
+        <v>65.44000244140625</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3670.56884765625</v>
+        <v>139.7700042724609</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>4144</v>
+        <v>161.7899932861328</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Public Sector Bank</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UJJIVANSFB</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>49.06999969482422</v>
+        <v>821</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>65.25</v>
+        <v>994.9000244140625</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Other Bank</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>USHAMART</t>
+          <t>^CNXPSUBANK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>378.3738098144531</v>
-      </c>
-      <c r="C61" t="n">
-        <v>427.8999938964844</v>
-      </c>
+        <v>8247.7998046875</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>421.5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>18.54000091552734</v>
-      </c>
-      <c r="C62" t="n">
-        <v>22.93000030517578</v>
-      </c>
-      <c r="D62" t="n">
-        <v>21.54999923706055</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>^CNXMETAL</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>10612.150390625</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>12044.25</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>150.2200012207031</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
-        <v>176.1100006103516</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VEDL</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>445.4774322509766</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
-        <v>687.7999877929688</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11.96000003814697</v>
-      </c>
-      <c r="D66" t="n">
-        <v>11.35000038146973</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>^CNXAUTO</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>23980.5498046875</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>27825.400390625</v>
+        <v>9166.5</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks_filtered/support_resistance_scan.xlsx
+++ b/Stocks_filtered/support_resistance_scan.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,45 +467,55 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>ROCE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Sales_QoQ_%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Profit_QoQ_%</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EPS_QoQ_%</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Sales_YoY_%</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profit_YoY_%</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EPS_YoY_%</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sales_Slope_5Q</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Profit_Slope_5Q</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Net_Score</t>
         </is>
@@ -514,172 +524,188 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZFCVINDIA</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15567</v>
+        <v>724.4345092773438</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>15858</v>
+        <v>760.1500244140625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Edible Oil</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>17.74</v>
+        <v>45.2</v>
       </c>
       <c r="H2" t="n">
-        <v>29.63</v>
+        <v>41.3</v>
       </c>
       <c r="I2" t="n">
-        <v>29.44</v>
+        <v>1.58</v>
       </c>
       <c r="J2" t="n">
-        <v>11.75</v>
+        <v>6.48</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>6.17</v>
       </c>
       <c r="L2" t="n">
-        <v>11.73</v>
+        <v>26.59</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>11.69</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>223.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>NAM-INDIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3314819335938</v>
+        <v>856.0205078125</v>
       </c>
       <c r="C3" t="n">
-        <v>1106.5</v>
+        <v>913.3294067382812</v>
       </c>
       <c r="D3" t="n">
-        <v>1010.599975585938</v>
+        <v>912.4000244140625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Asset Management Company</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.56</v>
+        <v>40.7</v>
       </c>
       <c r="H3" t="n">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="I3" t="n">
-        <v>29.09</v>
+        <v>7.14</v>
       </c>
       <c r="J3" t="n">
-        <v>25.65</v>
+        <v>17.1</v>
       </c>
       <c r="K3" t="n">
-        <v>170.97</v>
+        <v>17.19</v>
       </c>
       <c r="L3" t="n">
-        <v>172.51</v>
+        <v>19.9</v>
       </c>
       <c r="M3" t="n">
-        <v>65.90000000000001</v>
+        <v>36.95</v>
       </c>
       <c r="N3" t="n">
-        <v>27.9</v>
+        <v>36.05</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>32.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.7765502929688</v>
-      </c>
-      <c r="C4" t="n">
-        <v>481.25</v>
-      </c>
+        <v>3831.800048828125</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>450.2000122070312</v>
+        <v>4078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.18</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.94</v>
+        <v>26.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.11</v>
+        <v>7.85</v>
       </c>
       <c r="K4" t="n">
-        <v>57.67</v>
+        <v>7.84</v>
       </c>
       <c r="L4" t="n">
-        <v>57.74</v>
+        <v>14.3</v>
       </c>
       <c r="M4" t="n">
-        <v>31.3</v>
+        <v>30.46</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8</v>
+        <v>30.49</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>119.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JAMNAAUTO</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.5700073242188</v>
+        <v>9117.5</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>135.3800048828125</v>
+        <v>9760</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -688,49 +714,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>25.8</v>
+        <v>28.1</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>22.8</v>
       </c>
       <c r="I5" t="n">
-        <v>46</v>
+        <v>2.98</v>
       </c>
       <c r="J5" t="n">
-        <v>18.86</v>
+        <v>29.59</v>
       </c>
       <c r="K5" t="n">
-        <v>31.82</v>
+        <v>29.46</v>
       </c>
       <c r="L5" t="n">
-        <v>32.73</v>
+        <v>23.05</v>
       </c>
       <c r="M5" t="n">
-        <v>10.5</v>
+        <v>25.23</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>25.13</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>915.9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724.4345092773438</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>5803.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6130.25</v>
+      </c>
       <c r="D6" t="n">
-        <v>760.1500244140625</v>
+        <v>5980.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -739,512 +773,576 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Edible Oil</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>6.48</v>
+        <v>52.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.17</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
-        <v>26.59</v>
+        <v>4.12</v>
       </c>
       <c r="K6" t="n">
-        <v>13.3</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>11.69</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>223.8</v>
+        <v>17.18</v>
       </c>
       <c r="N6" t="n">
-        <v>19.5</v>
+        <v>16.89</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>116.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ZFCVINDIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5199890136719</v>
+        <v>15567</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>270.9500122070312</v>
+        <v>15858</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Consumer Services</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>E-Retail/ E-Commerce</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>22.46</v>
+        <v>20.1</v>
       </c>
       <c r="H7" t="n">
-        <v>106.06</v>
+        <v>15.1</v>
       </c>
       <c r="I7" t="n">
-        <v>83.33</v>
+        <v>17.74</v>
       </c>
       <c r="J7" t="n">
-        <v>26.73</v>
+        <v>29.63</v>
       </c>
       <c r="K7" t="n">
-        <v>161.54</v>
+        <v>29.44</v>
       </c>
       <c r="L7" t="n">
-        <v>144.44</v>
+        <v>11.75</v>
       </c>
       <c r="M7" t="n">
-        <v>149.6</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>9.800000000000001</v>
+        <v>11.73</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>12.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDELWEISS</t>
+          <t>JAMNAAUTO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.6100006103516</v>
+        <v>132.5700073242188</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>122.4400024414062</v>
+        <v>135.3800048828125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Holding Company</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>136.65</v>
+        <v>20.7</v>
       </c>
       <c r="H8" t="n">
-        <v>54.29</v>
+        <v>19.2</v>
       </c>
       <c r="I8" t="n">
-        <v>105.15</v>
+        <v>25.8</v>
       </c>
       <c r="J8" t="n">
-        <v>132.03</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>74.19</v>
+        <v>46</v>
       </c>
       <c r="L8" t="n">
-        <v>111.36</v>
+        <v>18.86</v>
       </c>
       <c r="M8" t="n">
-        <v>458.7</v>
+        <v>31.82</v>
       </c>
       <c r="N8" t="n">
-        <v>24.7</v>
+        <v>32.73</v>
       </c>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAM-INDIA</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>856.0205078125</v>
-      </c>
-      <c r="C9" t="n">
-        <v>913.3294067382812</v>
-      </c>
+        <v>4524.2431640625</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>912.4000244140625</v>
+        <v>4566.7998046875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Asset Management Company</t>
+          <t>Cables - Electricals</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.14</v>
+        <v>21.3</v>
       </c>
       <c r="H9" t="n">
-        <v>17.1</v>
+        <v>15.6</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>19.9</v>
+        <v>15.2</v>
       </c>
       <c r="K9" t="n">
-        <v>36.95</v>
+        <v>15.41</v>
       </c>
       <c r="L9" t="n">
-        <v>36.05</v>
+        <v>19.54</v>
       </c>
       <c r="M9" t="n">
-        <v>32.5</v>
+        <v>42.42</v>
       </c>
       <c r="N9" t="n">
-        <v>26.4</v>
+        <v>42.43</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>77.7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1581268310547</v>
+        <v>3847.800048828125</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>176.7700042724609</v>
+        <v>3864.60009765625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>14.85</v>
+        <v>15.4</v>
       </c>
       <c r="H10" t="n">
-        <v>64.84</v>
+        <v>28.4</v>
       </c>
       <c r="I10" t="n">
-        <v>66.25</v>
+        <v>5.02</v>
       </c>
       <c r="J10" t="n">
-        <v>5.74</v>
+        <v>6.96</v>
       </c>
       <c r="K10" t="n">
-        <v>528.88</v>
+        <v>5.79</v>
       </c>
       <c r="L10" t="n">
-        <v>514</v>
+        <v>33.72</v>
       </c>
       <c r="M10" t="n">
-        <v>564.4</v>
+        <v>46.31</v>
       </c>
       <c r="N10" t="n">
-        <v>2253.3</v>
+        <v>48.7</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>995.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4524.2431640625</v>
+        <v>360.9675598144531</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>4566.7998046875</v>
+        <v>374.1000061035156</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cables - Electricals</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>16.2</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="I11" t="n">
-        <v>15.41</v>
+        <v>13.42</v>
       </c>
       <c r="J11" t="n">
-        <v>19.54</v>
+        <v>16.1</v>
       </c>
       <c r="K11" t="n">
-        <v>42.42</v>
+        <v>16.12</v>
       </c>
       <c r="L11" t="n">
-        <v>42.43</v>
+        <v>5.18</v>
       </c>
       <c r="M11" t="n">
-        <v>77.7</v>
+        <v>88.86</v>
       </c>
       <c r="N11" t="n">
-        <v>11.7</v>
+        <v>88.94</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>544.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>856.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5803.5</v>
+        <v>544.2000122070312</v>
       </c>
       <c r="C12" t="n">
-        <v>6130.25</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="D12" t="n">
-        <v>5980.5</v>
+        <v>562.3499755859375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>15.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.12</v>
+        <v>13.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>7.02</v>
       </c>
       <c r="J12" t="n">
-        <v>8.210000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="K12" t="n">
-        <v>17.18</v>
+        <v>15.06</v>
       </c>
       <c r="L12" t="n">
-        <v>16.89</v>
+        <v>21.97</v>
       </c>
       <c r="M12" t="n">
-        <v>116.3</v>
+        <v>27.12</v>
       </c>
       <c r="N12" t="n">
-        <v>29.6</v>
+        <v>27.63</v>
       </c>
       <c r="O12" t="n">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.9675598144531</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>7257</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7764</v>
+      </c>
       <c r="D13" t="n">
-        <v>374.1000061035156</v>
+        <v>7587.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Cables - Electricals</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>13.42</v>
+        <v>29.7</v>
       </c>
       <c r="H13" t="n">
-        <v>16.1</v>
+        <v>21.4</v>
       </c>
       <c r="I13" t="n">
-        <v>16.12</v>
+        <v>17.89</v>
       </c>
       <c r="J13" t="n">
-        <v>5.18</v>
+        <v>-9.09</v>
       </c>
       <c r="K13" t="n">
-        <v>88.86</v>
+        <v>-9.31</v>
       </c>
       <c r="L13" t="n">
-        <v>88.94</v>
+        <v>46.12</v>
       </c>
       <c r="M13" t="n">
-        <v>544.2</v>
+        <v>35.78</v>
       </c>
       <c r="N13" t="n">
-        <v>856.3</v>
+        <v>35.77</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>431.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>172.4900054931641</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>2855.89990234375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3125.10009765625</v>
+      </c>
       <c r="D14" t="n">
-        <v>185.6000061035156</v>
+        <v>2989.10009765625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Financial Products Distributor</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9.109999999999999</v>
+        <v>56.3</v>
       </c>
       <c r="H14" t="n">
-        <v>131.42</v>
+        <v>45.3</v>
       </c>
       <c r="I14" t="n">
-        <v>131.28</v>
+        <v>-2.36</v>
       </c>
       <c r="J14" t="n">
-        <v>12.99</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>369.58</v>
+        <v>0.5</v>
       </c>
       <c r="L14" t="n">
-        <v>370.45</v>
+        <v>22.36</v>
       </c>
       <c r="M14" t="n">
-        <v>373.5</v>
+        <v>29.87</v>
       </c>
       <c r="N14" t="n">
-        <v>254</v>
+        <v>29.63</v>
       </c>
       <c r="O14" t="n">
-        <v>15</v>
+        <v>18.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>EDELWEISS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1206</v>
+        <v>120.6100006103516</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1232</v>
+        <v>122.4400024414062</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Holding Company</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>13.3</v>
       </c>
       <c r="H15" t="n">
-        <v>46.42</v>
+        <v>8.68</v>
       </c>
       <c r="I15" t="n">
-        <v>31.78</v>
+        <v>136.65</v>
       </c>
       <c r="J15" t="n">
-        <v>11.15</v>
+        <v>54.29</v>
       </c>
       <c r="K15" t="n">
-        <v>235.19</v>
+        <v>105.15</v>
       </c>
       <c r="L15" t="n">
-        <v>198.63</v>
+        <v>132.03</v>
       </c>
       <c r="M15" t="n">
-        <v>955.9</v>
+        <v>74.19</v>
       </c>
       <c r="N15" t="n">
-        <v>352.7</v>
+        <v>111.36</v>
       </c>
       <c r="O15" t="n">
-        <v>15</v>
+        <v>458.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9117.5</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>5194.7470703125</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6229.0859375</v>
+      </c>
       <c r="D16" t="n">
-        <v>9760</v>
+        <v>5584</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1257,47 +1355,53 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>30.3</v>
       </c>
       <c r="H16" t="n">
-        <v>29.59</v>
+        <v>23.1</v>
       </c>
       <c r="I16" t="n">
-        <v>29.46</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>23.05</v>
+        <v>-3.48</v>
       </c>
       <c r="K16" t="n">
-        <v>25.23</v>
+        <v>-3.16</v>
       </c>
       <c r="L16" t="n">
-        <v>25.13</v>
+        <v>21.71</v>
       </c>
       <c r="M16" t="n">
-        <v>915.9</v>
+        <v>15.07</v>
       </c>
       <c r="N16" t="n">
-        <v>142.8</v>
+        <v>14.39</v>
       </c>
       <c r="O16" t="n">
-        <v>15</v>
+        <v>670.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>SAILIFE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>544.2000122070312</v>
+        <v>861.3499755859375</v>
       </c>
       <c r="C17" t="n">
-        <v>569.5499877929688</v>
+        <v>922.0500183105469</v>
       </c>
       <c r="D17" t="n">
-        <v>562.3499755859375</v>
+        <v>914.8499755859375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1310,202 +1414,228 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.02</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>15.06</v>
+        <v>3.54</v>
       </c>
       <c r="J17" t="n">
-        <v>21.97</v>
+        <v>19.05</v>
       </c>
       <c r="K17" t="n">
-        <v>27.12</v>
+        <v>18.75</v>
       </c>
       <c r="L17" t="n">
-        <v>27.63</v>
+        <v>26.36</v>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>85.19</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>15</v>
+        <v>18.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAILIFE</t>
+          <t>CEIGALL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>861.3499755859375</v>
-      </c>
-      <c r="C18" t="n">
-        <v>922.0500183105469</v>
-      </c>
+        <v>286.6499938964844</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>914.8499755859375</v>
+        <v>289.6499938964844</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.54</v>
+        <v>19.4</v>
       </c>
       <c r="H18" t="n">
-        <v>19.05</v>
+        <v>20.9</v>
       </c>
       <c r="I18" t="n">
-        <v>18.75</v>
+        <v>22.8</v>
       </c>
       <c r="J18" t="n">
-        <v>26.36</v>
+        <v>28.57</v>
       </c>
       <c r="K18" t="n">
-        <v>85.19</v>
+        <v>27.63</v>
       </c>
       <c r="L18" t="n">
-        <v>83.40000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>1.41</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="O18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Q18" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3847.800048828125</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>428.7765502929688</v>
+      </c>
+      <c r="C19" t="n">
+        <v>481.25</v>
+      </c>
       <c r="D19" t="n">
-        <v>3864.60009765625</v>
+        <v>450.2000122070312</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.02</v>
+        <v>10.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.96</v>
+        <v>13.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.79</v>
+        <v>14.18</v>
       </c>
       <c r="J19" t="n">
-        <v>33.72</v>
+        <v>3.94</v>
       </c>
       <c r="K19" t="n">
-        <v>46.31</v>
+        <v>3.91</v>
       </c>
       <c r="L19" t="n">
-        <v>48.7</v>
+        <v>4.11</v>
       </c>
       <c r="M19" t="n">
-        <v>995.1</v>
+        <v>57.67</v>
       </c>
       <c r="N19" t="n">
-        <v>69.90000000000001</v>
+        <v>57.74</v>
       </c>
       <c r="O19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="Q19" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3831.800048828125</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>7093</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8013.5</v>
+      </c>
       <c r="D20" t="n">
-        <v>4078</v>
+        <v>7729</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H20" t="n">
-        <v>7.85</v>
+        <v>9.41</v>
       </c>
       <c r="I20" t="n">
-        <v>7.84</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>14.3</v>
+        <v>17.58</v>
       </c>
       <c r="K20" t="n">
-        <v>30.46</v>
+        <v>17.88</v>
       </c>
       <c r="L20" t="n">
-        <v>30.49</v>
+        <v>30.52</v>
       </c>
       <c r="M20" t="n">
-        <v>119.5</v>
+        <v>723.08</v>
       </c>
       <c r="N20" t="n">
-        <v>32.1</v>
+        <v>728.41</v>
       </c>
       <c r="O20" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>APOLLOTYRE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7093</v>
+        <v>486.0763854980469</v>
       </c>
       <c r="C21" t="n">
-        <v>8013.5</v>
+        <v>517.8427734375</v>
       </c>
       <c r="D21" t="n">
-        <v>7729</v>
+        <v>489.6499938964844</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1514,679 +1644,751 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Tyres &amp; Rubber Products</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>11.4</v>
       </c>
       <c r="H21" t="n">
-        <v>17.58</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>17.88</v>
+        <v>13.35</v>
       </c>
       <c r="J21" t="n">
-        <v>30.52</v>
+        <v>82.56</v>
       </c>
       <c r="K21" t="n">
-        <v>723.08</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>728.41</v>
+        <v>11.76</v>
       </c>
       <c r="M21" t="n">
-        <v>121.5</v>
+        <v>39.76</v>
       </c>
       <c r="N21" t="n">
-        <v>21.2</v>
+        <v>39.55</v>
       </c>
       <c r="O21" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="P21" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="Q21" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AETHER</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.0249938964844</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>2148.10009765625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2408.60009765625</v>
+      </c>
       <c r="D22" t="n">
-        <v>966.9000244140625</v>
+        <v>2298.800048828125</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13.21</v>
+        <v>27.8</v>
       </c>
       <c r="H22" t="n">
-        <v>18.52</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>19.41</v>
+        <v>-3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>44.09</v>
+        <v>-1.56</v>
       </c>
       <c r="K22" t="n">
-        <v>48.84</v>
+        <v>-0.45</v>
       </c>
       <c r="L22" t="n">
-        <v>48.62</v>
+        <v>16.36</v>
       </c>
       <c r="M22" t="n">
-        <v>23.4</v>
+        <v>34.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>34.83</v>
       </c>
       <c r="O22" t="n">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>APOLLOTYRE</t>
+          <t>TDPOWERSYS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>486.0763854980469</v>
-      </c>
-      <c r="C23" t="n">
-        <v>517.8427734375</v>
-      </c>
+        <v>785.7000122070312</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>489.6499938964844</v>
+        <v>834.4500122070312</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tyres &amp; Rubber Products</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.35</v>
+        <v>30.4</v>
       </c>
       <c r="H23" t="n">
-        <v>82.56</v>
+        <v>22.3</v>
       </c>
       <c r="I23" t="n">
-        <v>82.51000000000001</v>
+        <v>-1.99</v>
       </c>
       <c r="J23" t="n">
-        <v>11.76</v>
+        <v>-6.67</v>
       </c>
       <c r="K23" t="n">
-        <v>39.76</v>
+        <v>-6.23</v>
       </c>
       <c r="L23" t="n">
-        <v>39.55</v>
+        <v>26.57</v>
       </c>
       <c r="M23" t="n">
-        <v>203.7</v>
+        <v>24.44</v>
       </c>
       <c r="N23" t="n">
-        <v>34.1</v>
+        <v>25.35</v>
       </c>
       <c r="O23" t="n">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ANURAS</t>
+          <t>MINDACORP</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1333.400024414062</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>560.792724609375</v>
+      </c>
+      <c r="C24" t="n">
+        <v>601.2151489257812</v>
+      </c>
       <c r="D24" t="n">
-        <v>1336.400024414062</v>
+        <v>598</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50.41</v>
+        <v>12.7</v>
       </c>
       <c r="H24" t="n">
-        <v>18.75</v>
+        <v>12.1</v>
       </c>
       <c r="I24" t="n">
-        <v>25.81</v>
+        <v>1.63</v>
       </c>
       <c r="J24" t="n">
-        <v>148.64</v>
+        <v>-1.18</v>
       </c>
       <c r="K24" t="n">
-        <v>83.87</v>
+        <v>1.13</v>
       </c>
       <c r="L24" t="n">
-        <v>156.58</v>
+        <v>24.5</v>
       </c>
       <c r="M24" t="n">
-        <v>97</v>
+        <v>29.23</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>32.1</v>
       </c>
       <c r="O24" t="n">
-        <v>15</v>
+        <v>82.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MINDACORP</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.792724609375</v>
-      </c>
-      <c r="C25" t="n">
-        <v>601.2151489257812</v>
-      </c>
+        <v>1782.554565429688</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>598</v>
+        <v>1891.800048828125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>25.8</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.18</v>
+        <v>20.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.13</v>
+        <v>-1.84</v>
       </c>
       <c r="J25" t="n">
-        <v>24.5</v>
+        <v>-4.81</v>
       </c>
       <c r="K25" t="n">
-        <v>29.23</v>
+        <v>-4.82</v>
       </c>
       <c r="L25" t="n">
-        <v>32.1</v>
+        <v>10.59</v>
       </c>
       <c r="M25" t="n">
-        <v>82.8</v>
+        <v>22.22</v>
       </c>
       <c r="N25" t="n">
-        <v>7.1</v>
+        <v>20.86</v>
       </c>
       <c r="O25" t="n">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2855.89990234375</v>
+        <v>1423.199951171875</v>
       </c>
       <c r="C26" t="n">
-        <v>3125.10009765625</v>
+        <v>1493.099975585938</v>
       </c>
       <c r="D26" t="n">
-        <v>2989.10009765625</v>
+        <v>1488.699951171875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Financial Products Distributor</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-2.36</v>
+        <v>20.7</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>22.36</v>
+        <v>-7.97</v>
       </c>
       <c r="K26" t="n">
-        <v>29.87</v>
+        <v>-5.3</v>
       </c>
       <c r="L26" t="n">
-        <v>29.63</v>
+        <v>20.38</v>
       </c>
       <c r="M26" t="n">
-        <v>18.1</v>
+        <v>48.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7.2</v>
+        <v>49.94</v>
       </c>
       <c r="O26" t="n">
-        <v>11</v>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="P26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7257</v>
+        <v>1464.574584960938</v>
       </c>
       <c r="C27" t="n">
-        <v>7764</v>
+        <v>1522.800048828125</v>
       </c>
       <c r="D27" t="n">
-        <v>7587.5</v>
+        <v>1519</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cables - Electricals</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>17.89</v>
+        <v>13.8</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.09</v>
+        <v>18.8</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.31</v>
+        <v>5.87</v>
       </c>
       <c r="J27" t="n">
-        <v>46.12</v>
+        <v>-2.47</v>
       </c>
       <c r="K27" t="n">
-        <v>35.78</v>
+        <v>-7.92</v>
       </c>
       <c r="L27" t="n">
-        <v>35.77</v>
+        <v>21.86</v>
       </c>
       <c r="M27" t="n">
-        <v>431.1</v>
+        <v>20.85</v>
       </c>
       <c r="N27" t="n">
-        <v>29.1</v>
+        <v>13.54</v>
       </c>
       <c r="O27" t="n">
-        <v>11</v>
+        <v>416.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5194.7470703125</v>
+        <v>931.3314819335938</v>
       </c>
       <c r="C28" t="n">
-        <v>6229.0859375</v>
+        <v>1106.5</v>
       </c>
       <c r="D28" t="n">
-        <v>5584</v>
+        <v>1010.599975585938</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>9.15</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.48</v>
+        <v>7.45</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.16</v>
+        <v>7.56</v>
       </c>
       <c r="J28" t="n">
-        <v>21.71</v>
+        <v>29.9</v>
       </c>
       <c r="K28" t="n">
-        <v>15.07</v>
+        <v>29.09</v>
       </c>
       <c r="L28" t="n">
-        <v>14.39</v>
+        <v>25.65</v>
       </c>
       <c r="M28" t="n">
-        <v>670.2</v>
+        <v>170.97</v>
       </c>
       <c r="N28" t="n">
-        <v>48.6</v>
+        <v>172.51</v>
       </c>
       <c r="O28" t="n">
-        <v>11</v>
+        <v>65.90000000000001</v>
+      </c>
+      <c r="P28" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1464.574584960938</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1522.800048828125</v>
-      </c>
+        <v>268.5199890136719</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1519</v>
+        <v>270.9500122070312</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Consumer Services</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>E-Retail/ E-Commerce</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.87</v>
+        <v>9.59</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.47</v>
+        <v>5.16</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.92</v>
+        <v>22.46</v>
       </c>
       <c r="J29" t="n">
-        <v>21.86</v>
+        <v>106.06</v>
       </c>
       <c r="K29" t="n">
-        <v>20.85</v>
+        <v>83.33</v>
       </c>
       <c r="L29" t="n">
-        <v>13.54</v>
+        <v>26.73</v>
       </c>
       <c r="M29" t="n">
-        <v>416.1</v>
+        <v>161.54</v>
       </c>
       <c r="N29" t="n">
-        <v>114.7</v>
+        <v>144.44</v>
       </c>
       <c r="O29" t="n">
-        <v>11</v>
+        <v>149.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMCURE</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1423.199951171875</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1493.099975585938</v>
-      </c>
+        <v>1206</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1488.699951171875</v>
+        <v>1232</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.97</v>
+        <v>4.94</v>
       </c>
       <c r="I30" t="n">
-        <v>-5.3</v>
+        <v>1.86</v>
       </c>
       <c r="J30" t="n">
-        <v>20.38</v>
+        <v>46.42</v>
       </c>
       <c r="K30" t="n">
-        <v>48.08</v>
+        <v>31.78</v>
       </c>
       <c r="L30" t="n">
-        <v>49.94</v>
+        <v>11.15</v>
       </c>
       <c r="M30" t="n">
-        <v>95.40000000000001</v>
+        <v>235.19</v>
       </c>
       <c r="N30" t="n">
-        <v>20.4</v>
+        <v>198.63</v>
       </c>
       <c r="O30" t="n">
-        <v>11</v>
+        <v>955.9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1269.800048828125</v>
+        <v>916.0249938964844</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1379.900024414062</v>
+        <v>966.9000244140625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Compressors, Pumps &amp; Diesel Engines</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-3.85</v>
+        <v>10.2</v>
       </c>
       <c r="H31" t="n">
-        <v>-31.45</v>
+        <v>7.8</v>
       </c>
       <c r="I31" t="n">
-        <v>-31.48</v>
+        <v>13.21</v>
       </c>
       <c r="J31" t="n">
-        <v>28.82</v>
+        <v>18.52</v>
       </c>
       <c r="K31" t="n">
-        <v>60.29</v>
+        <v>19.41</v>
       </c>
       <c r="L31" t="n">
-        <v>56.01</v>
+        <v>44.09</v>
       </c>
       <c r="M31" t="n">
-        <v>103.7</v>
+        <v>48.84</v>
       </c>
       <c r="N31" t="n">
-        <v>11.4</v>
+        <v>48.62</v>
       </c>
       <c r="O31" t="n">
-        <v>9</v>
+        <v>23.4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2148.10009765625</v>
+        <v>1919.192504882812</v>
       </c>
       <c r="C32" t="n">
-        <v>2408.60009765625</v>
+        <v>2064.5</v>
       </c>
       <c r="D32" t="n">
-        <v>2298.800048828125</v>
+        <v>1997.599975585938</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-3.5</v>
+        <v>19.4</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.56</v>
+        <v>15.8</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.45</v>
+        <v>-35.49</v>
       </c>
       <c r="J32" t="n">
-        <v>16.36</v>
+        <v>-33.93</v>
       </c>
       <c r="K32" t="n">
-        <v>34.04</v>
+        <v>-33.93</v>
       </c>
       <c r="L32" t="n">
-        <v>34.83</v>
+        <v>15.14</v>
       </c>
       <c r="M32" t="n">
-        <v>27</v>
+        <v>15.8</v>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>15.9</v>
       </c>
       <c r="O32" t="n">
-        <v>9</v>
+        <v>381.7</v>
+      </c>
+      <c r="P32" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1919.192504882812</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2064.5</v>
-      </c>
+        <v>122.0400009155273</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1997.599975585938</v>
+        <v>131.2599945068359</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-35.49</v>
+        <v>13.7</v>
       </c>
       <c r="H33" t="n">
-        <v>-33.93</v>
+        <v>12.2</v>
       </c>
       <c r="I33" t="n">
-        <v>-33.93</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
-        <v>15.14</v>
+        <v>26.71</v>
       </c>
       <c r="K33" t="n">
-        <v>15.8</v>
+        <v>24.36</v>
       </c>
       <c r="L33" t="n">
-        <v>15.9</v>
+        <v>13.53</v>
       </c>
       <c r="M33" t="n">
-        <v>381.7</v>
+        <v>8.94</v>
       </c>
       <c r="N33" t="n">
-        <v>71.59999999999999</v>
+        <v>16.87</v>
       </c>
       <c r="O33" t="n">
-        <v>9</v>
+        <v>834.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TDPOWERSYS</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>785.7000122070312</v>
+        <v>426.7052154541016</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>834.4500122070312</v>
+        <v>435.5499877929688</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2195,35 +2397,41 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-1.99</v>
+        <v>38.9</v>
       </c>
       <c r="H34" t="n">
-        <v>-6.67</v>
+        <v>29.2</v>
       </c>
       <c r="I34" t="n">
-        <v>-6.23</v>
+        <v>23.52</v>
       </c>
       <c r="J34" t="n">
-        <v>26.57</v>
+        <v>22.77</v>
       </c>
       <c r="K34" t="n">
-        <v>24.44</v>
+        <v>22.73</v>
       </c>
       <c r="L34" t="n">
-        <v>25.35</v>
+        <v>23.96</v>
       </c>
       <c r="M34" t="n">
-        <v>29</v>
+        <v>20.43</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9</v>
+        <v>20.67</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>-59.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2252,31 +2460,37 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I35" t="n">
         <v>-10.9</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>-16.67</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>-16.94</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>23.22</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>70.45</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>75.45999999999999</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>29.3</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O35" t="n">
-        <v>9</v>
+      <c r="Q35" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2305,604 +2519,676 @@
         </is>
       </c>
       <c r="G36" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17</v>
+      </c>
+      <c r="I36" t="n">
         <v>-6.74</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>-0.99</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>-0.53</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>38.65</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>58.73</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>59.11</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>87.7</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>7.3</v>
       </c>
-      <c r="O36" t="n">
-        <v>9</v>
+      <c r="Q36" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CEIGALL</t>
+          <t>ANURAS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>286.6499938964844</v>
+        <v>1333.400024414062</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>289.6499938964844</v>
+        <v>1336.400024414062</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22.8</v>
+        <v>7.33</v>
       </c>
       <c r="H37" t="n">
-        <v>28.57</v>
+        <v>3.32</v>
       </c>
       <c r="I37" t="n">
-        <v>27.63</v>
+        <v>50.41</v>
       </c>
       <c r="J37" t="n">
-        <v>19.25</v>
+        <v>18.75</v>
       </c>
       <c r="K37" t="n">
-        <v>1.41</v>
+        <v>25.81</v>
       </c>
       <c r="L37" t="n">
-        <v>1.19</v>
+        <v>148.64</v>
       </c>
       <c r="M37" t="n">
-        <v>11.5</v>
+        <v>83.87</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.4</v>
+        <v>156.58</v>
       </c>
       <c r="O37" t="n">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.554565429688</v>
+        <v>1269.800048828125</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1891.800048828125</v>
+        <v>1379.900024414062</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-1.84</v>
+        <v>13.7</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.81</v>
+        <v>15.4</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.82</v>
+        <v>-3.85</v>
       </c>
       <c r="J38" t="n">
-        <v>10.59</v>
+        <v>-31.45</v>
       </c>
       <c r="K38" t="n">
-        <v>22.22</v>
+        <v>-31.48</v>
       </c>
       <c r="L38" t="n">
-        <v>20.86</v>
+        <v>28.82</v>
       </c>
       <c r="M38" t="n">
-        <v>34</v>
+        <v>60.29</v>
       </c>
       <c r="N38" t="n">
-        <v>13.4</v>
+        <v>56.01</v>
       </c>
       <c r="O38" t="n">
-        <v>9</v>
+        <v>103.7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>122.0400009155273</v>
+        <v>166.1581268310547</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>131.2599945068359</v>
+        <v>176.7700042724609</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>7.36</v>
       </c>
       <c r="H39" t="n">
-        <v>26.71</v>
+        <v>6.51</v>
       </c>
       <c r="I39" t="n">
-        <v>24.36</v>
+        <v>14.85</v>
       </c>
       <c r="J39" t="n">
-        <v>13.53</v>
+        <v>64.84</v>
       </c>
       <c r="K39" t="n">
-        <v>8.94</v>
+        <v>66.25</v>
       </c>
       <c r="L39" t="n">
-        <v>16.87</v>
+        <v>5.74</v>
       </c>
       <c r="M39" t="n">
-        <v>834.2</v>
+        <v>528.88</v>
       </c>
       <c r="N39" t="n">
-        <v>-9.300000000000001</v>
+        <v>514</v>
       </c>
       <c r="O39" t="n">
-        <v>9</v>
+        <v>564.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2253.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>252.3873596191406</v>
+        <v>31615</v>
       </c>
       <c r="C40" t="n">
-        <v>268.1802368164062</v>
+        <v>36040</v>
       </c>
       <c r="D40" t="n">
-        <v>259.2999877929688</v>
+        <v>35115</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.34</v>
+        <v>40.5</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.14</v>
+        <v>30.5</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-4.38</v>
       </c>
       <c r="J40" t="n">
-        <v>0.73</v>
+        <v>-9.25</v>
       </c>
       <c r="K40" t="n">
-        <v>4.02</v>
+        <v>-9.08</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.41</v>
+        <v>-0.29</v>
       </c>
       <c r="M40" t="n">
-        <v>40.6</v>
+        <v>21.71</v>
       </c>
       <c r="N40" t="n">
-        <v>31.3</v>
+        <v>21.62</v>
       </c>
       <c r="O40" t="n">
-        <v>7</v>
+        <v>4.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31615</v>
+        <v>1579.466064453125</v>
       </c>
       <c r="C41" t="n">
-        <v>36040</v>
+        <v>1742</v>
       </c>
       <c r="D41" t="n">
-        <v>35115</v>
+        <v>1586.099975585938</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Diversified</t>
+          <t>Textiles</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Diversified</t>
+          <t>Garments &amp; Apparels</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-4.38</v>
+        <v>22.1</v>
       </c>
       <c r="H41" t="n">
-        <v>-9.25</v>
+        <v>24.3</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.08</v>
+        <v>-10.89</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.29</v>
+        <v>-27.78</v>
       </c>
       <c r="K41" t="n">
-        <v>21.71</v>
+        <v>-27.52</v>
       </c>
       <c r="L41" t="n">
-        <v>21.62</v>
+        <v>14.37</v>
       </c>
       <c r="M41" t="n">
-        <v>4.9</v>
+        <v>8.33</v>
       </c>
       <c r="N41" t="n">
-        <v>8.300000000000001</v>
+        <v>-5.63</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>37.8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PGIL</t>
+          <t>MRPL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1579.466064453125</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1742</v>
-      </c>
+        <v>172.4900054931641</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>1586.099975585938</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Textiles</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garments &amp; Apparels</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-10.89</v>
+        <v>4.38</v>
       </c>
       <c r="H42" t="n">
-        <v>-27.78</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>-27.52</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>14.37</v>
+        <v>131.42</v>
       </c>
       <c r="K42" t="n">
-        <v>8.33</v>
+        <v>131.28</v>
       </c>
       <c r="L42" t="n">
-        <v>-5.63</v>
+        <v>12.99</v>
       </c>
       <c r="M42" t="n">
-        <v>37.8</v>
+        <v>369.58</v>
       </c>
       <c r="N42" t="n">
-        <v>1.5</v>
+        <v>370.45</v>
       </c>
       <c r="O42" t="n">
-        <v>5</v>
+        <v>373.5</v>
+      </c>
+      <c r="P42" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>249.2618865966797</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>74.85450744628906</v>
+      </c>
+      <c r="C43" t="n">
+        <v>82.03619384765625</v>
+      </c>
       <c r="D43" t="n">
-        <v>267.3999938964844</v>
+        <v>79.43000030517578</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Oil Exploration &amp; Production</t>
+          <t>Industrial Minerals</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.02</v>
+        <v>29.6</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.3</v>
+        <v>23.6</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.12</v>
+        <v>19.33</v>
       </c>
       <c r="J43" t="n">
-        <v>0.13</v>
+        <v>3.47</v>
       </c>
       <c r="K43" t="n">
-        <v>22.56</v>
+        <v>3.63</v>
       </c>
       <c r="L43" t="n">
-        <v>16.72</v>
+        <v>15.88</v>
       </c>
       <c r="M43" t="n">
-        <v>-1248.1</v>
+        <v>-6.54</v>
       </c>
       <c r="N43" t="n">
-        <v>815.7</v>
+        <v>-6.54</v>
       </c>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>145.9</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>426.7052154541016</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>322.4500122070312</v>
+      </c>
+      <c r="C44" t="n">
+        <v>347.8999938964844</v>
+      </c>
       <c r="D44" t="n">
-        <v>435.5499877929688</v>
+        <v>325.1499938964844</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Stockbroking &amp; Allied</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>23.52</v>
+        <v>33.3</v>
       </c>
       <c r="H44" t="n">
-        <v>22.77</v>
+        <v>31.6</v>
       </c>
       <c r="I44" t="n">
-        <v>22.73</v>
+        <v>2.45</v>
       </c>
       <c r="J44" t="n">
-        <v>23.96</v>
+        <v>121.18</v>
       </c>
       <c r="K44" t="n">
-        <v>20.43</v>
+        <v>120.96</v>
       </c>
       <c r="L44" t="n">
-        <v>20.67</v>
+        <v>0.51</v>
       </c>
       <c r="M44" t="n">
-        <v>-59.2</v>
+        <v>-4.57</v>
       </c>
       <c r="N44" t="n">
-        <v>-30.4</v>
+        <v>-5.5</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>4.1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.0499877929688</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1023.849975585938</v>
-      </c>
+        <v>249.2618865966797</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>988</v>
+        <v>267.3999938964844</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Power Distribution</t>
+          <t>Oil Exploration &amp; Production</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.03</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>10.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>6.02</v>
       </c>
       <c r="J45" t="n">
-        <v>15.44</v>
+        <v>-5.3</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.16</v>
+        <v>-7.12</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.71</v>
+        <v>0.13</v>
       </c>
       <c r="M45" t="n">
-        <v>202.1</v>
+        <v>22.56</v>
       </c>
       <c r="N45" t="n">
-        <v>-25.9</v>
+        <v>16.72</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>-1248.1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>815.7</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>623.1500244140625</v>
+        <v>252.3873596191406</v>
       </c>
       <c r="C46" t="n">
-        <v>659.7000122070312</v>
+        <v>268.1802368164062</v>
       </c>
       <c r="D46" t="n">
-        <v>645.9000244140625</v>
+        <v>259.2999877929688</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Electrodes &amp; Refractories</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-11.93</v>
+        <v>10.5</v>
       </c>
       <c r="H46" t="n">
-        <v>-11.84</v>
+        <v>14.5</v>
       </c>
       <c r="I46" t="n">
-        <v>-11.68</v>
+        <v>6.34</v>
       </c>
       <c r="J46" t="n">
-        <v>22.75</v>
+        <v>-0.14</v>
       </c>
       <c r="K46" t="n">
-        <v>-419.05</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-441.18</v>
+        <v>0.73</v>
       </c>
       <c r="M46" t="n">
-        <v>30.1</v>
+        <v>4.02</v>
       </c>
       <c r="N46" t="n">
-        <v>20.3</v>
+        <v>-0.41</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>40.6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>74.85450744628906</v>
+        <v>915.0499877929688</v>
       </c>
       <c r="C47" t="n">
-        <v>82.03619384765625</v>
+        <v>1023.849975585938</v>
       </c>
       <c r="D47" t="n">
-        <v>79.43000030517578</v>
+        <v>988</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Industrial Minerals</t>
+          <t>Power Distribution</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>19.33</v>
+        <v>10.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.47</v>
+        <v>13.6</v>
       </c>
       <c r="I47" t="n">
-        <v>3.63</v>
+        <v>2.03</v>
       </c>
       <c r="J47" t="n">
-        <v>15.88</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.54</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>-6.54</v>
+        <v>15.44</v>
       </c>
       <c r="M47" t="n">
-        <v>145.9</v>
+        <v>-8.16</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.5</v>
+        <v>-1.71</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>202.1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2929,461 +3215,515 @@
         </is>
       </c>
       <c r="G48" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="I48" t="n">
         <v>45.62</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>650</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>783.33</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-35.71</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-34.57</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>808.8</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.2000122070312</v>
+        <v>623.1500244140625</v>
       </c>
       <c r="C49" t="n">
-        <v>398.75</v>
+        <v>659.7000122070312</v>
       </c>
       <c r="D49" t="n">
-        <v>377.9500122070312</v>
+        <v>645.9000244140625</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Electrodes &amp; Refractories</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-2.86</v>
+        <v>10.1</v>
       </c>
       <c r="H49" t="n">
-        <v>-139.1</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>71.43000000000001</v>
+        <v>-11.93</v>
       </c>
       <c r="J49" t="n">
-        <v>9.210000000000001</v>
+        <v>-11.84</v>
       </c>
       <c r="K49" t="n">
-        <v>-164.2</v>
+        <v>-11.68</v>
       </c>
       <c r="L49" t="n">
-        <v>414.29</v>
+        <v>22.75</v>
       </c>
       <c r="M49" t="n">
-        <v>58.3</v>
+        <v>-419.05</v>
       </c>
       <c r="N49" t="n">
-        <v>-59.2</v>
+        <v>-441.18</v>
       </c>
       <c r="O49" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IIFLCAPS</t>
+          <t>GAEL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>322.4500122070312</v>
-      </c>
-      <c r="C50" t="n">
-        <v>347.8999938964844</v>
-      </c>
+        <v>126.1989822387695</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>325.1499938964844</v>
+        <v>138.5399932861328</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stockbroking &amp; Allied</t>
+          <t>Other Agricultural Products</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.45</v>
+        <v>11.5</v>
       </c>
       <c r="H50" t="n">
-        <v>121.18</v>
+        <v>8.59</v>
       </c>
       <c r="I50" t="n">
-        <v>120.96</v>
+        <v>-0.2</v>
       </c>
       <c r="J50" t="n">
-        <v>0.51</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.57</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>-5.5</v>
+        <v>31.21</v>
       </c>
       <c r="M50" t="n">
-        <v>4.1</v>
+        <v>-7.04</v>
       </c>
       <c r="N50" t="n">
-        <v>-6.1</v>
+        <v>-7.69</v>
       </c>
       <c r="O50" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Q50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GAEL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>126.1989822387695</v>
+        <v>4163.39990234375</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>138.5399932861328</v>
+        <v>4173.89990234375</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Other Agricultural Products</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-0.2</v>
+        <v>14.5</v>
       </c>
       <c r="H51" t="n">
-        <v>73.68000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I51" t="n">
-        <v>73.48999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="J51" t="n">
-        <v>31.21</v>
+        <v>-18.23</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.04</v>
+        <v>-18.11</v>
       </c>
       <c r="L51" t="n">
-        <v>-7.69</v>
+        <v>10.49</v>
       </c>
       <c r="M51" t="n">
-        <v>92.59999999999999</v>
+        <v>-3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.4</v>
+        <v>-4.34</v>
       </c>
       <c r="O51" t="n">
-        <v>-1</v>
+        <v>715.6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-177.6</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>847.8499755859375</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>201.9700012207031</v>
+      </c>
+      <c r="C52" t="n">
+        <v>222.5</v>
+      </c>
       <c r="D52" t="n">
-        <v>909</v>
+        <v>206.75</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>20.8</v>
       </c>
       <c r="H52" t="n">
-        <v>-56.78</v>
+        <v>18.6</v>
       </c>
       <c r="I52" t="n">
-        <v>-56.78</v>
+        <v>-1.87</v>
       </c>
       <c r="J52" t="n">
-        <v>13.93</v>
+        <v>-16.55</v>
       </c>
       <c r="K52" t="n">
-        <v>-45.14</v>
+        <v>-16.49</v>
       </c>
       <c r="L52" t="n">
-        <v>-45.13</v>
+        <v>27</v>
       </c>
       <c r="M52" t="n">
-        <v>1743</v>
+        <v>-15.33</v>
       </c>
       <c r="N52" t="n">
-        <v>-391.5</v>
+        <v>-15.9</v>
       </c>
       <c r="O52" t="n">
-        <v>-3</v>
+        <v>42.5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4163.39990234375</v>
+        <v>847.8499755859375</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>4173.89990234375</v>
+        <v>909</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.1</v>
+        <v>14.8</v>
       </c>
       <c r="H53" t="n">
-        <v>-18.23</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>-18.11</v>
+        <v>0.7</v>
       </c>
       <c r="J53" t="n">
-        <v>10.49</v>
+        <v>-56.78</v>
       </c>
       <c r="K53" t="n">
-        <v>-3.75</v>
+        <v>-56.78</v>
       </c>
       <c r="L53" t="n">
-        <v>-4.34</v>
+        <v>13.93</v>
       </c>
       <c r="M53" t="n">
-        <v>715.6</v>
+        <v>-45.14</v>
       </c>
       <c r="N53" t="n">
-        <v>-177.6</v>
+        <v>-45.13</v>
       </c>
       <c r="O53" t="n">
-        <v>-3</v>
+        <v>1743</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-391.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1076.349975585938</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>369.2000122070312</v>
+      </c>
+      <c r="C54" t="n">
+        <v>398.75</v>
+      </c>
       <c r="D54" t="n">
-        <v>1184.699951171875</v>
+        <v>377.9500122070312</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>11.48</v>
+        <v>6.25</v>
       </c>
       <c r="H54" t="n">
-        <v>-70.23999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="I54" t="n">
-        <v>-70.13</v>
+        <v>-2.86</v>
       </c>
       <c r="J54" t="n">
-        <v>10.86</v>
+        <v>-139.1</v>
       </c>
       <c r="K54" t="n">
-        <v>-80.13</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>-79.94</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M54" t="n">
-        <v>105.5</v>
+        <v>-164.2</v>
       </c>
       <c r="N54" t="n">
-        <v>-58.5</v>
+        <v>414.29</v>
       </c>
       <c r="O54" t="n">
-        <v>-3</v>
+        <v>58.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-59.2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>398.7000122070312</v>
+        <v>1076.349975585938</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>442.3500061035156</v>
+        <v>1184.699951171875</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.25</v>
+        <v>10.7</v>
       </c>
       <c r="H55" t="n">
-        <v>-130.31</v>
+        <v>7.68</v>
       </c>
       <c r="I55" t="n">
-        <v>-132.14</v>
+        <v>11.48</v>
       </c>
       <c r="J55" t="n">
-        <v>18.56</v>
+        <v>-70.23999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-102.25</v>
+        <v>-70.13</v>
       </c>
       <c r="L55" t="n">
-        <v>-102.28</v>
+        <v>10.86</v>
       </c>
       <c r="M55" t="n">
-        <v>26.86</v>
+        <v>-80.13</v>
       </c>
       <c r="N55" t="n">
-        <v>-25.18</v>
+        <v>-79.94</v>
       </c>
       <c r="O55" t="n">
-        <v>-5</v>
+        <v>105.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-58.5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>201.9700012207031</v>
+        <v>232.9400024414062</v>
       </c>
       <c r="C56" t="n">
-        <v>222.5</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="D56" t="n">
-        <v>206.75</v>
+        <v>258.6499938964844</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Iron &amp; Steel Products</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>-1.87</v>
+        <v>23.2</v>
       </c>
       <c r="H56" t="n">
-        <v>-16.55</v>
+        <v>17.2</v>
       </c>
       <c r="I56" t="n">
-        <v>-16.49</v>
+        <v>-12.92</v>
       </c>
       <c r="J56" t="n">
-        <v>27</v>
+        <v>-11.73</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.33</v>
+        <v>-11.2</v>
       </c>
       <c r="L56" t="n">
-        <v>-15.9</v>
+        <v>-12.25</v>
       </c>
       <c r="M56" t="n">
-        <v>42.5</v>
+        <v>-1.38</v>
       </c>
       <c r="N56" t="n">
-        <v>-5.9</v>
+        <v>-0.93</v>
       </c>
       <c r="O56" t="n">
-        <v>-5</v>
+        <v>-47.8</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>77.62592315673828</v>
-      </c>
-      <c r="C57" t="n">
-        <v>81.76999664306641</v>
-      </c>
+        <v>290.1755676269531</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>81.54000091552734</v>
+        <v>302.6499938964844</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3392,14 +3732,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3420,21 +3760,27 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DCBBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>186.0700073242188</v>
+        <v>1226.126892089844</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>190.0299987792969</v>
+        <v>1332.300048828125</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3447,10 +3793,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>7.11</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3471,76 +3817,84 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>810.806884765625</v>
-      </c>
-      <c r="C59" t="n">
-        <v>940.4000244140625</v>
-      </c>
+        <v>398.7000122070312</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>884.25</v>
+        <v>442.3500061035156</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Housing Finance Company</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-5.49</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>-8.83</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>-130.31</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-132.14</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>18.56</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-102.25</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>-102.28</v>
       </c>
       <c r="O59" t="n">
-        <v>-15</v>
+        <v>26.86</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-25.18</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>103.8000030517578</v>
-      </c>
-      <c r="C60" t="n">
-        <v>114.7300033569336</v>
-      </c>
+        <v>117.8099975585938</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>110.75</v>
+        <v>118.7600021362305</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3549,14 +3903,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3577,21 +3931,29 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1854.799987792969</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>103.8000030517578</v>
+      </c>
+      <c r="C61" t="n">
+        <v>114.7300033569336</v>
+      </c>
       <c r="D61" t="n">
-        <v>2034.199951171875</v>
+        <v>110.75</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3600,14 +3962,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3628,74 +3990,86 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>232.9400024414062</v>
+        <v>77.62592315673828</v>
       </c>
       <c r="C62" t="n">
-        <v>273.0499877929688</v>
+        <v>81.76999664306641</v>
       </c>
       <c r="D62" t="n">
-        <v>258.6499938964844</v>
+        <v>81.54000091552734</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel Products</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>-12.92</v>
+        <v>6.22</v>
       </c>
       <c r="H62" t="n">
-        <v>-11.73</v>
+        <v>4.21</v>
       </c>
       <c r="I62" t="n">
-        <v>-11.2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-12.25</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>-1.38</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>-47.8</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>-15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>117.8099975585938</v>
+        <v>1854.799987792969</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>118.7600021362305</v>
+        <v>2034.199951171875</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3704,7 +4078,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3732,30 +4106,36 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>THANGAMAYL</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1226.126892089844</v>
+        <v>3389.300048828125</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>1332.300048828125</v>
+        <v>3581.60009765625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Gems, Jewellery And Watches</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3783,21 +4163,27 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>290.1755676269531</v>
+        <v>186.0700073242188</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>302.6499938964844</v>
+        <v>190.0299987792969</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3806,7 +4192,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3834,30 +4220,38 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3389.300048828125</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>810.806884765625</v>
+      </c>
+      <c r="C66" t="n">
+        <v>940.4000244140625</v>
+      </c>
       <c r="D66" t="n">
-        <v>3581.60009765625</v>
+        <v>884.25</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gems, Jewellery And Watches</t>
+          <t>Housing Finance Company</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3885,7 +4279,13 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3940,45 +4340,55 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>ROCE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Sales_QoQ_%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Profit_QoQ_%</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EPS_QoQ_%</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Sales_YoY_%</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profit_YoY_%</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EPS_YoY_%</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sales_Slope_5Q</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Profit_Slope_5Q</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Net_Score</t>
         </is>
@@ -3987,54 +4397,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3172.958251953125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3802.39990234375</v>
-      </c>
+        <v>502.2373352050781</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3533.39990234375</v>
+        <v>592.8499755859375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Zinc</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>26.66</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>27.25</v>
+        <v>28.44</v>
       </c>
       <c r="J2" t="n">
-        <v>25.63</v>
+        <v>47.83</v>
       </c>
       <c r="K2" t="n">
-        <v>38.55</v>
+        <v>47.85</v>
       </c>
       <c r="L2" t="n">
-        <v>46.95</v>
+        <v>27.47</v>
       </c>
       <c r="M2" t="n">
-        <v>2476.7</v>
+        <v>46.23</v>
       </c>
       <c r="N2" t="n">
-        <v>321.6</v>
+        <v>46.21</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>419.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>212.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -4061,186 +4475,210 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>15.67</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>15.81</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>12.71</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>253.04</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>252.2</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>20.5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>49.8</v>
       </c>
-      <c r="O3" t="n">
-        <v>15</v>
+      <c r="Q3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUMAXTECH</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1302.599975585938</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1655.400024414062</v>
-      </c>
+        <v>1770.139526367188</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1624.400024414062</v>
+        <v>2340.60009765625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Exchange and Data Platform</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9.949999999999999</v>
+        <v>42.9</v>
       </c>
       <c r="H4" t="n">
-        <v>38.46</v>
+        <v>34.3</v>
       </c>
       <c r="I4" t="n">
-        <v>23.34</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>40.29</v>
+        <v>103.55</v>
       </c>
       <c r="K4" t="n">
-        <v>92.86</v>
+        <v>103.23</v>
       </c>
       <c r="L4" t="n">
-        <v>83.89</v>
+        <v>121.26</v>
       </c>
       <c r="M4" t="n">
-        <v>75.3</v>
+        <v>150.62</v>
       </c>
       <c r="N4" t="n">
-        <v>10.2</v>
+        <v>150.48</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>81.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MTARTECH</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2626.60009765625</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>1302.599975585938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1655.400024414062</v>
+      </c>
       <c r="D5" t="n">
-        <v>3586.5</v>
+        <v>1624.400024414062</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>104.41</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>775</v>
+        <v>20.2</v>
       </c>
       <c r="I5" t="n">
-        <v>717.39</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>59.77</v>
+        <v>38.46</v>
       </c>
       <c r="K5" t="n">
-        <v>118.75</v>
+        <v>23.34</v>
       </c>
       <c r="L5" t="n">
-        <v>117.34</v>
+        <v>40.29</v>
       </c>
       <c r="M5" t="n">
-        <v>16.1</v>
+        <v>92.86</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>83.89</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>75.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502.2373352050781</v>
+        <v>3670.56884765625</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>592.8499755859375</v>
+        <v>4179.2001953125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Gems, Jewellery And Watches</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28.44</v>
+        <v>19.1</v>
       </c>
       <c r="H6" t="n">
-        <v>47.83</v>
+        <v>31.8</v>
       </c>
       <c r="I6" t="n">
-        <v>47.85</v>
+        <v>35.73</v>
       </c>
       <c r="J6" t="n">
-        <v>27.47</v>
+        <v>50.36</v>
       </c>
       <c r="K6" t="n">
-        <v>46.23</v>
+        <v>50.32</v>
       </c>
       <c r="L6" t="n">
-        <v>46.21</v>
+        <v>43.27</v>
       </c>
       <c r="M6" t="n">
-        <v>419.4</v>
+        <v>60.84</v>
       </c>
       <c r="N6" t="n">
-        <v>212.2</v>
+        <v>60.9</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>1916.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -4267,563 +4705,631 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
         <v>11.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>2.65</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2.85</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>42.86</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>42.84</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>46.1</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>19.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>15</v>
+      <c r="Q7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5046.4501953125</v>
+        <v>7047</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>6304</v>
+        <v>8065</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>17.68</v>
+        <v>29.8</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="I8" t="n">
-        <v>24.93</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>47.19</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>120.24</v>
+        <v>3.73</v>
       </c>
       <c r="L8" t="n">
-        <v>114.59</v>
+        <v>22.94</v>
       </c>
       <c r="M8" t="n">
-        <v>62.9</v>
+        <v>21.45</v>
       </c>
       <c r="N8" t="n">
-        <v>25.5</v>
+        <v>21.29</v>
       </c>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>321.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>275.0499877929688</v>
+        <v>3172.958251953125</v>
       </c>
       <c r="C9" t="n">
-        <v>362.9500122070312</v>
+        <v>3802.39990234375</v>
       </c>
       <c r="D9" t="n">
-        <v>336.2000122070312</v>
+        <v>3533.39990234375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Investment Company</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>12.81</v>
+        <v>13.9</v>
       </c>
       <c r="H9" t="n">
-        <v>9.52</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>27.41</v>
+        <v>26.66</v>
       </c>
       <c r="K9" t="n">
-        <v>33.43</v>
+        <v>27.25</v>
       </c>
       <c r="L9" t="n">
-        <v>32.72</v>
+        <v>25.63</v>
       </c>
       <c r="M9" t="n">
-        <v>352.3</v>
+        <v>38.55</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>46.95</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>2476.7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GESHIP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3670.56884765625</v>
+        <v>1124.890014648438</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>4179.2001953125</v>
+        <v>1300.099975585938</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gems, Jewellery And Watches</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>35.73</v>
+        <v>13.9</v>
       </c>
       <c r="H10" t="n">
-        <v>50.36</v>
+        <v>14.1</v>
       </c>
       <c r="I10" t="n">
-        <v>50.32</v>
+        <v>17.07</v>
       </c>
       <c r="J10" t="n">
-        <v>43.27</v>
+        <v>39.93</v>
       </c>
       <c r="K10" t="n">
-        <v>60.84</v>
+        <v>39.76</v>
       </c>
       <c r="L10" t="n">
-        <v>60.9</v>
+        <v>17.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1916.1</v>
+        <v>36.87</v>
       </c>
       <c r="N10" t="n">
-        <v>152.3</v>
+        <v>36.87</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>45.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>IMFA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1770.139526367188</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>773.0526123046875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1496.099975585938</v>
+      </c>
       <c r="D11" t="n">
-        <v>2340.60009765625</v>
+        <v>1439.699951171875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Exchange and Data Platform</t>
+          <t>Ferro &amp; Silica Manganese</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>78.06999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="H11" t="n">
-        <v>103.55</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>103.23</v>
+        <v>-2.23</v>
       </c>
       <c r="J11" t="n">
-        <v>121.26</v>
+        <v>33.67</v>
       </c>
       <c r="K11" t="n">
-        <v>150.62</v>
+        <v>34.64</v>
       </c>
       <c r="L11" t="n">
-        <v>150.48</v>
+        <v>9.33</v>
       </c>
       <c r="M11" t="n">
-        <v>81.3</v>
+        <v>40.86</v>
       </c>
       <c r="N11" t="n">
-        <v>54.4</v>
+        <v>40.64</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>27.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GESHIP</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1124.890014648438</v>
+        <v>445.4774322509766</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1300.099975585938</v>
+        <v>673.6500244140625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Diversified Metals</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>17.07</v>
+        <v>25.3</v>
       </c>
       <c r="H12" t="n">
-        <v>39.93</v>
+        <v>38.5</v>
       </c>
       <c r="I12" t="n">
-        <v>39.76</v>
+        <v>24.65</v>
       </c>
       <c r="J12" t="n">
-        <v>17.54</v>
+        <v>124.4</v>
       </c>
       <c r="K12" t="n">
-        <v>36.87</v>
+        <v>217.39</v>
       </c>
       <c r="L12" t="n">
-        <v>36.87</v>
+        <v>36.96</v>
       </c>
       <c r="M12" t="n">
-        <v>45.3</v>
+        <v>60.11</v>
       </c>
       <c r="N12" t="n">
-        <v>65.59999999999999</v>
+        <v>60.97</v>
       </c>
       <c r="O12" t="n">
-        <v>15</v>
+        <v>-909.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>438</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RAMCOCEM</t>
+          <t>NAVINFLUOR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.0249938964844</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1152.611206054688</v>
-      </c>
+        <v>5046.4501953125</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1144.699951171875</v>
+        <v>6304</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-5.94</v>
+        <v>11.7</v>
       </c>
       <c r="H13" t="n">
-        <v>394.87</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>399.08</v>
+        <v>17.68</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>112.09</v>
+        <v>24.93</v>
       </c>
       <c r="L13" t="n">
-        <v>111.4</v>
+        <v>47.19</v>
       </c>
       <c r="M13" t="n">
-        <v>8.800000000000001</v>
+        <v>120.24</v>
       </c>
       <c r="N13" t="n">
-        <v>46</v>
+        <v>114.59</v>
       </c>
       <c r="O13" t="n">
-        <v>13</v>
+        <v>62.9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7047</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>275.0499877929688</v>
+      </c>
+      <c r="C14" t="n">
+        <v>362.9500122070312</v>
+      </c>
       <c r="D14" t="n">
-        <v>8065</v>
+        <v>336.2000122070312</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Investment Company</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.9399999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.73</v>
+        <v>12.81</v>
       </c>
       <c r="J14" t="n">
-        <v>22.94</v>
+        <v>9.52</v>
       </c>
       <c r="K14" t="n">
-        <v>21.45</v>
+        <v>10.4</v>
       </c>
       <c r="L14" t="n">
-        <v>21.29</v>
+        <v>27.41</v>
       </c>
       <c r="M14" t="n">
-        <v>321.3</v>
+        <v>33.43</v>
       </c>
       <c r="N14" t="n">
-        <v>50.9</v>
+        <v>32.72</v>
       </c>
       <c r="O14" t="n">
-        <v>13</v>
+        <v>352.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IMFA</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.0526123046875</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1496.099975585938</v>
-      </c>
+        <v>140.9739074707031</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1439.699951171875</v>
+        <v>204.6300048828125</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ferro &amp; Silica Manganese</t>
+          <t>Commercial Vehicles</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-2.23</v>
+        <v>14.3</v>
       </c>
       <c r="H15" t="n">
-        <v>33.67</v>
+        <v>28.8</v>
       </c>
       <c r="I15" t="n">
-        <v>34.64</v>
+        <v>17.91</v>
       </c>
       <c r="J15" t="n">
-        <v>9.33</v>
+        <v>5.12</v>
       </c>
       <c r="K15" t="n">
-        <v>40.86</v>
+        <v>6.98</v>
       </c>
       <c r="L15" t="n">
-        <v>40.64</v>
+        <v>23.63</v>
       </c>
       <c r="M15" t="n">
-        <v>27.2</v>
+        <v>5.12</v>
       </c>
       <c r="N15" t="n">
-        <v>12.7</v>
+        <v>6.15</v>
       </c>
       <c r="O15" t="n">
-        <v>13</v>
+        <v>355.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>773.69140625</v>
+        <v>538.1710205078125</v>
       </c>
       <c r="C16" t="n">
-        <v>1029</v>
+        <v>683.0499877929688</v>
       </c>
       <c r="D16" t="n">
-        <v>879</v>
+        <v>633.4500122070312</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-3.94</v>
+        <v>22.9</v>
       </c>
       <c r="H16" t="n">
-        <v>39.36</v>
+        <v>17.6</v>
       </c>
       <c r="I16" t="n">
-        <v>39.25</v>
+        <v>3.18</v>
       </c>
       <c r="J16" t="n">
-        <v>21.34</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4671.43</v>
+        <v>-0.38</v>
       </c>
       <c r="L16" t="n">
-        <v>4704.29</v>
+        <v>63.88</v>
       </c>
       <c r="M16" t="n">
-        <v>459.4</v>
+        <v>56.1</v>
       </c>
       <c r="N16" t="n">
-        <v>221.1</v>
+        <v>53.82</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>104.8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SANSERA</t>
+          <t>MTARTECH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1871</v>
+        <v>2626.60009765625</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>2248.89990234375</v>
+        <v>3586.5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.06</v>
+        <v>10.4</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.82</v>
+        <v>7.39</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.42</v>
+        <v>104.41</v>
       </c>
       <c r="J17" t="n">
-        <v>24.73</v>
+        <v>775</v>
       </c>
       <c r="K17" t="n">
-        <v>23.21</v>
+        <v>717.39</v>
       </c>
       <c r="L17" t="n">
-        <v>22.8</v>
+        <v>59.77</v>
       </c>
       <c r="M17" t="n">
-        <v>40.3</v>
+        <v>118.75</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>117.34</v>
       </c>
       <c r="O17" t="n">
-        <v>11</v>
+        <v>16.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>SHRIPISTON</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1314.5</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2728.701171875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3291.772705078125</v>
+      </c>
       <c r="D18" t="n">
-        <v>1738.800048828125</v>
+        <v>3084</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4836,202 +5342,224 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.71</v>
+        <v>25.7</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.699999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-11.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>24.94</v>
+        <v>-11.27</v>
       </c>
       <c r="K18" t="n">
-        <v>28.17</v>
+        <v>-12.09</v>
       </c>
       <c r="L18" t="n">
-        <v>24.27</v>
+        <v>20.64</v>
       </c>
       <c r="M18" t="n">
-        <v>191.3</v>
+        <v>4.13</v>
       </c>
       <c r="N18" t="n">
-        <v>13.6</v>
+        <v>2.65</v>
       </c>
       <c r="O18" t="n">
-        <v>11</v>
+        <v>37.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.1710205078125</v>
+        <v>153.9459075927734</v>
       </c>
       <c r="C19" t="n">
-        <v>683.0499877929688</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D19" t="n">
-        <v>633.4500122070312</v>
+        <v>177.1600036621094</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.18</v>
+        <v>23.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.38</v>
+        <v>-2.34</v>
       </c>
       <c r="J19" t="n">
-        <v>63.88</v>
+        <v>-32.92</v>
       </c>
       <c r="K19" t="n">
-        <v>56.1</v>
+        <v>-32.83</v>
       </c>
       <c r="L19" t="n">
-        <v>53.82</v>
+        <v>11.03</v>
       </c>
       <c r="M19" t="n">
-        <v>104.8</v>
+        <v>9.09</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="O19" t="n">
-        <v>11</v>
+        <v>10.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.6864624023438</v>
+        <v>186.2140960693359</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>587.9500122070312</v>
+        <v>349.2999877929688</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tyres &amp; Rubber Products</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.29</v>
+        <v>44</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.369999999999999</v>
+        <v>32.7</v>
       </c>
       <c r="I20" t="n">
-        <v>-12.92</v>
+        <v>10.23</v>
       </c>
       <c r="J20" t="n">
-        <v>14.94</v>
+        <v>11.54</v>
       </c>
       <c r="K20" t="n">
-        <v>292.45</v>
+        <v>11.55</v>
       </c>
       <c r="L20" t="n">
-        <v>275.52</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
-        <v>135</v>
+        <v>1.85</v>
       </c>
       <c r="N20" t="n">
-        <v>43.8</v>
+        <v>1.88</v>
       </c>
       <c r="O20" t="n">
-        <v>11</v>
+        <v>-83.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-57.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>AVANTIFEED</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.9459075927734</v>
-      </c>
-      <c r="C21" t="n">
-        <v>193.6100006103516</v>
-      </c>
+        <v>921.3240966796875</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>177.1600036621094</v>
+        <v>1424.349975585938</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Animal Feed</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-2.34</v>
+        <v>24</v>
       </c>
       <c r="H21" t="n">
-        <v>-32.92</v>
+        <v>19.5</v>
       </c>
       <c r="I21" t="n">
-        <v>-32.83</v>
+        <v>-13.98</v>
       </c>
       <c r="J21" t="n">
-        <v>11.03</v>
+        <v>-3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>9.09</v>
+        <v>-2.58</v>
       </c>
       <c r="L21" t="n">
-        <v>8.25</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>10.5</v>
+        <v>15.6</v>
       </c>
       <c r="N21" t="n">
-        <v>6.7</v>
+        <v>10.48</v>
       </c>
       <c r="O21" t="n">
-        <v>9</v>
+        <v>26.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>445.4774322509766</v>
+        <v>343.9984436035156</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>673.6500244140625</v>
+        <v>591.6500244140625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -5040,514 +5568,578 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Diversified Metals</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>24.65</v>
+        <v>23.7</v>
       </c>
       <c r="H22" t="n">
-        <v>124.4</v>
+        <v>18.6</v>
       </c>
       <c r="I22" t="n">
-        <v>217.39</v>
+        <v>-4.32</v>
       </c>
       <c r="J22" t="n">
-        <v>36.96</v>
+        <v>-15.22</v>
       </c>
       <c r="K22" t="n">
-        <v>60.11</v>
+        <v>-14.74</v>
       </c>
       <c r="L22" t="n">
-        <v>60.97</v>
+        <v>109.45</v>
       </c>
       <c r="M22" t="n">
-        <v>-909.6</v>
+        <v>147.62</v>
       </c>
       <c r="N22" t="n">
-        <v>438</v>
+        <v>149.23</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>70.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SHARDACROP</t>
+          <t>SANSERA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1094.9228515625</v>
+        <v>1871</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1256</v>
+        <v>2248.89990234375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pesticides &amp; Agrochemicals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>38.75</v>
+        <v>13.4</v>
       </c>
       <c r="H23" t="n">
-        <v>95.95</v>
+        <v>10.5</v>
       </c>
       <c r="I23" t="n">
-        <v>95.27</v>
+        <v>10.06</v>
       </c>
       <c r="J23" t="n">
-        <v>38.75</v>
+        <v>-2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>367.74</v>
+        <v>-4.42</v>
       </c>
       <c r="L23" t="n">
-        <v>366.38</v>
+        <v>24.73</v>
       </c>
       <c r="M23" t="n">
-        <v>-18</v>
+        <v>23.21</v>
       </c>
       <c r="N23" t="n">
-        <v>9.800000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="O23" t="n">
-        <v>9</v>
+        <v>40.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AVANTIFEED</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3240966796875</v>
+        <v>379.6864624023438</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>1424.349975585938</v>
+        <v>587.9500122070312</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Animal Feed</t>
+          <t>Tyres &amp; Rubber Products</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-13.98</v>
+        <v>12.8</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.55</v>
+        <v>11.1</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.58</v>
+        <v>5.29</v>
       </c>
       <c r="J24" t="n">
-        <v>1.32</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>15.6</v>
+        <v>-12.92</v>
       </c>
       <c r="L24" t="n">
-        <v>10.48</v>
+        <v>14.94</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3</v>
+        <v>292.45</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>275.52</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="P24" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>343.9984436035156</v>
+        <v>1314.5</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>591.6500244140625</v>
+        <v>1738.800048828125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-4.32</v>
+        <v>12.2</v>
       </c>
       <c r="H25" t="n">
-        <v>-15.22</v>
+        <v>11.6</v>
       </c>
       <c r="I25" t="n">
-        <v>-14.74</v>
+        <v>7.71</v>
       </c>
       <c r="J25" t="n">
-        <v>109.45</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>147.62</v>
+        <v>-11.66</v>
       </c>
       <c r="L25" t="n">
-        <v>149.23</v>
+        <v>24.94</v>
       </c>
       <c r="M25" t="n">
-        <v>70.5</v>
+        <v>28.17</v>
       </c>
       <c r="N25" t="n">
-        <v>18.3</v>
+        <v>24.27</v>
       </c>
       <c r="O25" t="n">
-        <v>9</v>
+        <v>191.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>SHARDACROP</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>140.9739074707031</v>
+        <v>1094.9228515625</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>204.6300048828125</v>
+        <v>1256</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Commercial Vehicles</t>
+          <t>Pesticides &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>17.91</v>
+        <v>16.5</v>
       </c>
       <c r="H26" t="n">
-        <v>5.12</v>
+        <v>12.6</v>
       </c>
       <c r="I26" t="n">
-        <v>6.98</v>
+        <v>38.75</v>
       </c>
       <c r="J26" t="n">
-        <v>23.63</v>
+        <v>95.95</v>
       </c>
       <c r="K26" t="n">
-        <v>5.12</v>
+        <v>95.27</v>
       </c>
       <c r="L26" t="n">
-        <v>6.15</v>
+        <v>38.75</v>
       </c>
       <c r="M26" t="n">
-        <v>355.1</v>
+        <v>367.74</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.2</v>
+        <v>366.38</v>
       </c>
       <c r="O26" t="n">
-        <v>9</v>
+        <v>-18</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>DYNAMATECH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>182.8399963378906</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>7262.255859375</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9574.064453125</v>
+      </c>
       <c r="D27" t="n">
-        <v>203.1799926757812</v>
+        <v>9446.5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-2.87</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>-14.23</v>
+        <v>6.21</v>
       </c>
       <c r="I27" t="n">
-        <v>-13.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>6.25</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>825.42</v>
+        <v>74.33</v>
       </c>
       <c r="L27" t="n">
-        <v>726.92</v>
+        <v>34.7</v>
       </c>
       <c r="M27" t="n">
-        <v>917.9</v>
+        <v>63.46</v>
       </c>
       <c r="N27" t="n">
-        <v>685.2</v>
+        <v>63.38</v>
       </c>
       <c r="O27" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="Q27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DYNAMATECH</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7262.255859375</v>
+        <v>773.69140625</v>
       </c>
       <c r="C28" t="n">
-        <v>9574.064453125</v>
+        <v>1029</v>
       </c>
       <c r="D28" t="n">
-        <v>9446.5</v>
+        <v>879</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.279999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
-        <v>74.31999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="I28" t="n">
-        <v>74.33</v>
+        <v>-3.94</v>
       </c>
       <c r="J28" t="n">
-        <v>34.7</v>
+        <v>39.36</v>
       </c>
       <c r="K28" t="n">
-        <v>63.46</v>
+        <v>39.25</v>
       </c>
       <c r="L28" t="n">
-        <v>63.38</v>
+        <v>21.34</v>
       </c>
       <c r="M28" t="n">
-        <v>23.06</v>
+        <v>4671.43</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.83</v>
+        <v>4704.29</v>
       </c>
       <c r="O28" t="n">
-        <v>9</v>
+        <v>459.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PTCIL</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15425</v>
+        <v>985.0249938964844</v>
       </c>
       <c r="C29" t="n">
-        <v>18875</v>
+        <v>1152.611206054688</v>
       </c>
       <c r="D29" t="n">
-        <v>18384</v>
+        <v>1144.699951171875</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Other Industrial Products</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>28.87</v>
+        <v>4.77</v>
       </c>
       <c r="H29" t="n">
-        <v>260</v>
+        <v>1.42</v>
       </c>
       <c r="I29" t="n">
-        <v>252.03</v>
+        <v>-5.94</v>
       </c>
       <c r="J29" t="n">
-        <v>73.61</v>
+        <v>394.87</v>
       </c>
       <c r="K29" t="n">
-        <v>5.88</v>
+        <v>399.08</v>
       </c>
       <c r="L29" t="n">
-        <v>4.76</v>
+        <v>6.2</v>
       </c>
       <c r="M29" t="n">
-        <v>13.6</v>
+        <v>112.09</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.7</v>
+        <v>111.4</v>
       </c>
       <c r="O29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P29" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SHRIPISTON</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2728.701171875</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3291.772705078125</v>
-      </c>
+        <v>182.8399963378906</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>3084</v>
+        <v>203.1799926757812</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6899999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="H30" t="n">
-        <v>-11.27</v>
+        <v>3.89</v>
       </c>
       <c r="I30" t="n">
-        <v>-12.09</v>
+        <v>-2.87</v>
       </c>
       <c r="J30" t="n">
-        <v>20.64</v>
+        <v>-14.23</v>
       </c>
       <c r="K30" t="n">
-        <v>4.13</v>
+        <v>-13.31</v>
       </c>
       <c r="L30" t="n">
-        <v>2.65</v>
+        <v>6.25</v>
       </c>
       <c r="M30" t="n">
-        <v>37.8</v>
+        <v>825.42</v>
       </c>
       <c r="N30" t="n">
-        <v>-0</v>
+        <v>726.92</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>917.9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>685.2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.9900054931641</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>15425</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18875</v>
+      </c>
       <c r="D31" t="n">
-        <v>159.2799987792969</v>
+        <v>18384</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Other Industrial Products</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>7.74</v>
       </c>
       <c r="H31" t="n">
-        <v>-10.74</v>
+        <v>6.07</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.9</v>
+        <v>28.87</v>
       </c>
       <c r="J31" t="n">
-        <v>11.76</v>
+        <v>260</v>
       </c>
       <c r="K31" t="n">
-        <v>163.38</v>
+        <v>252.03</v>
       </c>
       <c r="L31" t="n">
-        <v>167.65</v>
+        <v>73.61</v>
       </c>
       <c r="M31" t="n">
-        <v>315</v>
+        <v>5.88</v>
       </c>
       <c r="N31" t="n">
-        <v>-36.8</v>
+        <v>4.76</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>13.6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.2140960693359</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>488.8999938964844</v>
+      </c>
+      <c r="C32" t="n">
+        <v>613.0999755859375</v>
+      </c>
       <c r="D32" t="n">
-        <v>349.2999877929688</v>
+        <v>571.0999755859375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5556,375 +6148,423 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Industrial Minerals</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>10.23</v>
+        <v>14.1</v>
       </c>
       <c r="H32" t="n">
-        <v>11.54</v>
+        <v>10.9</v>
       </c>
       <c r="I32" t="n">
-        <v>11.55</v>
+        <v>-27.97</v>
       </c>
       <c r="J32" t="n">
-        <v>1.48</v>
+        <v>184.15</v>
       </c>
       <c r="K32" t="n">
-        <v>1.85</v>
+        <v>184.47</v>
       </c>
       <c r="L32" t="n">
-        <v>1.88</v>
+        <v>-10.96</v>
       </c>
       <c r="M32" t="n">
-        <v>-83.8</v>
+        <v>264.06</v>
       </c>
       <c r="N32" t="n">
-        <v>-57.9</v>
+        <v>264.43</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>-5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>BLACKBUCK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>488.8999938964844</v>
+        <v>489.5</v>
       </c>
       <c r="C33" t="n">
-        <v>613.0999755859375</v>
+        <v>644.2000122070312</v>
       </c>
       <c r="D33" t="n">
-        <v>571.0999755859375</v>
+        <v>634.9000244140625</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Industrial Minerals</t>
+          <t>Transport Related Services</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-27.97</v>
+        <v>10.5</v>
       </c>
       <c r="H33" t="n">
-        <v>184.15</v>
+        <v>47.3</v>
       </c>
       <c r="I33" t="n">
-        <v>184.47</v>
+        <v>13.91</v>
       </c>
       <c r="J33" t="n">
-        <v>-10.96</v>
+        <v>10.34</v>
       </c>
       <c r="K33" t="n">
-        <v>264.06</v>
+        <v>8.02</v>
       </c>
       <c r="L33" t="n">
-        <v>264.43</v>
+        <v>50.88</v>
       </c>
       <c r="M33" t="n">
-        <v>-5</v>
+        <v>-166.67</v>
       </c>
       <c r="N33" t="n">
-        <v>69.2</v>
+        <v>-164.34</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>14.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.600000381469727</v>
+        <v>849.680908203125</v>
       </c>
       <c r="C34" t="n">
-        <v>11.96000003814697</v>
+        <v>1027.099975585938</v>
       </c>
       <c r="D34" t="n">
-        <v>11.30000019073486</v>
+        <v>958.0999755859375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Telecommunication</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Telecom - Cellular &amp; Fixed line services</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.14</v>
+        <v>12.4</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.31</v>
+        <v>13.6</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.92</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>1.85</v>
+        <v>70.69</v>
       </c>
       <c r="K34" t="n">
-        <v>-20.02</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>-48.42</v>
+        <v>11.74</v>
       </c>
       <c r="M34" t="n">
-        <v>59.3</v>
+        <v>-5.71</v>
       </c>
       <c r="N34" t="n">
-        <v>428.8</v>
+        <v>-10.14</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>23.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLACKBUCK</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>489.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>644.2000122070312</v>
-      </c>
+        <v>141.9900054931641</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>634.9000244140625</v>
+        <v>159.2799987792969</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Transport Related Services</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13.91</v>
+        <v>6.76</v>
       </c>
       <c r="H35" t="n">
-        <v>10.34</v>
+        <v>4.54</v>
       </c>
       <c r="I35" t="n">
-        <v>8.02</v>
+        <v>2.5</v>
       </c>
       <c r="J35" t="n">
-        <v>50.88</v>
+        <v>-10.74</v>
       </c>
       <c r="K35" t="n">
-        <v>-166.67</v>
+        <v>-9.9</v>
       </c>
       <c r="L35" t="n">
-        <v>-164.34</v>
+        <v>11.76</v>
       </c>
       <c r="M35" t="n">
-        <v>14.5</v>
+        <v>163.38</v>
       </c>
       <c r="N35" t="n">
-        <v>-9.1</v>
+        <v>167.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>849.680908203125</v>
+        <v>3009.645263671875</v>
       </c>
       <c r="C36" t="n">
-        <v>1027.099975585938</v>
+        <v>4579.376953125</v>
       </c>
       <c r="D36" t="n">
-        <v>958.0999755859375</v>
+        <v>4412.39990234375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9.119999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="H36" t="n">
-        <v>70.69</v>
+        <v>28.2</v>
       </c>
       <c r="I36" t="n">
-        <v>75.68000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="J36" t="n">
-        <v>11.74</v>
+        <v>-21.86</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.71</v>
+        <v>-21.92</v>
       </c>
       <c r="L36" t="n">
-        <v>-10.14</v>
+        <v>-1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>23.5</v>
+        <v>-12.9</v>
       </c>
       <c r="N36" t="n">
-        <v>-4.6</v>
+        <v>-13</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>61.8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3009.645263671875</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C37" t="n">
-        <v>4579.376953125</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="D37" t="n">
-        <v>4412.39990234375</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Telecommunication</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Compressors, Pumps &amp; Diesel Engines</t>
+          <t>Telecom - Cellular &amp; Fixed line services</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-3.63</v>
+        <v>-1.93</v>
       </c>
       <c r="H37" t="n">
-        <v>-21.86</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-21.92</v>
+        <v>1.14</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.32</v>
+        <v>-4.31</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.9</v>
+        <v>-3.92</v>
       </c>
       <c r="L37" t="n">
-        <v>-13</v>
+        <v>1.85</v>
       </c>
       <c r="M37" t="n">
-        <v>61.8</v>
+        <v>-20.02</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.2</v>
+        <v>-48.42</v>
       </c>
       <c r="O37" t="n">
-        <v>-9</v>
+        <v>59.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>428.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>ADANIPOWER</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.26901626586914</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>120.7900009155273</v>
+      </c>
+      <c r="C38" t="n">
+        <v>167.7200012207031</v>
+      </c>
       <c r="D38" t="n">
-        <v>40.95000076293945</v>
+        <v>139.8999938964844</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Integrated Power Utilities</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-7.48</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-14.38</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-15.69</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-8.92</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-15.37</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-18.87</v>
       </c>
       <c r="O38" t="n">
-        <v>-15</v>
+        <v>-322</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-59.7</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>^CNXAUTO</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23980.5498046875</v>
-      </c>
-      <c r="C39" t="n">
-        <v>28803.650390625</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>28234.30078125</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>994.9000244140625</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Other Bank</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -5945,29 +6585,43 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10612.150390625</v>
+        <v>2662.800048828125</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>11872.7998046875</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>3586.10009765625</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Non Banking Financial Company (NBFC)</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -5988,21 +6642,27 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>215.2420959472656</v>
+        <v>692.6035766601562</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>284.1000061035156</v>
+        <v>1065.800048828125</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6011,14 +6671,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -6039,21 +6699,29 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>813.0499877929688</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>205.6300048828125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>319.75</v>
+      </c>
       <c r="D42" t="n">
-        <v>1198.599975585938</v>
+        <v>285.1000061035156</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6062,14 +6730,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -6090,23 +6758,27 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.2029113769531</v>
-      </c>
-      <c r="C43" t="n">
-        <v>328.25</v>
-      </c>
+        <v>58.72708129882812</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>313.7999877929688</v>
+        <v>65.44000244140625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6115,14 +6787,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -6143,21 +6815,29 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>692.6035766601562</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>290.4837341308594</v>
+      </c>
+      <c r="C44" t="n">
+        <v>402.9500122070312</v>
+      </c>
       <c r="D44" t="n">
-        <v>1065.800048828125</v>
+        <v>363.4500122070312</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6170,10 +6850,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>8.77</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -6194,76 +6874,86 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ADANIPOWER</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.7900009155273</v>
-      </c>
-      <c r="C45" t="n">
-        <v>167.7200012207031</v>
-      </c>
+        <v>114.4499969482422</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>139.8999938964844</v>
+        <v>141.7700042724609</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Integrated Power Utilities</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-7.48</v>
+        <v>6.79</v>
       </c>
       <c r="H45" t="n">
-        <v>-14.38</v>
+        <v>17.8</v>
       </c>
       <c r="I45" t="n">
-        <v>-15.69</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-8.92</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.37</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-18.87</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-322</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-59.7</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.6300048828125</v>
+        <v>778.4500122070312</v>
       </c>
       <c r="C46" t="n">
-        <v>319.75</v>
+        <v>873.9500122070312</v>
       </c>
       <c r="D46" t="n">
-        <v>285.1000061035156</v>
+        <v>873.7000122070312</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6272,14 +6962,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6.38</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -6300,21 +6990,27 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>245.3600006103516</v>
+        <v>150.2200012207031</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>316</v>
+        <v>178.8699951171875</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6323,14 +7019,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>6.72</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -6351,23 +7047,27 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>290.4837341308594</v>
-      </c>
-      <c r="C48" t="n">
-        <v>402.9500122070312</v>
-      </c>
+        <v>813.0499877929688</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>363.4500122070312</v>
+        <v>1198.599975585938</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6376,14 +7076,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>6.47</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -6404,21 +7104,27 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2662.800048828125</v>
+        <v>245.4449996948242</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>3586.10009765625</v>
+        <v>287.4500122070312</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6427,14 +7133,14 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -6455,23 +7161,27 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>778.4500122070312</v>
-      </c>
-      <c r="C50" t="n">
-        <v>873.9500122070312</v>
-      </c>
+        <v>139.7700042724609</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>873.7000122070312</v>
+        <v>161.7899932861328</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6484,10 +7194,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -6508,21 +7218,27 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>SOUTHBANK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>150.2200012207031</v>
+        <v>30.26901626586914</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>178.8699951171875</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6531,14 +7247,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -6559,21 +7275,27 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UJJIVANSFB</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>49.06999969482422</v>
+        <v>214.0243988037109</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>61.2400016784668</v>
+        <v>288.2999877929688</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6582,14 +7304,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Other Bank</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -6610,31 +7332,43 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>GVT&amp;D</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>197.2599945068359</v>
-      </c>
-      <c r="C53" t="n">
-        <v>238.7299957275391</v>
-      </c>
+        <v>3170.10009765625</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>222.8500061035156</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+        <v>3553</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Heavy Electrical Equipment</t>
+        </is>
+      </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -6655,37 +7389,45 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GVT&amp;D</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3170.10009765625</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>263.2029113769531</v>
+      </c>
+      <c r="C54" t="n">
+        <v>328.25</v>
+      </c>
       <c r="D54" t="n">
-        <v>3553</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -6706,32 +7448,32 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
         <v>-15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>214.0243988037109</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>197.2599945068359</v>
+      </c>
+      <c r="C55" t="n">
+        <v>238.7299957275391</v>
+      </c>
       <c r="D55" t="n">
-        <v>288.2999877929688</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Private Sector Bank</t>
-        </is>
-      </c>
+        <v>222.8500061035156</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>0</v>
       </c>
@@ -6757,21 +7499,27 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>UJJIVANSFB</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>245.4449996948242</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>287.4500122070312</v>
+        <v>61.2400016784668</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6780,7 +7528,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Other Bank</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -6808,21 +7556,27 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>114.4499969482422</v>
+        <v>215.2420959472656</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>141.7700042724609</v>
+        <v>284.1000061035156</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6831,7 +7585,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -6859,21 +7613,27 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>KARURVYSYA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>58.72708129882812</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>65.44000244140625</v>
+        <v>316</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6882,7 +7642,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -6910,32 +7670,30 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>^CNXMETAL</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>139.7700042724609</v>
+        <v>10612.150390625</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>161.7899932861328</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Public Sector Bank</t>
-        </is>
-      </c>
+        <v>11872.7998046875</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
         <v>0</v>
       </c>
@@ -6961,32 +7719,32 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>^CNXAUTO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>821</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>23980.5498046875</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28803.650390625</v>
+      </c>
       <c r="D60" t="n">
-        <v>994.9000244140625</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Other Bank</t>
-        </is>
-      </c>
+        <v>28234.30078125</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
         <v>0</v>
       </c>
@@ -7012,7 +7770,13 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="61">
@@ -7055,7 +7819,13 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-17</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks_filtered/support_resistance_scan.xlsx
+++ b/Stocks_filtered/support_resistance_scan.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="matched" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="missed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="indices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MF" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="matched" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="missed" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,402 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>USDINR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XAUINRG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>XAGINRK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NASDAQ 100</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NIFTY 50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NIFTY 500</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NIFTY MIDCAP 150</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NIFTY SMALLCAP 250</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NIFTY PRIVATE BANK</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NIFTY PSU BANK</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIFTY FINANCIAL SERVICES</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIFTY FMCG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIFTY IT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NIFTY AUTO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NIFTY METAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NIFTY PHARMA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NIFTY HEALTHCARE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NIFTY REALTY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NIFTY MEDIA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NIFTY CONSUMER DURABLES</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NIFTY OIL &amp; GAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NIFTY CHEMICAL</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NIFTY DEFENCE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NIFTY DIGITAL INDIA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NIFTY EV</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NIfty Energy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indices</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Benchmark RSI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Current RSI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mutual fund to invest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NIFTY 50</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53.26</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Parag Parikh Flexi Cap Fund Direct Growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NIFTY Mid cap 150</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HDFC Mid Cap Fund Direct Growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NIFTY Small cap 250</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38.69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nippon India Small Cap Fund direct growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NIFTY Financial Services</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58.19</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SBI Banking &amp; Financial Services Fund</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NIFTY India Digital</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tata Digital India Fund</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NIFTY India Healthcare</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ICICI Prudential Pharma Healthcare &amp; Diagnostics Fund</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -524,55 +922,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>724.4345092773438</v>
+        <v>9117.5</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>760.1500244140625</v>
+        <v>9760</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Edible Oil</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>45.2</v>
+        <v>28.1</v>
       </c>
       <c r="H2" t="n">
-        <v>41.3</v>
+        <v>22.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.58</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>6.48</v>
+        <v>29.59</v>
       </c>
       <c r="K2" t="n">
-        <v>6.17</v>
+        <v>29.46</v>
       </c>
       <c r="L2" t="n">
-        <v>26.59</v>
+        <v>23.05</v>
       </c>
       <c r="M2" t="n">
-        <v>13.3</v>
+        <v>25.23</v>
       </c>
       <c r="N2" t="n">
-        <v>11.69</v>
+        <v>25.13</v>
       </c>
       <c r="O2" t="n">
-        <v>223.8</v>
+        <v>915.9</v>
       </c>
       <c r="P2" t="n">
-        <v>19.5</v>
+        <v>142.8</v>
       </c>
       <c r="Q2" t="n">
         <v>20</v>
@@ -581,57 +979,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NAM-INDIA</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>856.0205078125</v>
+        <v>5803.5</v>
       </c>
       <c r="C3" t="n">
-        <v>913.3294067382812</v>
+        <v>6130.25</v>
       </c>
       <c r="D3" t="n">
-        <v>912.4000244140625</v>
+        <v>5980.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Asset Management Company</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>40.7</v>
+        <v>53</v>
       </c>
       <c r="H3" t="n">
-        <v>31.4</v>
+        <v>52.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7.14</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
-        <v>17.1</v>
+        <v>4.12</v>
       </c>
       <c r="K3" t="n">
-        <v>17.19</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>19.9</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>36.95</v>
+        <v>17.18</v>
       </c>
       <c r="N3" t="n">
-        <v>36.05</v>
+        <v>16.89</v>
       </c>
       <c r="O3" t="n">
-        <v>32.5</v>
+        <v>116.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
         <v>20</v>
@@ -697,55 +1095,55 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9117.5</v>
+        <v>724.4345092773438</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>9760</v>
+        <v>760.1500244140625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Edible Oil</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28.1</v>
+        <v>45.2</v>
       </c>
       <c r="H5" t="n">
-        <v>22.8</v>
+        <v>41.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.98</v>
+        <v>1.58</v>
       </c>
       <c r="J5" t="n">
-        <v>29.59</v>
+        <v>6.48</v>
       </c>
       <c r="K5" t="n">
-        <v>29.46</v>
+        <v>6.17</v>
       </c>
       <c r="L5" t="n">
-        <v>23.05</v>
+        <v>26.59</v>
       </c>
       <c r="M5" t="n">
-        <v>25.23</v>
+        <v>13.3</v>
       </c>
       <c r="N5" t="n">
-        <v>25.13</v>
+        <v>11.69</v>
       </c>
       <c r="O5" t="n">
-        <v>915.9</v>
+        <v>223.8</v>
       </c>
       <c r="P5" t="n">
-        <v>142.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q5" t="n">
         <v>20</v>
@@ -754,57 +1152,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>NAM-INDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5803.5</v>
+        <v>856.0205078125</v>
       </c>
       <c r="C6" t="n">
-        <v>6130.25</v>
+        <v>913.3294067382812</v>
       </c>
       <c r="D6" t="n">
-        <v>5980.5</v>
+        <v>912.4000244140625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Asset Management Company</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>40.7</v>
       </c>
       <c r="H6" t="n">
-        <v>52.9</v>
+        <v>31.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>7.14</v>
       </c>
       <c r="J6" t="n">
-        <v>4.12</v>
+        <v>17.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>17.19</v>
       </c>
       <c r="L6" t="n">
-        <v>8.210000000000001</v>
+        <v>19.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.18</v>
+        <v>36.95</v>
       </c>
       <c r="N6" t="n">
-        <v>16.89</v>
+        <v>36.05</v>
       </c>
       <c r="O6" t="n">
-        <v>116.3</v>
+        <v>32.5</v>
       </c>
       <c r="P6" t="n">
-        <v>29.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" t="n">
         <v>20</v>
@@ -927,55 +1325,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4524.2431640625</v>
+        <v>3847.800048828125</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>4566.7998046875</v>
+        <v>3864.60009765625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cables - Electricals</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>21.3</v>
+        <v>15.4</v>
       </c>
       <c r="H9" t="n">
-        <v>15.6</v>
+        <v>28.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>5.02</v>
       </c>
       <c r="J9" t="n">
-        <v>15.2</v>
+        <v>6.96</v>
       </c>
       <c r="K9" t="n">
-        <v>15.41</v>
+        <v>5.79</v>
       </c>
       <c r="L9" t="n">
-        <v>19.54</v>
+        <v>33.72</v>
       </c>
       <c r="M9" t="n">
-        <v>42.42</v>
+        <v>46.31</v>
       </c>
       <c r="N9" t="n">
-        <v>42.43</v>
+        <v>48.7</v>
       </c>
       <c r="O9" t="n">
-        <v>77.7</v>
+        <v>995.1</v>
       </c>
       <c r="P9" t="n">
-        <v>11.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -984,55 +1382,55 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3847.800048828125</v>
+        <v>4524.2431640625</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>3864.60009765625</v>
+        <v>4566.7998046875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Cables - Electricals</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.4</v>
+        <v>21.3</v>
       </c>
       <c r="H10" t="n">
-        <v>28.4</v>
+        <v>15.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.02</v>
+        <v>8.4</v>
       </c>
       <c r="J10" t="n">
-        <v>6.96</v>
+        <v>15.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.79</v>
+        <v>15.41</v>
       </c>
       <c r="L10" t="n">
-        <v>33.72</v>
+        <v>19.54</v>
       </c>
       <c r="M10" t="n">
-        <v>46.31</v>
+        <v>42.42</v>
       </c>
       <c r="N10" t="n">
-        <v>48.7</v>
+        <v>42.43</v>
       </c>
       <c r="O10" t="n">
-        <v>995.1</v>
+        <v>77.7</v>
       </c>
       <c r="P10" t="n">
-        <v>69.90000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1216,57 +1614,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>SAILIFE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2855.89990234375</v>
+        <v>861.3499755859375</v>
       </c>
       <c r="C14" t="n">
-        <v>3125.10009765625</v>
+        <v>922.0500183105469</v>
       </c>
       <c r="D14" t="n">
-        <v>2989.10009765625</v>
+        <v>914.8499755859375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Financial Products Distributor</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>56.3</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>45.3</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.36</v>
+        <v>3.54</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5</v>
+        <v>18.75</v>
       </c>
       <c r="L14" t="n">
-        <v>22.36</v>
+        <v>26.36</v>
       </c>
       <c r="M14" t="n">
-        <v>29.87</v>
+        <v>85.19</v>
       </c>
       <c r="N14" t="n">
-        <v>29.63</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q14" t="n">
         <v>16</v>
@@ -1391,57 +1789,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAILIFE</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>861.3499755859375</v>
+        <v>2855.89990234375</v>
       </c>
       <c r="C17" t="n">
-        <v>922.0500183105469</v>
+        <v>3125.10009765625</v>
       </c>
       <c r="D17" t="n">
-        <v>914.8499755859375</v>
+        <v>2989.10009765625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Financial Products Distributor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>56.3</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>45.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.54</v>
+        <v>-2.36</v>
       </c>
       <c r="J17" t="n">
-        <v>19.05</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>18.75</v>
+        <v>0.5</v>
       </c>
       <c r="L17" t="n">
-        <v>26.36</v>
+        <v>22.36</v>
       </c>
       <c r="M17" t="n">
-        <v>85.19</v>
+        <v>29.87</v>
       </c>
       <c r="N17" t="n">
-        <v>83.40000000000001</v>
+        <v>29.63</v>
       </c>
       <c r="O17" t="n">
-        <v>18.9</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="Q17" t="n">
         <v>16</v>
@@ -1450,55 +1848,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CEIGALL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>286.6499938964844</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>428.7765502929688</v>
+      </c>
+      <c r="C18" t="n">
+        <v>481.25</v>
+      </c>
       <c r="D18" t="n">
-        <v>289.6499938964844</v>
+        <v>450.2000122070312</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>19.4</v>
+        <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>20.9</v>
+        <v>13.8</v>
       </c>
       <c r="I18" t="n">
-        <v>22.8</v>
+        <v>14.18</v>
       </c>
       <c r="J18" t="n">
-        <v>28.57</v>
+        <v>3.94</v>
       </c>
       <c r="K18" t="n">
-        <v>27.63</v>
+        <v>3.91</v>
       </c>
       <c r="L18" t="n">
-        <v>19.25</v>
+        <v>4.11</v>
       </c>
       <c r="M18" t="n">
-        <v>1.41</v>
+        <v>57.67</v>
       </c>
       <c r="N18" t="n">
-        <v>1.19</v>
+        <v>57.74</v>
       </c>
       <c r="O18" t="n">
-        <v>11.5</v>
+        <v>31.3</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.4</v>
+        <v>337.8</v>
       </c>
       <c r="Q18" t="n">
         <v>15</v>
@@ -1507,57 +1907,55 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CEIGALL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>428.7765502929688</v>
-      </c>
-      <c r="C19" t="n">
-        <v>481.25</v>
-      </c>
+        <v>286.6499938964844</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>450.2000122070312</v>
+        <v>289.6499938964844</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10.5</v>
+        <v>19.4</v>
       </c>
       <c r="H19" t="n">
-        <v>13.8</v>
+        <v>20.9</v>
       </c>
       <c r="I19" t="n">
-        <v>14.18</v>
+        <v>22.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.94</v>
+        <v>28.57</v>
       </c>
       <c r="K19" t="n">
-        <v>3.91</v>
+        <v>27.63</v>
       </c>
       <c r="L19" t="n">
-        <v>4.11</v>
+        <v>19.25</v>
       </c>
       <c r="M19" t="n">
-        <v>57.67</v>
+        <v>1.41</v>
       </c>
       <c r="N19" t="n">
-        <v>57.74</v>
+        <v>1.19</v>
       </c>
       <c r="O19" t="n">
-        <v>31.3</v>
+        <v>11.5</v>
       </c>
       <c r="P19" t="n">
-        <v>337.8</v>
+        <v>-1.4</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -1684,17 +2082,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>MINDACORP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2148.10009765625</v>
+        <v>560.792724609375</v>
       </c>
       <c r="C22" t="n">
-        <v>2408.60009765625</v>
+        <v>601.2151489257812</v>
       </c>
       <c r="D22" t="n">
-        <v>2298.800048828125</v>
+        <v>598</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1707,34 +2105,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>27.8</v>
+        <v>12.7</v>
       </c>
       <c r="H22" t="n">
-        <v>21</v>
+        <v>12.1</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.5</v>
+        <v>1.63</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.56</v>
+        <v>-1.18</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.45</v>
+        <v>1.13</v>
       </c>
       <c r="L22" t="n">
-        <v>16.36</v>
+        <v>24.5</v>
       </c>
       <c r="M22" t="n">
-        <v>34.04</v>
+        <v>29.23</v>
       </c>
       <c r="N22" t="n">
-        <v>34.83</v>
+        <v>32.1</v>
       </c>
       <c r="O22" t="n">
-        <v>27</v>
+        <v>82.8</v>
       </c>
       <c r="P22" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="Q22" t="n">
         <v>14</v>
@@ -1800,57 +2198,55 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MINDACORP</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>560.792724609375</v>
-      </c>
-      <c r="C24" t="n">
-        <v>601.2151489257812</v>
-      </c>
+        <v>117.8099975585938</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>598</v>
+        <v>118.7600021362305</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12.7</v>
+        <v>6.32</v>
       </c>
       <c r="H24" t="n">
-        <v>12.1</v>
+        <v>15.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.18</v>
+        <v>8.9</v>
       </c>
       <c r="K24" t="n">
-        <v>1.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>24.5</v>
+        <v>3.12</v>
       </c>
       <c r="M24" t="n">
-        <v>29.23</v>
+        <v>15.92</v>
       </c>
       <c r="N24" t="n">
-        <v>32.1</v>
+        <v>15.55</v>
       </c>
       <c r="O24" t="n">
-        <v>82.8</v>
+        <v>197.8</v>
       </c>
       <c r="P24" t="n">
-        <v>7.1</v>
+        <v>164.2</v>
       </c>
       <c r="Q24" t="n">
         <v>14</v>
@@ -1916,57 +2312,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMCURE</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1423.199951171875</v>
+        <v>2148.10009765625</v>
       </c>
       <c r="C26" t="n">
-        <v>1493.099975585938</v>
+        <v>2408.60009765625</v>
       </c>
       <c r="D26" t="n">
-        <v>1488.699951171875</v>
+        <v>2298.800048828125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20.7</v>
+        <v>27.8</v>
       </c>
       <c r="H26" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>-3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>-7.97</v>
+        <v>-1.56</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.3</v>
+        <v>-0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>20.38</v>
+        <v>16.36</v>
       </c>
       <c r="M26" t="n">
-        <v>48.08</v>
+        <v>34.04</v>
       </c>
       <c r="N26" t="n">
-        <v>49.94</v>
+        <v>34.83</v>
       </c>
       <c r="O26" t="n">
-        <v>95.40000000000001</v>
+        <v>27</v>
       </c>
       <c r="P26" t="n">
-        <v>20.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q26" t="n">
         <v>14</v>
@@ -1975,116 +2371,114 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>EMCURE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1464.574584960938</v>
+        <v>1423.199951171875</v>
       </c>
       <c r="C27" t="n">
-        <v>1522.800048828125</v>
+        <v>1493.099975585938</v>
       </c>
       <c r="D27" t="n">
-        <v>1519</v>
+        <v>1488.699951171875</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>13.8</v>
+        <v>20.7</v>
       </c>
       <c r="H27" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="I27" t="n">
-        <v>5.87</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.47</v>
+        <v>-7.97</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.92</v>
+        <v>-5.3</v>
       </c>
       <c r="L27" t="n">
-        <v>21.86</v>
+        <v>20.38</v>
       </c>
       <c r="M27" t="n">
-        <v>20.85</v>
+        <v>48.08</v>
       </c>
       <c r="N27" t="n">
-        <v>13.54</v>
+        <v>49.94</v>
       </c>
       <c r="O27" t="n">
-        <v>416.1</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>114.7</v>
+        <v>20.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>AETHER</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.3314819335938</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1106.5</v>
-      </c>
+        <v>916.0249938964844</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1010.599975585938</v>
+        <v>966.9000244140625</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.15</v>
+        <v>10.2</v>
       </c>
       <c r="H28" t="n">
-        <v>7.45</v>
+        <v>7.8</v>
       </c>
       <c r="I28" t="n">
-        <v>7.56</v>
+        <v>13.21</v>
       </c>
       <c r="J28" t="n">
-        <v>29.9</v>
+        <v>18.52</v>
       </c>
       <c r="K28" t="n">
-        <v>29.09</v>
+        <v>19.41</v>
       </c>
       <c r="L28" t="n">
-        <v>25.65</v>
+        <v>44.09</v>
       </c>
       <c r="M28" t="n">
-        <v>170.97</v>
+        <v>48.84</v>
       </c>
       <c r="N28" t="n">
-        <v>172.51</v>
+        <v>48.62</v>
       </c>
       <c r="O28" t="n">
-        <v>65.90000000000001</v>
+        <v>23.4</v>
       </c>
       <c r="P28" t="n">
-        <v>27.9</v>
+        <v>4.6</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2093,55 +2487,57 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>268.5199890136719</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>931.3314819335938</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1106.5</v>
+      </c>
       <c r="D29" t="n">
-        <v>270.9500122070312</v>
+        <v>1010.599975585938</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Consumer Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>E-Retail/ E-Commerce</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.59</v>
+        <v>9.15</v>
       </c>
       <c r="H29" t="n">
-        <v>5.16</v>
+        <v>7.45</v>
       </c>
       <c r="I29" t="n">
-        <v>22.46</v>
+        <v>7.56</v>
       </c>
       <c r="J29" t="n">
-        <v>106.06</v>
+        <v>29.9</v>
       </c>
       <c r="K29" t="n">
-        <v>83.33</v>
+        <v>29.09</v>
       </c>
       <c r="L29" t="n">
-        <v>26.73</v>
+        <v>25.65</v>
       </c>
       <c r="M29" t="n">
-        <v>161.54</v>
+        <v>170.97</v>
       </c>
       <c r="N29" t="n">
-        <v>144.44</v>
+        <v>172.51</v>
       </c>
       <c r="O29" t="n">
-        <v>149.6</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>9.800000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2207,55 +2603,57 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AETHER</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.0249938964844</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>1464.574584960938</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1522.800048828125</v>
+      </c>
       <c r="D31" t="n">
-        <v>966.9000244140625</v>
+        <v>1519</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10.2</v>
+        <v>13.8</v>
       </c>
       <c r="H31" t="n">
-        <v>7.8</v>
+        <v>18.8</v>
       </c>
       <c r="I31" t="n">
-        <v>13.21</v>
+        <v>5.87</v>
       </c>
       <c r="J31" t="n">
-        <v>18.52</v>
+        <v>-2.47</v>
       </c>
       <c r="K31" t="n">
-        <v>19.41</v>
+        <v>-7.92</v>
       </c>
       <c r="L31" t="n">
-        <v>44.09</v>
+        <v>21.86</v>
       </c>
       <c r="M31" t="n">
-        <v>48.84</v>
+        <v>20.85</v>
       </c>
       <c r="N31" t="n">
-        <v>48.62</v>
+        <v>13.54</v>
       </c>
       <c r="O31" t="n">
-        <v>23.4</v>
+        <v>416.1</v>
       </c>
       <c r="P31" t="n">
-        <v>4.6</v>
+        <v>114.7</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2264,114 +2662,114 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1919.192504882812</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2064.5</v>
-      </c>
+        <v>268.5199890136719</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>1997.599975585938</v>
+        <v>270.9500122070312</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Services</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>E-Retail/ E-Commerce</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>19.4</v>
+        <v>9.59</v>
       </c>
       <c r="H32" t="n">
-        <v>15.8</v>
+        <v>5.16</v>
       </c>
       <c r="I32" t="n">
-        <v>-35.49</v>
+        <v>22.46</v>
       </c>
       <c r="J32" t="n">
-        <v>-33.93</v>
+        <v>106.06</v>
       </c>
       <c r="K32" t="n">
-        <v>-33.93</v>
+        <v>83.33</v>
       </c>
       <c r="L32" t="n">
-        <v>15.14</v>
+        <v>26.73</v>
       </c>
       <c r="M32" t="n">
-        <v>15.8</v>
+        <v>161.54</v>
       </c>
       <c r="N32" t="n">
-        <v>15.9</v>
+        <v>144.44</v>
       </c>
       <c r="O32" t="n">
-        <v>381.7</v>
+        <v>149.6</v>
       </c>
       <c r="P32" t="n">
-        <v>71.59999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>122.0400009155273</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>1919.192504882812</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2064.5</v>
+      </c>
       <c r="D33" t="n">
-        <v>131.2599945068359</v>
+        <v>1997.599975585938</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>13.7</v>
+        <v>19.4</v>
       </c>
       <c r="H33" t="n">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>-35.49</v>
       </c>
       <c r="J33" t="n">
-        <v>26.71</v>
+        <v>-33.93</v>
       </c>
       <c r="K33" t="n">
-        <v>24.36</v>
+        <v>-33.93</v>
       </c>
       <c r="L33" t="n">
-        <v>13.53</v>
+        <v>15.14</v>
       </c>
       <c r="M33" t="n">
-        <v>8.94</v>
+        <v>15.8</v>
       </c>
       <c r="N33" t="n">
-        <v>16.87</v>
+        <v>15.9</v>
       </c>
       <c r="O33" t="n">
-        <v>834.2</v>
+        <v>381.7</v>
       </c>
       <c r="P33" t="n">
-        <v>-9.300000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Q33" t="n">
         <v>12</v>
@@ -2380,55 +2778,55 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>426.7052154541016</v>
+        <v>122.0400009155273</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>435.5499877929688</v>
+        <v>131.2599945068359</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>38.9</v>
+        <v>13.7</v>
       </c>
       <c r="H34" t="n">
-        <v>29.2</v>
+        <v>12.2</v>
       </c>
       <c r="I34" t="n">
-        <v>23.52</v>
+        <v>4.1</v>
       </c>
       <c r="J34" t="n">
-        <v>22.77</v>
+        <v>26.71</v>
       </c>
       <c r="K34" t="n">
-        <v>22.73</v>
+        <v>24.36</v>
       </c>
       <c r="L34" t="n">
-        <v>23.96</v>
+        <v>13.53</v>
       </c>
       <c r="M34" t="n">
-        <v>20.43</v>
+        <v>8.94</v>
       </c>
       <c r="N34" t="n">
-        <v>20.67</v>
+        <v>16.87</v>
       </c>
       <c r="O34" t="n">
-        <v>-59.2</v>
+        <v>834.2</v>
       </c>
       <c r="P34" t="n">
-        <v>-30.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q34" t="n">
         <v>12</v>
@@ -2437,116 +2835,112 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRIVISCL</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2479.699951171875</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3264.199951171875</v>
-      </c>
+        <v>426.7052154541016</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>2738</v>
+        <v>435.5499877929688</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16.4</v>
+        <v>38.9</v>
       </c>
       <c r="H35" t="n">
-        <v>18.4</v>
+        <v>29.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-10.9</v>
+        <v>23.52</v>
       </c>
       <c r="J35" t="n">
-        <v>-16.67</v>
+        <v>22.77</v>
       </c>
       <c r="K35" t="n">
-        <v>-16.94</v>
+        <v>22.73</v>
       </c>
       <c r="L35" t="n">
-        <v>23.22</v>
+        <v>23.96</v>
       </c>
       <c r="M35" t="n">
-        <v>70.45</v>
+        <v>20.43</v>
       </c>
       <c r="N35" t="n">
-        <v>75.45999999999999</v>
+        <v>20.67</v>
       </c>
       <c r="O35" t="n">
-        <v>29.3</v>
+        <v>-59.2</v>
       </c>
       <c r="P35" t="n">
-        <v>8.800000000000001</v>
+        <v>-30.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>ANURAS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>914.3802795410156</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1050.26318359375</v>
-      </c>
+        <v>1333.400024414062</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>994</v>
+        <v>1336.400024414062</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>13.1</v>
+        <v>7.33</v>
       </c>
       <c r="H36" t="n">
-        <v>17</v>
+        <v>3.32</v>
       </c>
       <c r="I36" t="n">
-        <v>-6.74</v>
+        <v>50.41</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.99</v>
+        <v>18.75</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.53</v>
+        <v>25.81</v>
       </c>
       <c r="L36" t="n">
-        <v>38.65</v>
+        <v>148.64</v>
       </c>
       <c r="M36" t="n">
-        <v>58.73</v>
+        <v>83.87</v>
       </c>
       <c r="N36" t="n">
-        <v>59.11</v>
+        <v>156.58</v>
       </c>
       <c r="O36" t="n">
-        <v>87.7</v>
+        <v>97</v>
       </c>
       <c r="P36" t="n">
-        <v>7.3</v>
+        <v>4.6</v>
       </c>
       <c r="Q36" t="n">
         <v>11</v>
@@ -2555,55 +2949,55 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ANURAS</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1333.400024414062</v>
+        <v>1269.800048828125</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>1336.400024414062</v>
+        <v>1379.900024414062</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.33</v>
+        <v>13.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.32</v>
+        <v>15.4</v>
       </c>
       <c r="I37" t="n">
-        <v>50.41</v>
+        <v>-3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>18.75</v>
+        <v>-31.45</v>
       </c>
       <c r="K37" t="n">
-        <v>25.81</v>
+        <v>-31.48</v>
       </c>
       <c r="L37" t="n">
-        <v>148.64</v>
+        <v>28.82</v>
       </c>
       <c r="M37" t="n">
-        <v>83.87</v>
+        <v>60.29</v>
       </c>
       <c r="N37" t="n">
-        <v>156.58</v>
+        <v>56.01</v>
       </c>
       <c r="O37" t="n">
-        <v>97</v>
+        <v>103.7</v>
       </c>
       <c r="P37" t="n">
-        <v>4.6</v>
+        <v>11.4</v>
       </c>
       <c r="Q37" t="n">
         <v>11</v>
@@ -2612,55 +3006,57 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1269.800048828125</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>2479.699951171875</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3264.199951171875</v>
+      </c>
       <c r="D38" t="n">
-        <v>1379.900024414062</v>
+        <v>2738</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Compressors, Pumps &amp; Diesel Engines</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>13.7</v>
+        <v>16.4</v>
       </c>
       <c r="H38" t="n">
-        <v>15.4</v>
+        <v>18.4</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.85</v>
+        <v>-10.9</v>
       </c>
       <c r="J38" t="n">
-        <v>-31.45</v>
+        <v>-16.67</v>
       </c>
       <c r="K38" t="n">
-        <v>-31.48</v>
+        <v>-16.94</v>
       </c>
       <c r="L38" t="n">
-        <v>28.82</v>
+        <v>23.22</v>
       </c>
       <c r="M38" t="n">
-        <v>60.29</v>
+        <v>70.45</v>
       </c>
       <c r="N38" t="n">
-        <v>56.01</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>103.7</v>
+        <v>29.3</v>
       </c>
       <c r="P38" t="n">
-        <v>11.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q38" t="n">
         <v>11</v>
@@ -2669,55 +3065,57 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.1581268310547</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>77.62592315673828</v>
+      </c>
+      <c r="C39" t="n">
+        <v>81.76999664306641</v>
+      </c>
       <c r="D39" t="n">
-        <v>176.7700042724609</v>
+        <v>81.54000091552734</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.36</v>
+        <v>6.22</v>
       </c>
       <c r="H39" t="n">
-        <v>6.51</v>
+        <v>4.21</v>
       </c>
       <c r="I39" t="n">
-        <v>14.85</v>
+        <v>4.83</v>
       </c>
       <c r="J39" t="n">
-        <v>64.84</v>
+        <v>37.64</v>
       </c>
       <c r="K39" t="n">
-        <v>66.25</v>
+        <v>19.15</v>
       </c>
       <c r="L39" t="n">
-        <v>5.74</v>
+        <v>11.5</v>
       </c>
       <c r="M39" t="n">
-        <v>528.88</v>
+        <v>40.88</v>
       </c>
       <c r="N39" t="n">
-        <v>514</v>
+        <v>21.74</v>
       </c>
       <c r="O39" t="n">
-        <v>564.4</v>
+        <v>267.2</v>
       </c>
       <c r="P39" t="n">
-        <v>2253.3</v>
+        <v>33</v>
       </c>
       <c r="Q39" t="n">
         <v>11</v>
@@ -2726,308 +3124,306 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31615</v>
-      </c>
-      <c r="C40" t="n">
-        <v>36040</v>
-      </c>
+        <v>166.1581268310547</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>35115</v>
+        <v>176.7700042724609</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Diversified</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Diversified</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40.5</v>
+        <v>7.36</v>
       </c>
       <c r="H40" t="n">
-        <v>30.5</v>
+        <v>6.51</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.38</v>
+        <v>14.85</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.25</v>
+        <v>64.84</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.08</v>
+        <v>66.25</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.29</v>
+        <v>5.74</v>
       </c>
       <c r="M40" t="n">
-        <v>21.71</v>
+        <v>528.88</v>
       </c>
       <c r="N40" t="n">
-        <v>21.62</v>
+        <v>514</v>
       </c>
       <c r="O40" t="n">
-        <v>4.9</v>
+        <v>564.4</v>
       </c>
       <c r="P40" t="n">
-        <v>8.300000000000001</v>
+        <v>2253.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PGIL</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1579.466064453125</v>
+        <v>914.3802795410156</v>
       </c>
       <c r="C41" t="n">
-        <v>1742</v>
+        <v>1050.26318359375</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.099975585938</v>
+        <v>994</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Textiles</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garments &amp; Apparels</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>22.1</v>
+        <v>13.1</v>
       </c>
       <c r="H41" t="n">
-        <v>24.3</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>-10.89</v>
+        <v>-6.74</v>
       </c>
       <c r="J41" t="n">
-        <v>-27.78</v>
+        <v>-0.99</v>
       </c>
       <c r="K41" t="n">
-        <v>-27.52</v>
+        <v>-0.53</v>
       </c>
       <c r="L41" t="n">
-        <v>14.37</v>
+        <v>38.65</v>
       </c>
       <c r="M41" t="n">
-        <v>8.33</v>
+        <v>58.73</v>
       </c>
       <c r="N41" t="n">
-        <v>-5.63</v>
+        <v>59.11</v>
       </c>
       <c r="O41" t="n">
-        <v>37.8</v>
+        <v>87.7</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MRPL</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>172.4900054931641</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>31615</v>
+      </c>
+      <c r="C42" t="n">
+        <v>36040</v>
+      </c>
       <c r="D42" t="n">
-        <v>185.6000061035156</v>
+        <v>35115</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.38</v>
+        <v>40.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0.45</v>
+        <v>30.5</v>
       </c>
       <c r="I42" t="n">
-        <v>9.109999999999999</v>
+        <v>-4.38</v>
       </c>
       <c r="J42" t="n">
-        <v>131.42</v>
+        <v>-9.25</v>
       </c>
       <c r="K42" t="n">
-        <v>131.28</v>
+        <v>-9.08</v>
       </c>
       <c r="L42" t="n">
-        <v>12.99</v>
+        <v>-0.29</v>
       </c>
       <c r="M42" t="n">
-        <v>369.58</v>
+        <v>21.71</v>
       </c>
       <c r="N42" t="n">
-        <v>370.45</v>
+        <v>21.62</v>
       </c>
       <c r="O42" t="n">
-        <v>373.5</v>
+        <v>4.9</v>
       </c>
       <c r="P42" t="n">
-        <v>254</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.85450744628906</v>
-      </c>
-      <c r="C43" t="n">
-        <v>82.03619384765625</v>
-      </c>
+        <v>1226.126892089844</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>79.43000030517578</v>
+        <v>1332.300048828125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Industrial Minerals</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>29.6</v>
+        <v>7.11</v>
       </c>
       <c r="H43" t="n">
-        <v>23.6</v>
+        <v>16.3</v>
       </c>
       <c r="I43" t="n">
-        <v>19.33</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
-        <v>3.47</v>
+        <v>26.82</v>
       </c>
       <c r="K43" t="n">
-        <v>3.63</v>
+        <v>26.71</v>
       </c>
       <c r="L43" t="n">
-        <v>15.88</v>
+        <v>4.81</v>
       </c>
       <c r="M43" t="n">
-        <v>-6.54</v>
+        <v>4.15</v>
       </c>
       <c r="N43" t="n">
-        <v>-6.54</v>
+        <v>3.67</v>
       </c>
       <c r="O43" t="n">
-        <v>145.9</v>
+        <v>295.2</v>
       </c>
       <c r="P43" t="n">
-        <v>-2.5</v>
+        <v>-138</v>
       </c>
       <c r="Q43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IIFLCAPS</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.4500122070312</v>
+        <v>1579.466064453125</v>
       </c>
       <c r="C44" t="n">
-        <v>347.8999938964844</v>
+        <v>1742</v>
       </c>
       <c r="D44" t="n">
-        <v>325.1499938964844</v>
+        <v>1586.099975585938</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Textiles</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stockbroking &amp; Allied</t>
+          <t>Garments &amp; Apparels</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>33.3</v>
+        <v>22.1</v>
       </c>
       <c r="H44" t="n">
-        <v>31.6</v>
+        <v>24.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.45</v>
+        <v>-10.89</v>
       </c>
       <c r="J44" t="n">
-        <v>121.18</v>
+        <v>-27.78</v>
       </c>
       <c r="K44" t="n">
-        <v>120.96</v>
+        <v>-27.52</v>
       </c>
       <c r="L44" t="n">
-        <v>0.51</v>
+        <v>14.37</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.57</v>
+        <v>8.33</v>
       </c>
       <c r="N44" t="n">
-        <v>-5.5</v>
+        <v>-5.63</v>
       </c>
       <c r="O44" t="n">
-        <v>4.1</v>
+        <v>37.8</v>
       </c>
       <c r="P44" t="n">
-        <v>-6.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>MRPL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>249.2618865966797</v>
+        <v>172.4900054931641</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>267.3999938964844</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3036,173 +3432,173 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Oil Exploration &amp; Production</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>4.38</v>
       </c>
       <c r="H45" t="n">
-        <v>10.6</v>
+        <v>0.45</v>
       </c>
       <c r="I45" t="n">
-        <v>6.02</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>-5.3</v>
+        <v>131.42</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.12</v>
+        <v>131.28</v>
       </c>
       <c r="L45" t="n">
-        <v>0.13</v>
+        <v>12.99</v>
       </c>
       <c r="M45" t="n">
-        <v>22.56</v>
+        <v>369.58</v>
       </c>
       <c r="N45" t="n">
-        <v>16.72</v>
+        <v>370.45</v>
       </c>
       <c r="O45" t="n">
-        <v>-1248.1</v>
+        <v>373.5</v>
       </c>
       <c r="P45" t="n">
-        <v>815.7</v>
+        <v>254</v>
       </c>
       <c r="Q45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.3873596191406</v>
+        <v>74.85450744628906</v>
       </c>
       <c r="C46" t="n">
-        <v>268.1802368164062</v>
+        <v>82.03619384765625</v>
       </c>
       <c r="D46" t="n">
-        <v>259.2999877929688</v>
+        <v>79.43000030517578</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Industrial Minerals</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10.5</v>
+        <v>29.6</v>
       </c>
       <c r="H46" t="n">
-        <v>14.5</v>
+        <v>23.6</v>
       </c>
       <c r="I46" t="n">
-        <v>6.34</v>
+        <v>19.33</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.14</v>
+        <v>3.47</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="L46" t="n">
-        <v>0.73</v>
+        <v>15.88</v>
       </c>
       <c r="M46" t="n">
-        <v>4.02</v>
+        <v>-6.54</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.41</v>
+        <v>-6.54</v>
       </c>
       <c r="O46" t="n">
-        <v>40.6</v>
+        <v>145.9</v>
       </c>
       <c r="P46" t="n">
-        <v>31.3</v>
+        <v>-2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>915.0499877929688</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1023.849975585938</v>
-      </c>
+        <v>249.2618865966797</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>988</v>
+        <v>267.3999938964844</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Power Distribution</t>
+          <t>Oil Exploration &amp; Production</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="I47" t="n">
-        <v>2.03</v>
+        <v>6.02</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>-5.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>-7.12</v>
       </c>
       <c r="L47" t="n">
-        <v>15.44</v>
+        <v>0.13</v>
       </c>
       <c r="M47" t="n">
-        <v>-8.16</v>
+        <v>22.56</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.71</v>
+        <v>16.72</v>
       </c>
       <c r="O47" t="n">
-        <v>202.1</v>
+        <v>-1248.1</v>
       </c>
       <c r="P47" t="n">
-        <v>-25.9</v>
+        <v>815.7</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>IIFLCAPS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1719</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>322.4500122070312</v>
+      </c>
+      <c r="C48" t="n">
+        <v>347.8999938964844</v>
+      </c>
       <c r="D48" t="n">
-        <v>1824.900024414062</v>
+        <v>325.1499938964844</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3211,211 +3607,213 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Stockbroking &amp; Allied</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.130000000000001</v>
+        <v>33.3</v>
       </c>
       <c r="H48" t="n">
-        <v>7.26</v>
+        <v>31.6</v>
       </c>
       <c r="I48" t="n">
-        <v>45.62</v>
+        <v>2.45</v>
       </c>
       <c r="J48" t="n">
-        <v>650</v>
+        <v>121.18</v>
       </c>
       <c r="K48" t="n">
-        <v>783.33</v>
+        <v>120.96</v>
       </c>
       <c r="L48" t="n">
-        <v>59.8</v>
+        <v>0.51</v>
       </c>
       <c r="M48" t="n">
-        <v>-35.71</v>
+        <v>-4.57</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.57</v>
+        <v>-5.5</v>
       </c>
       <c r="O48" t="n">
-        <v>808.8</v>
+        <v>4.1</v>
       </c>
       <c r="P48" t="n">
-        <v>-8.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GRAPHITE</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>623.1500244140625</v>
+        <v>252.3873596191406</v>
       </c>
       <c r="C49" t="n">
-        <v>659.7000122070312</v>
+        <v>268.1802368164062</v>
       </c>
       <c r="D49" t="n">
-        <v>645.9000244140625</v>
+        <v>259.2999877929688</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Electrodes &amp; Refractories</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="I49" t="n">
-        <v>-11.93</v>
+        <v>6.34</v>
       </c>
       <c r="J49" t="n">
-        <v>-11.84</v>
+        <v>-0.14</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.68</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>22.75</v>
+        <v>0.73</v>
       </c>
       <c r="M49" t="n">
-        <v>-419.05</v>
+        <v>4.02</v>
       </c>
       <c r="N49" t="n">
-        <v>-441.18</v>
+        <v>-0.41</v>
       </c>
       <c r="O49" t="n">
-        <v>30.1</v>
+        <v>40.6</v>
       </c>
       <c r="P49" t="n">
-        <v>20.3</v>
+        <v>31.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GAEL</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>126.1989822387695</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>915.0499877929688</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1023.849975585938</v>
+      </c>
       <c r="D50" t="n">
-        <v>138.5399932861328</v>
+        <v>988</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Other Agricultural Products</t>
+          <t>Power Distribution</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.5</v>
+        <v>10.2</v>
       </c>
       <c r="H50" t="n">
-        <v>8.59</v>
+        <v>13.6</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2</v>
+        <v>2.03</v>
       </c>
       <c r="J50" t="n">
-        <v>73.68000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>73.48999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="L50" t="n">
-        <v>31.21</v>
+        <v>15.44</v>
       </c>
       <c r="M50" t="n">
-        <v>-7.04</v>
+        <v>-8.16</v>
       </c>
       <c r="N50" t="n">
-        <v>-7.69</v>
+        <v>-1.71</v>
       </c>
       <c r="O50" t="n">
-        <v>92.59999999999999</v>
+        <v>202.1</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.4</v>
+        <v>-25.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4163.39990234375</v>
+        <v>1719</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>4173.89990234375</v>
+        <v>1824.900024414062</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>14.5</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>16.6</v>
+        <v>7.26</v>
       </c>
       <c r="I51" t="n">
-        <v>5.1</v>
+        <v>45.62</v>
       </c>
       <c r="J51" t="n">
-        <v>-18.23</v>
+        <v>650</v>
       </c>
       <c r="K51" t="n">
-        <v>-18.11</v>
+        <v>783.33</v>
       </c>
       <c r="L51" t="n">
-        <v>10.49</v>
+        <v>59.8</v>
       </c>
       <c r="M51" t="n">
-        <v>-3.75</v>
+        <v>-35.71</v>
       </c>
       <c r="N51" t="n">
-        <v>-4.34</v>
+        <v>-34.57</v>
       </c>
       <c r="O51" t="n">
-        <v>715.6</v>
+        <v>808.8</v>
       </c>
       <c r="P51" t="n">
-        <v>-177.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -3424,363 +3822,363 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>GAEL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>201.9700012207031</v>
-      </c>
-      <c r="C52" t="n">
-        <v>222.5</v>
-      </c>
+        <v>126.1989822387695</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>206.75</v>
+        <v>138.5399932861328</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Other Agricultural Products</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>20.8</v>
+        <v>11.5</v>
       </c>
       <c r="H52" t="n">
-        <v>18.6</v>
+        <v>8.59</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.87</v>
+        <v>-0.2</v>
       </c>
       <c r="J52" t="n">
-        <v>-16.55</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.49</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="L52" t="n">
-        <v>27</v>
+        <v>31.21</v>
       </c>
       <c r="M52" t="n">
-        <v>-15.33</v>
+        <v>-7.04</v>
       </c>
       <c r="N52" t="n">
-        <v>-15.9</v>
+        <v>-7.69</v>
       </c>
       <c r="O52" t="n">
-        <v>42.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>-5.9</v>
+        <v>-0.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>847.8499755859375</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>623.1500244140625</v>
+      </c>
+      <c r="C53" t="n">
+        <v>659.7000122070312</v>
+      </c>
       <c r="D53" t="n">
-        <v>909</v>
+        <v>645.9000244140625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Electrodes &amp; Refractories</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>14.8</v>
+        <v>10.1</v>
       </c>
       <c r="H53" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7</v>
+        <v>-11.93</v>
       </c>
       <c r="J53" t="n">
-        <v>-56.78</v>
+        <v>-11.84</v>
       </c>
       <c r="K53" t="n">
-        <v>-56.78</v>
+        <v>-11.68</v>
       </c>
       <c r="L53" t="n">
-        <v>13.93</v>
+        <v>22.75</v>
       </c>
       <c r="M53" t="n">
-        <v>-45.14</v>
+        <v>-419.05</v>
       </c>
       <c r="N53" t="n">
-        <v>-45.13</v>
+        <v>-441.18</v>
       </c>
       <c r="O53" t="n">
-        <v>1743</v>
+        <v>30.1</v>
       </c>
       <c r="P53" t="n">
-        <v>-391.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>369.2000122070312</v>
-      </c>
-      <c r="C54" t="n">
-        <v>398.75</v>
-      </c>
+        <v>4163.39990234375</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>377.9500122070312</v>
+        <v>4173.89990234375</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.25</v>
+        <v>14.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.76</v>
+        <v>16.6</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.86</v>
+        <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>-139.1</v>
+        <v>-18.23</v>
       </c>
       <c r="K54" t="n">
-        <v>71.43000000000001</v>
+        <v>-18.11</v>
       </c>
       <c r="L54" t="n">
-        <v>9.210000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="M54" t="n">
-        <v>-164.2</v>
+        <v>-3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>414.29</v>
+        <v>-4.34</v>
       </c>
       <c r="O54" t="n">
-        <v>58.3</v>
+        <v>715.6</v>
       </c>
       <c r="P54" t="n">
-        <v>-59.2</v>
+        <v>-177.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1076.349975585938</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>201.9700012207031</v>
+      </c>
+      <c r="C55" t="n">
+        <v>222.5</v>
+      </c>
       <c r="D55" t="n">
-        <v>1184.699951171875</v>
+        <v>206.75</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.7</v>
+        <v>20.8</v>
       </c>
       <c r="H55" t="n">
-        <v>7.68</v>
+        <v>18.6</v>
       </c>
       <c r="I55" t="n">
-        <v>11.48</v>
+        <v>-1.87</v>
       </c>
       <c r="J55" t="n">
-        <v>-70.23999999999999</v>
+        <v>-16.55</v>
       </c>
       <c r="K55" t="n">
-        <v>-70.13</v>
+        <v>-16.49</v>
       </c>
       <c r="L55" t="n">
-        <v>10.86</v>
+        <v>27</v>
       </c>
       <c r="M55" t="n">
-        <v>-80.13</v>
+        <v>-15.33</v>
       </c>
       <c r="N55" t="n">
-        <v>-79.94</v>
+        <v>-15.9</v>
       </c>
       <c r="O55" t="n">
-        <v>105.5</v>
+        <v>42.5</v>
       </c>
       <c r="P55" t="n">
-        <v>-58.5</v>
+        <v>-5.9</v>
       </c>
       <c r="Q55" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>232.9400024414062</v>
-      </c>
-      <c r="C56" t="n">
-        <v>273.0499877929688</v>
-      </c>
+        <v>847.8499755859375</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>258.6499938964844</v>
+        <v>909</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel Products</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>23.2</v>
+        <v>14.8</v>
       </c>
       <c r="H56" t="n">
-        <v>17.2</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
-        <v>-12.92</v>
+        <v>0.7</v>
       </c>
       <c r="J56" t="n">
-        <v>-11.73</v>
+        <v>-56.78</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.2</v>
+        <v>-56.78</v>
       </c>
       <c r="L56" t="n">
-        <v>-12.25</v>
+        <v>13.93</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.38</v>
+        <v>-45.14</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.93</v>
+        <v>-45.13</v>
       </c>
       <c r="O56" t="n">
-        <v>-47.8</v>
+        <v>1743</v>
       </c>
       <c r="P56" t="n">
-        <v>-6.4</v>
+        <v>-391.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>290.1755676269531</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>369.2000122070312</v>
+      </c>
+      <c r="C57" t="n">
+        <v>398.75</v>
+      </c>
       <c r="D57" t="n">
-        <v>302.6499938964844</v>
+        <v>377.9500122070312</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>6.25</v>
       </c>
       <c r="H57" t="n">
-        <v>10.1</v>
+        <v>4.76</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>-2.86</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>-139.1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>-164.2</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>414.29</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>-59.2</v>
       </c>
       <c r="Q57" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1226.126892089844</v>
+        <v>290.1755676269531</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>1332.300048828125</v>
+        <v>302.6499938964844</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3789,287 +4187,289 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.11</v>
+        <v>11</v>
       </c>
       <c r="H58" t="n">
-        <v>16.3</v>
+        <v>10.1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>-8.09</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>-14.03</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>-14.41</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>-46.8</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>IDBI</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>398.7000122070312</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>103.8000030517578</v>
+      </c>
+      <c r="C59" t="n">
+        <v>114.7300033569336</v>
+      </c>
       <c r="D59" t="n">
-        <v>442.3500061035156</v>
+        <v>110.75</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>-5.49</v>
+        <v>6.78</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.83</v>
+        <v>13.6</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.25</v>
+        <v>-0.41</v>
       </c>
       <c r="J59" t="n">
-        <v>-130.31</v>
+        <v>-39.56</v>
       </c>
       <c r="K59" t="n">
-        <v>-132.14</v>
+        <v>-39.33</v>
       </c>
       <c r="L59" t="n">
-        <v>18.56</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="M59" t="n">
-        <v>-102.25</v>
+        <v>0.26</v>
       </c>
       <c r="N59" t="n">
-        <v>-102.28</v>
+        <v>0.55</v>
       </c>
       <c r="O59" t="n">
-        <v>26.86</v>
+        <v>-135.2</v>
       </c>
       <c r="P59" t="n">
-        <v>-25.18</v>
+        <v>115.7</v>
       </c>
       <c r="Q59" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>117.8099975585938</v>
+        <v>1076.349975585938</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>118.7600021362305</v>
+        <v>1184.699951171875</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.32</v>
+        <v>10.7</v>
       </c>
       <c r="H60" t="n">
-        <v>15.2</v>
+        <v>7.68</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>-70.23999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-70.13</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>-80.13</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>-79.94</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>-58.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>103.8000030517578</v>
+        <v>232.9400024414062</v>
       </c>
       <c r="C61" t="n">
-        <v>114.7300033569336</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="D61" t="n">
-        <v>110.75</v>
+        <v>258.6499938964844</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Iron &amp; Steel Products</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.78</v>
+        <v>23.2</v>
       </c>
       <c r="H61" t="n">
-        <v>13.6</v>
+        <v>17.2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-12.92</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>-11.73</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-11.2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>-12.25</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>-47.8</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>-6.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>77.62592315673828</v>
-      </c>
-      <c r="C62" t="n">
-        <v>81.76999664306641</v>
-      </c>
+        <v>398.7000122070312</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>81.54000091552734</v>
+        <v>442.3500061035156</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.22</v>
+        <v>-5.49</v>
       </c>
       <c r="H62" t="n">
-        <v>4.21</v>
+        <v>-8.83</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-130.31</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-132.14</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>18.56</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>-102.25</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>-102.28</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>26.86</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>-25.18</v>
       </c>
       <c r="Q62" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>CANFINHOME</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1854.799987792969</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>810.806884765625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>940.4000244140625</v>
+      </c>
       <c r="D63" t="n">
-        <v>2034.199951171875</v>
+        <v>884.25</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4078,7 +4478,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Housing Finance Company</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -4118,24 +4518,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>DCBBANK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3389.300048828125</v>
+        <v>186.0700073242188</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>3581.60009765625</v>
+        <v>190.0299987792969</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gems, Jewellery And Watches</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -4175,24 +4575,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DCBBANK</t>
+          <t>THANGAMAYL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>186.0700073242188</v>
+        <v>3389.300048828125</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>190.0299987792969</v>
+        <v>3581.60009765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Gems, Jewellery And Watches</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -4232,17 +4632,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CANFINHOME</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>810.806884765625</v>
-      </c>
-      <c r="C66" t="n">
-        <v>940.4000244140625</v>
-      </c>
+        <v>1854.799987792969</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>884.25</v>
+        <v>2034.199951171875</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4251,7 +4649,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Housing Finance Company</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -4293,7 +4691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4397,55 +4795,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.2373352050781</v>
+        <v>20169.470703125</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>592.8499755859375</v>
+        <v>23843</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>72.90000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="I2" t="n">
-        <v>28.44</v>
+        <v>2.31</v>
       </c>
       <c r="J2" t="n">
-        <v>47.83</v>
+        <v>15.67</v>
       </c>
       <c r="K2" t="n">
-        <v>47.85</v>
+        <v>15.81</v>
       </c>
       <c r="L2" t="n">
-        <v>27.47</v>
+        <v>12.71</v>
       </c>
       <c r="M2" t="n">
-        <v>46.23</v>
+        <v>253.04</v>
       </c>
       <c r="N2" t="n">
-        <v>46.21</v>
+        <v>252.2</v>
       </c>
       <c r="O2" t="n">
-        <v>419.4</v>
+        <v>20.5</v>
       </c>
       <c r="P2" t="n">
-        <v>212.2</v>
+        <v>49.8</v>
       </c>
       <c r="Q2" t="n">
         <v>20</v>
@@ -4454,55 +4852,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FORCEMOT</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20169.470703125</v>
+        <v>502.2373352050781</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>23843</v>
+        <v>592.8499755859375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Zinc</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>20.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>2.31</v>
+        <v>28.44</v>
       </c>
       <c r="J3" t="n">
-        <v>15.67</v>
+        <v>47.83</v>
       </c>
       <c r="K3" t="n">
-        <v>15.81</v>
+        <v>47.85</v>
       </c>
       <c r="L3" t="n">
-        <v>12.71</v>
+        <v>27.47</v>
       </c>
       <c r="M3" t="n">
-        <v>253.04</v>
+        <v>46.23</v>
       </c>
       <c r="N3" t="n">
-        <v>252.2</v>
+        <v>46.21</v>
       </c>
       <c r="O3" t="n">
-        <v>20.5</v>
+        <v>419.4</v>
       </c>
       <c r="P3" t="n">
-        <v>49.8</v>
+        <v>212.2</v>
       </c>
       <c r="Q3" t="n">
         <v>20</v>
@@ -4798,57 +5196,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3172.958251953125</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3802.39990234375</v>
-      </c>
+        <v>2662.800048828125</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3533.39990234375</v>
+        <v>3586.10009765625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12.43</v>
       </c>
       <c r="J9" t="n">
-        <v>26.66</v>
+        <v>17.04</v>
       </c>
       <c r="K9" t="n">
-        <v>27.25</v>
+        <v>15.84</v>
       </c>
       <c r="L9" t="n">
-        <v>25.63</v>
+        <v>57.76</v>
       </c>
       <c r="M9" t="n">
-        <v>38.55</v>
+        <v>102.8</v>
       </c>
       <c r="N9" t="n">
-        <v>46.95</v>
+        <v>101.85</v>
       </c>
       <c r="O9" t="n">
-        <v>2476.7</v>
+        <v>765.7</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6</v>
+        <v>383</v>
       </c>
       <c r="Q9" t="n">
         <v>17</v>
@@ -4857,58 +5253,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GESHIP</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1124.890014648438</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>3172.958251953125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3802.39990234375</v>
+      </c>
       <c r="D10" t="n">
-        <v>1300.099975585938</v>
+        <v>3533.39990234375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>13.9</v>
       </c>
       <c r="H10" t="n">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>17.07</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>39.93</v>
+        <v>26.66</v>
       </c>
       <c r="K10" t="n">
-        <v>39.76</v>
+        <v>27.25</v>
       </c>
       <c r="L10" t="n">
-        <v>17.54</v>
+        <v>25.63</v>
       </c>
       <c r="M10" t="n">
-        <v>36.87</v>
+        <v>38.55</v>
       </c>
       <c r="N10" t="n">
-        <v>36.87</v>
+        <v>46.95</v>
       </c>
       <c r="O10" t="n">
-        <v>45.3</v>
+        <v>2476.7</v>
       </c>
       <c r="P10" t="n">
-        <v>65.59999999999999</v>
+        <v>321.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -4973,55 +5371,55 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>GESHIP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.4774322509766</v>
+        <v>1124.890014648438</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>673.6500244140625</v>
+        <v>1300.099975585938</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Diversified Metals</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25.3</v>
+        <v>13.9</v>
       </c>
       <c r="H12" t="n">
-        <v>38.5</v>
+        <v>14.1</v>
       </c>
       <c r="I12" t="n">
-        <v>24.65</v>
+        <v>17.07</v>
       </c>
       <c r="J12" t="n">
-        <v>124.4</v>
+        <v>39.93</v>
       </c>
       <c r="K12" t="n">
-        <v>217.39</v>
+        <v>39.76</v>
       </c>
       <c r="L12" t="n">
-        <v>36.96</v>
+        <v>17.54</v>
       </c>
       <c r="M12" t="n">
-        <v>60.11</v>
+        <v>36.87</v>
       </c>
       <c r="N12" t="n">
-        <v>60.97</v>
+        <v>36.87</v>
       </c>
       <c r="O12" t="n">
-        <v>-909.6</v>
+        <v>45.3</v>
       </c>
       <c r="P12" t="n">
-        <v>438</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="Q12" t="n">
         <v>16</v>
@@ -5030,74 +5428,74 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NAVINFLUOR</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5046.4501953125</v>
+        <v>445.4774322509766</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>6304</v>
+        <v>673.6500244140625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Diversified Metals</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>11.7</v>
+        <v>25.3</v>
       </c>
       <c r="H13" t="n">
-        <v>11.5</v>
+        <v>38.5</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68</v>
+        <v>24.65</v>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>124.4</v>
       </c>
       <c r="K13" t="n">
-        <v>24.93</v>
+        <v>217.39</v>
       </c>
       <c r="L13" t="n">
-        <v>47.19</v>
+        <v>36.96</v>
       </c>
       <c r="M13" t="n">
-        <v>120.24</v>
+        <v>60.11</v>
       </c>
       <c r="N13" t="n">
-        <v>114.59</v>
+        <v>60.97</v>
       </c>
       <c r="O13" t="n">
-        <v>62.9</v>
+        <v>-909.6</v>
       </c>
       <c r="P13" t="n">
-        <v>25.5</v>
+        <v>438</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.0499877929688</v>
+        <v>205.6300048828125</v>
       </c>
       <c r="C14" t="n">
-        <v>362.9500122070312</v>
+        <v>319.75</v>
       </c>
       <c r="D14" t="n">
-        <v>336.2000122070312</v>
+        <v>285.1000061035156</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5106,38 +5504,38 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Investment Company</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9.33</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="I14" t="n">
-        <v>12.81</v>
+        <v>5.58</v>
       </c>
       <c r="J14" t="n">
-        <v>9.52</v>
+        <v>0.41</v>
       </c>
       <c r="K14" t="n">
-        <v>10.4</v>
+        <v>0.34</v>
       </c>
       <c r="L14" t="n">
-        <v>27.41</v>
+        <v>11.71</v>
       </c>
       <c r="M14" t="n">
-        <v>33.43</v>
+        <v>17.89</v>
       </c>
       <c r="N14" t="n">
-        <v>32.72</v>
+        <v>17.53</v>
       </c>
       <c r="O14" t="n">
-        <v>352.3</v>
+        <v>127.3</v>
       </c>
       <c r="P14" t="n">
-        <v>48</v>
+        <v>32.3</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -5146,1000 +5544,990 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>NAVINFLUOR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140.9739074707031</v>
+        <v>5046.4501953125</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>204.6300048828125</v>
+        <v>6304</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Commercial Vehicles</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>14.3</v>
+        <v>11.7</v>
       </c>
       <c r="H15" t="n">
-        <v>28.8</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>17.91</v>
+        <v>17.68</v>
       </c>
       <c r="J15" t="n">
-        <v>5.12</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>6.98</v>
+        <v>24.93</v>
       </c>
       <c r="L15" t="n">
-        <v>23.63</v>
+        <v>47.19</v>
       </c>
       <c r="M15" t="n">
-        <v>5.12</v>
+        <v>120.24</v>
       </c>
       <c r="N15" t="n">
-        <v>6.15</v>
+        <v>114.59</v>
       </c>
       <c r="O15" t="n">
-        <v>355.1</v>
+        <v>62.9</v>
       </c>
       <c r="P15" t="n">
-        <v>-34.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>MAHABANK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.1710205078125</v>
-      </c>
-      <c r="C16" t="n">
-        <v>683.0499877929688</v>
-      </c>
+        <v>58.72708129882812</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>633.4500122070312</v>
+        <v>65.44000244140625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>22.9</v>
+        <v>5.72</v>
       </c>
       <c r="H16" t="n">
-        <v>17.6</v>
+        <v>22.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.38</v>
+        <v>7.83</v>
       </c>
       <c r="L16" t="n">
-        <v>63.88</v>
+        <v>16.11</v>
       </c>
       <c r="M16" t="n">
-        <v>56.1</v>
+        <v>27.41</v>
       </c>
       <c r="N16" t="n">
-        <v>53.82</v>
+        <v>27.17</v>
       </c>
       <c r="O16" t="n">
-        <v>104.8</v>
+        <v>243.5</v>
       </c>
       <c r="P16" t="n">
-        <v>7.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MTARTECH</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2626.60009765625</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>275.0499877929688</v>
+      </c>
+      <c r="C17" t="n">
+        <v>362.9500122070312</v>
+      </c>
       <c r="D17" t="n">
-        <v>3586.5</v>
+        <v>336.2000122070312</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Investment Company</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K17" t="n">
         <v>10.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="I17" t="n">
-        <v>104.41</v>
-      </c>
-      <c r="J17" t="n">
-        <v>775</v>
-      </c>
-      <c r="K17" t="n">
-        <v>717.39</v>
-      </c>
       <c r="L17" t="n">
-        <v>59.77</v>
+        <v>27.41</v>
       </c>
       <c r="M17" t="n">
-        <v>118.75</v>
+        <v>33.43</v>
       </c>
       <c r="N17" t="n">
-        <v>117.34</v>
+        <v>32.72</v>
       </c>
       <c r="O17" t="n">
-        <v>16.1</v>
+        <v>352.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.8</v>
+        <v>48</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SHRIPISTON</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2728.701171875</v>
+        <v>778.4500122070312</v>
       </c>
       <c r="C18" t="n">
-        <v>3291.772705078125</v>
+        <v>873.9500122070312</v>
       </c>
       <c r="D18" t="n">
-        <v>3084</v>
+        <v>873.7000122070312</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>25.7</v>
+        <v>6.38</v>
       </c>
       <c r="H18" t="n">
-        <v>23.2</v>
+        <v>17.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="J18" t="n">
-        <v>-11.27</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="n">
-        <v>-12.09</v>
+        <v>1.26</v>
       </c>
       <c r="L18" t="n">
-        <v>20.64</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>4.13</v>
+        <v>8.18</v>
       </c>
       <c r="N18" t="n">
-        <v>2.65</v>
+        <v>8.15</v>
       </c>
       <c r="O18" t="n">
-        <v>37.8</v>
+        <v>343.2</v>
       </c>
       <c r="P18" t="n">
-        <v>-0</v>
+        <v>60.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.9459075927734</v>
-      </c>
-      <c r="C19" t="n">
-        <v>193.6100006103516</v>
-      </c>
+        <v>245.4449996948242</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>177.1600036621094</v>
+        <v>287.4500122070312</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>23.3</v>
+        <v>6.29</v>
       </c>
       <c r="H19" t="n">
-        <v>17.1</v>
+        <v>15.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.34</v>
+        <v>0.85</v>
       </c>
       <c r="J19" t="n">
-        <v>-32.92</v>
+        <v>6.18</v>
       </c>
       <c r="K19" t="n">
-        <v>-32.83</v>
+        <v>6.04</v>
       </c>
       <c r="L19" t="n">
-        <v>11.03</v>
+        <v>3.16</v>
       </c>
       <c r="M19" t="n">
-        <v>9.09</v>
+        <v>4.78</v>
       </c>
       <c r="N19" t="n">
-        <v>8.25</v>
+        <v>4.46</v>
       </c>
       <c r="O19" t="n">
-        <v>10.5</v>
+        <v>255.8</v>
       </c>
       <c r="P19" t="n">
-        <v>6.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.2140960693359</v>
+        <v>140.9739074707031</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>349.2999877929688</v>
+        <v>204.6300048828125</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Commercial Vehicles</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>44</v>
+        <v>14.3</v>
       </c>
       <c r="H20" t="n">
-        <v>32.7</v>
+        <v>28.8</v>
       </c>
       <c r="I20" t="n">
-        <v>10.23</v>
+        <v>17.91</v>
       </c>
       <c r="J20" t="n">
-        <v>11.54</v>
+        <v>5.12</v>
       </c>
       <c r="K20" t="n">
-        <v>11.55</v>
+        <v>6.98</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>23.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.85</v>
+        <v>5.12</v>
       </c>
       <c r="N20" t="n">
-        <v>1.88</v>
+        <v>6.15</v>
       </c>
       <c r="O20" t="n">
-        <v>-83.8</v>
+        <v>355.1</v>
       </c>
       <c r="P20" t="n">
-        <v>-57.9</v>
+        <v>-34.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AVANTIFEED</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3240966796875</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>538.1710205078125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>683.0499877929688</v>
+      </c>
       <c r="D21" t="n">
-        <v>1424.349975585938</v>
+        <v>633.4500122070312</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fast Moving Consumer Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Animal Feed</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="H21" t="n">
-        <v>19.5</v>
+        <v>17.6</v>
       </c>
       <c r="I21" t="n">
-        <v>-13.98</v>
+        <v>3.18</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.55</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.58</v>
+        <v>-0.38</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>63.88</v>
       </c>
       <c r="M21" t="n">
-        <v>15.6</v>
+        <v>56.1</v>
       </c>
       <c r="N21" t="n">
-        <v>10.48</v>
+        <v>53.82</v>
       </c>
       <c r="O21" t="n">
-        <v>26.3</v>
+        <v>104.8</v>
       </c>
       <c r="P21" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>343.9984436035156</v>
+        <v>813.0499877929688</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>591.6500244140625</v>
+        <v>1198.599975585938</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>23.7</v>
+        <v>6.47</v>
       </c>
       <c r="H22" t="n">
-        <v>18.6</v>
+        <v>17.2</v>
       </c>
       <c r="I22" t="n">
-        <v>-4.32</v>
+        <v>1.99</v>
       </c>
       <c r="J22" t="n">
-        <v>-15.22</v>
+        <v>1.44</v>
       </c>
       <c r="K22" t="n">
-        <v>-14.74</v>
+        <v>0.83</v>
       </c>
       <c r="L22" t="n">
-        <v>109.45</v>
+        <v>4.76</v>
       </c>
       <c r="M22" t="n">
-        <v>147.62</v>
+        <v>13.82</v>
       </c>
       <c r="N22" t="n">
-        <v>149.23</v>
+        <v>9.33</v>
       </c>
       <c r="O22" t="n">
-        <v>70.5</v>
+        <v>1291.5</v>
       </c>
       <c r="P22" t="n">
-        <v>18.3</v>
+        <v>686.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SANSERA</t>
+          <t>MTARTECH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1871</v>
+        <v>2626.60009765625</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>2248.89990234375</v>
+        <v>3586.5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>7.39</v>
       </c>
       <c r="I23" t="n">
-        <v>10.06</v>
+        <v>104.41</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.82</v>
+        <v>775</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.42</v>
+        <v>717.39</v>
       </c>
       <c r="L23" t="n">
-        <v>24.73</v>
+        <v>59.77</v>
       </c>
       <c r="M23" t="n">
-        <v>23.21</v>
+        <v>118.75</v>
       </c>
       <c r="N23" t="n">
-        <v>22.8</v>
+        <v>117.34</v>
       </c>
       <c r="O23" t="n">
-        <v>40.3</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JKTYRE</t>
+          <t>SOUTHBANK</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>379.6864624023438</v>
+        <v>30.26901626586914</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>587.9500122070312</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tyres &amp; Rubber Products</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12.8</v>
+        <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>11.1</v>
+        <v>13.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.29</v>
+        <v>4.61</v>
       </c>
       <c r="J24" t="n">
-        <v>-8.369999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.92</v>
+        <v>6.72</v>
       </c>
       <c r="L24" t="n">
-        <v>14.94</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>292.45</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>275.52</v>
+        <v>9.16</v>
       </c>
       <c r="O24" t="n">
-        <v>135</v>
+        <v>32.8</v>
       </c>
       <c r="P24" t="n">
-        <v>43.8</v>
+        <v>7.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1314.5</v>
+        <v>214.0243988037109</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>1738.800048828125</v>
+        <v>288.2999877929688</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Automobile and Auto Components</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>7.03</v>
       </c>
       <c r="H25" t="n">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
       <c r="I25" t="n">
-        <v>7.71</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>-8.699999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.66</v>
+        <v>10.17</v>
       </c>
       <c r="L25" t="n">
-        <v>24.94</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>28.17</v>
+        <v>18.3</v>
       </c>
       <c r="N25" t="n">
-        <v>24.27</v>
+        <v>15.32</v>
       </c>
       <c r="O25" t="n">
-        <v>191.3</v>
+        <v>29.8</v>
       </c>
       <c r="P25" t="n">
-        <v>13.6</v>
+        <v>25.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHARDACROP</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1094.9228515625</v>
+        <v>139.7700042724609</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>1256</v>
+        <v>161.7899932861328</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pesticides &amp; Agrochemicals</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>16.5</v>
+        <v>6.17</v>
       </c>
       <c r="H26" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="I26" t="n">
-        <v>38.75</v>
+        <v>2.87</v>
       </c>
       <c r="J26" t="n">
-        <v>95.95</v>
+        <v>9.24</v>
       </c>
       <c r="K26" t="n">
-        <v>95.27</v>
+        <v>9.19</v>
       </c>
       <c r="L26" t="n">
-        <v>38.75</v>
+        <v>4.01</v>
       </c>
       <c r="M26" t="n">
-        <v>367.74</v>
+        <v>6.67</v>
       </c>
       <c r="N26" t="n">
-        <v>366.38</v>
+        <v>6.74</v>
       </c>
       <c r="O26" t="n">
-        <v>-18</v>
+        <v>151.2</v>
       </c>
       <c r="P26" t="n">
-        <v>9.800000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DYNAMATECH</t>
+          <t>JKTYRE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7262.255859375</v>
-      </c>
-      <c r="C27" t="n">
-        <v>9574.064453125</v>
-      </c>
+        <v>379.6864624023438</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>9446.5</v>
+        <v>587.9500122070312</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Tyres &amp; Rubber Products</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.960000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="H27" t="n">
-        <v>6.21</v>
+        <v>11.1</v>
       </c>
       <c r="I27" t="n">
-        <v>8.279999999999999</v>
+        <v>5.29</v>
       </c>
       <c r="J27" t="n">
-        <v>74.31999999999999</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>74.33</v>
+        <v>-12.92</v>
       </c>
       <c r="L27" t="n">
-        <v>34.7</v>
+        <v>14.94</v>
       </c>
       <c r="M27" t="n">
-        <v>63.46</v>
+        <v>292.45</v>
       </c>
       <c r="N27" t="n">
-        <v>63.38</v>
+        <v>275.52</v>
       </c>
       <c r="O27" t="n">
-        <v>23.06</v>
+        <v>135</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.83</v>
+        <v>43.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>773.69140625</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1029</v>
-      </c>
+        <v>186.2140960693359</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>879</v>
+        <v>349.2999877929688</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>44</v>
       </c>
       <c r="H28" t="n">
-        <v>2.51</v>
+        <v>32.7</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.94</v>
+        <v>10.23</v>
       </c>
       <c r="J28" t="n">
-        <v>39.36</v>
+        <v>11.54</v>
       </c>
       <c r="K28" t="n">
-        <v>39.25</v>
+        <v>11.55</v>
       </c>
       <c r="L28" t="n">
-        <v>21.34</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>4671.43</v>
+        <v>1.85</v>
       </c>
       <c r="N28" t="n">
-        <v>4704.29</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
-        <v>459.4</v>
+        <v>-83.8</v>
       </c>
       <c r="P28" t="n">
-        <v>221.1</v>
+        <v>-57.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RAMCOCEM</t>
+          <t>SHARDACROP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>985.0249938964844</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1152.611206054688</v>
-      </c>
+        <v>1094.9228515625</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1144.699951171875</v>
+        <v>1256</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Pesticides &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.77</v>
+        <v>16.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.42</v>
+        <v>12.6</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.94</v>
+        <v>38.75</v>
       </c>
       <c r="J29" t="n">
-        <v>394.87</v>
+        <v>95.95</v>
       </c>
       <c r="K29" t="n">
-        <v>399.08</v>
+        <v>95.27</v>
       </c>
       <c r="L29" t="n">
-        <v>6.2</v>
+        <v>38.75</v>
       </c>
       <c r="M29" t="n">
-        <v>112.09</v>
+        <v>367.74</v>
       </c>
       <c r="N29" t="n">
-        <v>111.4</v>
+        <v>366.38</v>
       </c>
       <c r="O29" t="n">
-        <v>8.800000000000001</v>
+        <v>-18</v>
       </c>
       <c r="P29" t="n">
-        <v>46</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>AVANTIFEED</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>182.8399963378906</v>
+        <v>921.3240966796875</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>203.1799926757812</v>
+        <v>1424.349975585938</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Fast Moving Consumer Goods</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Animal Feed</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.83</v>
+        <v>24</v>
       </c>
       <c r="H30" t="n">
-        <v>3.89</v>
+        <v>19.5</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.87</v>
+        <v>-13.98</v>
       </c>
       <c r="J30" t="n">
-        <v>-14.23</v>
+        <v>-3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>-13.31</v>
+        <v>-2.58</v>
       </c>
       <c r="L30" t="n">
-        <v>6.25</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
-        <v>825.42</v>
+        <v>15.6</v>
       </c>
       <c r="N30" t="n">
-        <v>726.92</v>
+        <v>10.48</v>
       </c>
       <c r="O30" t="n">
-        <v>917.9</v>
+        <v>26.3</v>
       </c>
       <c r="P30" t="n">
-        <v>685.2</v>
+        <v>5.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PTCIL</t>
+          <t>SANSERA</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15425</v>
-      </c>
-      <c r="C31" t="n">
-        <v>18875</v>
-      </c>
+        <v>1871</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>18384</v>
+        <v>2248.89990234375</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Other Industrial Products</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7.74</v>
+        <v>13.4</v>
       </c>
       <c r="H31" t="n">
-        <v>6.07</v>
+        <v>10.5</v>
       </c>
       <c r="I31" t="n">
-        <v>28.87</v>
+        <v>10.06</v>
       </c>
       <c r="J31" t="n">
-        <v>260</v>
+        <v>-2.82</v>
       </c>
       <c r="K31" t="n">
-        <v>252.03</v>
+        <v>-4.42</v>
       </c>
       <c r="L31" t="n">
-        <v>73.61</v>
+        <v>24.73</v>
       </c>
       <c r="M31" t="n">
-        <v>5.88</v>
+        <v>23.21</v>
       </c>
       <c r="N31" t="n">
-        <v>4.76</v>
+        <v>22.8</v>
       </c>
       <c r="O31" t="n">
-        <v>13.6</v>
+        <v>40.3</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>488.8999938964844</v>
-      </c>
-      <c r="C32" t="n">
-        <v>613.0999755859375</v>
-      </c>
+        <v>343.9984436035156</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>571.0999755859375</v>
+        <v>591.6500244140625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6148,57 +6536,57 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Industrial Minerals</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14.1</v>
+        <v>23.7</v>
       </c>
       <c r="H32" t="n">
-        <v>10.9</v>
+        <v>18.6</v>
       </c>
       <c r="I32" t="n">
-        <v>-27.97</v>
+        <v>-4.32</v>
       </c>
       <c r="J32" t="n">
-        <v>184.15</v>
+        <v>-15.22</v>
       </c>
       <c r="K32" t="n">
-        <v>184.47</v>
+        <v>-14.74</v>
       </c>
       <c r="L32" t="n">
-        <v>-10.96</v>
+        <v>109.45</v>
       </c>
       <c r="M32" t="n">
-        <v>264.06</v>
+        <v>147.62</v>
       </c>
       <c r="N32" t="n">
-        <v>264.43</v>
+        <v>149.23</v>
       </c>
       <c r="O32" t="n">
-        <v>-5</v>
+        <v>70.5</v>
       </c>
       <c r="P32" t="n">
-        <v>69.2</v>
+        <v>18.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLACKBUCK</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.5</v>
+        <v>153.9459075927734</v>
       </c>
       <c r="C33" t="n">
-        <v>644.2000122070312</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D33" t="n">
-        <v>634.9000244140625</v>
+        <v>177.1600036621094</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6207,57 +6595,57 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Transport Related Services</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-32.92</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-32.83</v>
+      </c>
+      <c r="L33" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O33" t="n">
         <v>10.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L33" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-166.67</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-164.34</v>
-      </c>
-      <c r="O33" t="n">
-        <v>14.5</v>
-      </c>
       <c r="P33" t="n">
-        <v>-9.1</v>
+        <v>6.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>SHRIPISTON</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.680908203125</v>
+        <v>2728.701171875</v>
       </c>
       <c r="C34" t="n">
-        <v>1027.099975585938</v>
+        <v>3291.772705078125</v>
       </c>
       <c r="D34" t="n">
-        <v>958.0999755859375</v>
+        <v>3084</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6270,690 +6658,692 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>12.4</v>
+        <v>25.7</v>
       </c>
       <c r="H34" t="n">
-        <v>13.6</v>
+        <v>23.2</v>
       </c>
       <c r="I34" t="n">
-        <v>9.119999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>70.69</v>
+        <v>-11.27</v>
       </c>
       <c r="K34" t="n">
-        <v>75.68000000000001</v>
+        <v>-12.09</v>
       </c>
       <c r="L34" t="n">
-        <v>11.74</v>
+        <v>20.64</v>
       </c>
       <c r="M34" t="n">
-        <v>-5.71</v>
+        <v>4.13</v>
       </c>
       <c r="N34" t="n">
-        <v>-10.14</v>
+        <v>2.65</v>
       </c>
       <c r="O34" t="n">
-        <v>23.5</v>
+        <v>37.8</v>
       </c>
       <c r="P34" t="n">
-        <v>-4.6</v>
+        <v>-0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.9900054931641</v>
+        <v>1314.5</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>159.2799987792969</v>
+        <v>1738.800048828125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.76</v>
+        <v>12.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.54</v>
+        <v>11.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5</v>
+        <v>7.71</v>
       </c>
       <c r="J35" t="n">
-        <v>-10.74</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.9</v>
+        <v>-11.66</v>
       </c>
       <c r="L35" t="n">
-        <v>11.76</v>
+        <v>24.94</v>
       </c>
       <c r="M35" t="n">
-        <v>163.38</v>
+        <v>28.17</v>
       </c>
       <c r="N35" t="n">
-        <v>167.65</v>
+        <v>24.27</v>
       </c>
       <c r="O35" t="n">
-        <v>315</v>
+        <v>191.3</v>
       </c>
       <c r="P35" t="n">
-        <v>-36.8</v>
+        <v>13.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3009.645263671875</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4579.376953125</v>
-      </c>
+        <v>114.4499969482422</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>4412.39990234375</v>
+        <v>141.7700042724609</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Compressors, Pumps &amp; Diesel Engines</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>36.3</v>
+        <v>6.79</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2</v>
+        <v>17.8</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.63</v>
+        <v>-3.54</v>
       </c>
       <c r="J36" t="n">
-        <v>-21.86</v>
+        <v>5.68</v>
       </c>
       <c r="K36" t="n">
-        <v>-21.92</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.32</v>
+        <v>0.61</v>
       </c>
       <c r="M36" t="n">
-        <v>-12.9</v>
+        <v>21.57</v>
       </c>
       <c r="N36" t="n">
-        <v>-13</v>
+        <v>24.52</v>
       </c>
       <c r="O36" t="n">
-        <v>61.8</v>
+        <v>95</v>
       </c>
       <c r="P36" t="n">
-        <v>-5.2</v>
+        <v>162.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.600000381469727</v>
+        <v>263.2029113769531</v>
       </c>
       <c r="C37" t="n">
-        <v>11.96000003814697</v>
+        <v>328.25</v>
       </c>
       <c r="D37" t="n">
-        <v>11.30000019073486</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Telecommunication</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Telecom - Cellular &amp; Fixed line services</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-1.93</v>
+        <v>6.06</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="I37" t="n">
-        <v>1.14</v>
+        <v>4.53</v>
       </c>
       <c r="J37" t="n">
-        <v>-4.31</v>
+        <v>18.75</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.92</v>
+        <v>17.52</v>
       </c>
       <c r="L37" t="n">
-        <v>1.85</v>
+        <v>3.68</v>
       </c>
       <c r="M37" t="n">
-        <v>-20.02</v>
+        <v>385.11</v>
       </c>
       <c r="N37" t="n">
-        <v>-48.42</v>
+        <v>373.08</v>
       </c>
       <c r="O37" t="n">
-        <v>59.3</v>
+        <v>29.1</v>
       </c>
       <c r="P37" t="n">
-        <v>428.8</v>
+        <v>46.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>-4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ADANIPOWER</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>120.7900009155273</v>
-      </c>
-      <c r="C38" t="n">
-        <v>167.7200012207031</v>
-      </c>
+        <v>150.2200012207031</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>139.8999938964844</v>
+        <v>178.8699951171875</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Integrated Power Utilities</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>22.5</v>
+        <v>6.72</v>
       </c>
       <c r="H38" t="n">
-        <v>26.1</v>
+        <v>17</v>
       </c>
       <c r="I38" t="n">
-        <v>-7.48</v>
+        <v>2.34</v>
       </c>
       <c r="J38" t="n">
-        <v>-14.38</v>
+        <v>14.62</v>
       </c>
       <c r="K38" t="n">
-        <v>-15.69</v>
+        <v>14.66</v>
       </c>
       <c r="L38" t="n">
-        <v>-8.92</v>
+        <v>0.37</v>
       </c>
       <c r="M38" t="n">
-        <v>-15.37</v>
+        <v>9.73</v>
       </c>
       <c r="N38" t="n">
-        <v>-18.87</v>
+        <v>9.74</v>
       </c>
       <c r="O38" t="n">
-        <v>-322</v>
+        <v>-146.6</v>
       </c>
       <c r="P38" t="n">
-        <v>-59.7</v>
+        <v>31.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>-7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>DYNAMATECH</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>821</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>7262.255859375</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9574.064453125</v>
+      </c>
       <c r="D39" t="n">
-        <v>994.9000244140625</v>
+        <v>9446.5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Other Bank</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>12.4</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>22.3</v>
+        <v>6.21</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>74.33</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>63.46</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>63.38</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>23.06</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
       <c r="Q39" t="n">
-        <v>-8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2662.800048828125</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>985.0249938964844</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1152.611206054688</v>
+      </c>
       <c r="D40" t="n">
-        <v>3586.10009765625</v>
+        <v>1144.699951171875</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>13.2</v>
+        <v>4.77</v>
       </c>
       <c r="H40" t="n">
-        <v>19.6</v>
+        <v>1.42</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-5.94</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>394.87</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>399.08</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>112.09</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.4</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q40" t="n">
-        <v>-9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>PTCIL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>692.6035766601562</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>15425</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18875</v>
+      </c>
       <c r="D41" t="n">
-        <v>1065.800048828125</v>
+        <v>18384</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Other Industrial Products</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>7.74</v>
       </c>
       <c r="H41" t="n">
-        <v>15.6</v>
+        <v>6.07</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>252.03</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>73.61</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>205.6300048828125</v>
-      </c>
-      <c r="C42" t="n">
-        <v>319.75</v>
-      </c>
+        <v>182.8399963378906</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>285.1000061035156</v>
+        <v>203.1799926757812</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.710000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="H42" t="n">
-        <v>10.8</v>
+        <v>3.89</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-2.87</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-14.23</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-13.31</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>825.42</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>726.92</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>917.9</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>685.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>-11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.72708129882812</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>773.69140625</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1029</v>
+      </c>
       <c r="D43" t="n">
-        <v>65.44000244140625</v>
+        <v>879</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.72</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>22.8</v>
+        <v>2.51</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.94</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.36</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>21.34</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4671.43</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4704.29</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>459.4</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>221.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>-11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>290.4837341308594</v>
+        <v>488.8999938964844</v>
       </c>
       <c r="C44" t="n">
-        <v>402.9500122070312</v>
+        <v>613.0999755859375</v>
       </c>
       <c r="D44" t="n">
-        <v>363.4500122070312</v>
+        <v>571.0999755859375</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Industrial Minerals</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.77</v>
+        <v>14.1</v>
       </c>
       <c r="H44" t="n">
         <v>10.9</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-27.97</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>184.15</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>184.47</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-10.96</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>264.06</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>264.43</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>-11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>BLACKBUCK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>114.4499969482422</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>489.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>644.2000122070312</v>
+      </c>
       <c r="D45" t="n">
-        <v>141.7700042724609</v>
+        <v>634.9000244140625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Transport Related Services</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.79</v>
+        <v>10.5</v>
       </c>
       <c r="H45" t="n">
-        <v>17.8</v>
+        <v>47.3</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.88</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>-166.67</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>-164.34</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-9.1</v>
       </c>
       <c r="Q45" t="n">
-        <v>-12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>778.4500122070312</v>
-      </c>
-      <c r="C46" t="n">
-        <v>873.9500122070312</v>
-      </c>
+        <v>692.6035766601562</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>873.7000122070312</v>
+        <v>1065.800048828125</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6962,112 +7352,116 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.38</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>17.1</v>
+        <v>15.6</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>9.33</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>13.77</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-22.13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-22.12</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>340.4</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-126.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>ASAHIINDIA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>150.2200012207031</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>849.680908203125</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1027.099975585938</v>
+      </c>
       <c r="D47" t="n">
-        <v>178.8699951171875</v>
+        <v>958.0999755859375</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Automobile and Auto Components</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.72</v>
+        <v>12.4</v>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>13.6</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>70.69</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>-5.71</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>-10.14</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>813.0499877929688</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>290.4837341308594</v>
+      </c>
+      <c r="C48" t="n">
+        <v>402.9500122070312</v>
+      </c>
       <c r="D48" t="n">
-        <v>1198.599975585938</v>
+        <v>363.4500122070312</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7076,299 +7470,305 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.47</v>
+        <v>8.77</v>
       </c>
       <c r="H48" t="n">
-        <v>17.2</v>
+        <v>10.9</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>45.94</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>46.06</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>-10.02</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>-10.15</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>144.6</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>-12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>245.4449996948242</v>
+        <v>141.9900054931641</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>287.4500122070312</v>
+        <v>159.2799987792969</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.29</v>
+        <v>6.76</v>
       </c>
       <c r="H49" t="n">
-        <v>15.5</v>
+        <v>4.54</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>-10.74</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-9.9</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>11.76</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>163.38</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>167.65</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>-36.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>-12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>139.7700042724609</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>3009.645263671875</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4579.376953125</v>
+      </c>
       <c r="D50" t="n">
-        <v>161.7899932861328</v>
+        <v>4412.39990234375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Compressors, Pumps &amp; Diesel Engines</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.17</v>
+        <v>36.3</v>
       </c>
       <c r="H50" t="n">
-        <v>12.4</v>
+        <v>28.2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>-3.63</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>-21.86</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-21.92</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>30.26901626586914</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>9.600000381469727</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11.96000003814697</v>
+      </c>
       <c r="D51" t="n">
-        <v>40.95000076293945</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Telecommunication</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Telecom - Cellular &amp; Fixed line services</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>-1.93</v>
       </c>
       <c r="H51" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>-4.31</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>-20.02</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>-48.42</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>59.3</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>428.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>ADANIPOWER</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>214.0243988037109</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>120.7900009155273</v>
+      </c>
+      <c r="C52" t="n">
+        <v>167.7200012207031</v>
+      </c>
       <c r="D52" t="n">
-        <v>288.2999877929688</v>
+        <v>139.8999938964844</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Integrated Power Utilities</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.03</v>
+        <v>22.5</v>
       </c>
       <c r="H52" t="n">
-        <v>12.9</v>
+        <v>26.1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>-7.48</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>-14.38</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-15.69</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-8.92</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>-15.37</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-18.87</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>-322</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>-59.7</v>
       </c>
       <c r="Q52" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GVT&amp;D</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3170.10009765625</v>
+        <v>821</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>3553</v>
+        <v>994.9000244140625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Capital Goods</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Other Bank</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="H53" t="n">
-        <v>18.6</v>
+        <v>22.3</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -7395,39 +7795,37 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>GVT&amp;D</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>263.2029113769531</v>
-      </c>
-      <c r="C54" t="n">
-        <v>328.25</v>
-      </c>
+        <v>3170.10009765625</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>313.7999877929688</v>
+        <v>3553</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Capital Goods</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4.69</v>
+        <v>18.6</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -7454,26 +7852,32 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>KARURVYSYA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>197.2599945068359</v>
-      </c>
-      <c r="C55" t="n">
-        <v>238.7299957275391</v>
-      </c>
+        <v>245.3600006103516</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>222.8500061035156</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Private Sector Bank</t>
+        </is>
+      </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
@@ -7568,26 +7972,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>215.2420959472656</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>197.2599945068359</v>
+      </c>
+      <c r="C57" t="n">
+        <v>238.7299957275391</v>
+      </c>
       <c r="D57" t="n">
-        <v>284.1000061035156</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Private Sector Bank</t>
-        </is>
-      </c>
+        <v>222.8500061035156</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>0</v>
       </c>
@@ -7625,15 +8023,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KARURVYSYA</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>245.3600006103516</v>
+        <v>215.2420959472656</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>316</v>
+        <v>284.1000061035156</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
